--- a/JCSC_SOURCE_MATRIX.xlsx
+++ b/JCSC_SOURCE_MATRIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\JCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6E4240-7005-4876-8A27-D7310230D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F0D2F-4853-4868-B6CF-D567AE93019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIX DATA" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="2461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="2502">
   <si>
     <t>Author</t>
   </si>
@@ -8174,6 +8173,129 @@
   </si>
   <si>
     <t>D_Implication: Irish DF should hard-code civilian primacy, proscribe party–force fusion, and keep auxiliaries under law.</t>
+  </si>
+  <si>
+    <t>SCHNEIDER_2024</t>
+  </si>
+  <si>
+    <t>Jacquelyn Schneider; Julia Macdonald</t>
+  </si>
+  <si>
+    <t>Looking back to look forward: Autonomous systems, military revolutions, and the importance of cost</t>
+  </si>
+  <si>
+    <t>Conceptual historical synthesis; literature review; theory application to autonomy</t>
+  </si>
+  <si>
+    <t>Core claim: autonomy is revolutionary when it reduces economic and political costs, not when it only boosts speed, range or precision; prescribes two acquisition strategies keyed to cost (pp.162–166, 174–178)</t>
+  </si>
+  <si>
+    <t>Theory of cost; RM vs RMA distinction; three characteristics (speed, range, persistence/precision); mesh networks; cheap mass over exquisite survivability; use autonomy to raise adversary costs, deplete munitions and create friction (pp.166–177, 178)</t>
+  </si>
+  <si>
+    <t>Links historical cost drivers to present autonomy choices; clear, actionable two-track prescription; rich historical anchors (longbow, trace italienne, Prussia) (pp.166–170, 174–178)</t>
+  </si>
+  <si>
+    <t>Inference led; limited quantification; US lens; budget numbers indicative; scope to 2024 horizon (pp.171–174, 178–179)</t>
+  </si>
+  <si>
+    <t>Converges with BOUSQUET_2014 on limits of control; NEWMYER_2010 on information primacy; KOBER_2008 on tech limits</t>
+  </si>
+  <si>
+    <t>Challenges platform-led RMA recipes; re-centres costs and conditions; elevates cheap, expendable mass over exquisite assets (pp.174–179)</t>
+  </si>
+  <si>
+    <t>Longbow v knight costs; trace italienne as cost inflator; Prussia rail and telegraph; WWI materiel attrition; two acquisition strategies; survivability trade-offs; mesh autonomy (pp.166–175, 178)</t>
+  </si>
+  <si>
+    <t>Irish DF: treat autonomy as a cost instrument; favour cheap expendables, dispersion, deception, EW; keep exquisite scarce; avoid speed-first automation that raises escalation risk (pp.174–179)</t>
+  </si>
+  <si>
+    <t>US policy-analytic lens; Hoover and DU affiliations; sceptical of RMA hype (p.162)</t>
+  </si>
+  <si>
+    <t>Open-source synthesis; minimal original data; general scope; excludes non-US procurement depth (pp.171–174, 178–179)</t>
+  </si>
+  <si>
+    <t>D_Describe: Autonomy is revolutionary when it cuts economic and political costs (pp.162–166).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes modernisation choices around cost control, not traits alone (pp.174–178).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis plus historical tracing; moderate validity (pp.166–171).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on two-track prescription and survivability critique (pp.176–178).</t>
+  </si>
+  <si>
+    <t>D_Author: US scholars with policy lens; caution against technicism (p.162).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with sceptics of decisive control; centres information and cost.</t>
+  </si>
+  <si>
+    <t>D_Limit: Inference led, US centric, thin quantification.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should buy cheap mass, harden C2 and rehearse reconstitution.</t>
+  </si>
+  <si>
+    <t>Historiographical review; conceptual critique of RMA literature; synthesis of revisionist scholarship; no original data</t>
+  </si>
+  <si>
+    <t>RMA’s Blitzkrieg ideal rests on isolated operational readings of 1940, ignores the Eastern Front and grand strategy, reflects post-Vietnam US ideals, and relies on uncritical Wehrmacht admiration; calls for methodological discipline (Abstract)</t>
+  </si>
+  <si>
+    <t>Idealised Blitzkrieg; doctrine-vs-doctrine fallacy; French 1940 errors; “study Barbarossa” for planned Blitzkrieg failure; logistics and economy; operational level cannot be isolated; think-tank fashions; Huntington and Wehrmacht myth (Abstract; ‘Doctrine vs. Doctrine’; ‘Isolation… France’)</t>
+  </si>
+  <si>
+    <t>Sharp exposure of assumptions; links operational analysis to strategic–economic context; integrates revisionist history; policy-relevant cautions</t>
+  </si>
+  <si>
+    <t>Review format; few primary archives; European theatre focus; small-state transfer indirect</t>
+  </si>
+  <si>
+    <t>Converges with Murray on continuity and non-technological drivers; with Prezelj on rarity of discontinuity; with McNaugher on problem-led, incremental change</t>
+  </si>
+  <si>
+    <t>Differs from triumphalist tech-determinism and capability-only explanations</t>
+  </si>
+  <si>
+    <t>Use as brake on RMA claims; integrate grand strategy, logistics and political economy; treat “Blitzkrieg lessons” as culturally contingent</t>
+  </si>
+  <si>
+    <t>My conclusion: treat Blitzkrieg-as-RMA as American projection; prioritise organisation, economy and legitimacy in inference</t>
+  </si>
+  <si>
+    <t>European historian’s critical lens; sceptical of US defence-intellectual culture and Wehrmacht apologias</t>
+  </si>
+  <si>
+    <t>Lack of quantitative tests; secondary reliance; limited small-state exemplars</t>
+  </si>
+  <si>
+    <t>D_Describe: Shows RMA’s Blitzkrieg image ignores strategy, economy and the Eastern Front; reflects US post-Vietnam ideals (Abstract).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Frames how to read “lessons” without operational tunnel vision; cautions against importing myths.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Historiographical critique and synthesis; validity moderate; limited primary evidence.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where it shifts focus from doctrine to resources, society and Barbarossa failure.</t>
+  </si>
+  <si>
+    <t>D_Author: European security scholar; sceptical of think-tank fashions and Wehrmacht admiration.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with continuity and organisational-primacy strands; challenges triumphalist RMA narratives.</t>
+  </si>
+  <si>
+    <t>D_Limit: Review genre and secondary dependence constrain inference.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should discipline “RMA” claims with strategic–economic tests and legitimacy checks.</t>
   </si>
 </sst>
 </file>
@@ -8586,10 +8708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0111F966-AC4E-4B87-8117-CC0F46545464}">
-  <dimension ref="A1:W105"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:V105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15725,6 +15847,142 @@
         <v>2460</v>
       </c>
     </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2466</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2467</v>
+      </c>
+      <c r="H106" t="s">
+        <v>2468</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2469</v>
+      </c>
+      <c r="J106" t="s">
+        <v>2470</v>
+      </c>
+      <c r="K106" t="s">
+        <v>2471</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2472</v>
+      </c>
+      <c r="M106" t="s">
+        <v>2473</v>
+      </c>
+      <c r="N106" t="s">
+        <v>2474</v>
+      </c>
+      <c r="O106" t="s">
+        <v>2475</v>
+      </c>
+      <c r="P106" t="s">
+        <v>2476</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>2477</v>
+      </c>
+      <c r="R106" t="s">
+        <v>2478</v>
+      </c>
+      <c r="S106" t="s">
+        <v>2479</v>
+      </c>
+      <c r="T106" t="s">
+        <v>2480</v>
+      </c>
+      <c r="U106" t="s">
+        <v>2481</v>
+      </c>
+      <c r="V106" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F107" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J107" t="s">
+        <v>2489</v>
+      </c>
+      <c r="K107" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L107" t="s">
+        <v>2491</v>
+      </c>
+      <c r="M107" t="s">
+        <v>2492</v>
+      </c>
+      <c r="N107" t="s">
+        <v>2493</v>
+      </c>
+      <c r="O107" t="s">
+        <v>2494</v>
+      </c>
+      <c r="P107" t="s">
+        <v>2495</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>2496</v>
+      </c>
+      <c r="R107" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S107" t="s">
+        <v>2498</v>
+      </c>
+      <c r="T107" t="s">
+        <v>2499</v>
+      </c>
+      <c r="U107" t="s">
+        <v>2500</v>
+      </c>
+      <c r="V107" t="s">
+        <v>2501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JCSC_SOURCE_MATRIX.xlsx
+++ b/JCSC_SOURCE_MATRIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\JCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F0D2F-4853-4868-B6CF-D567AE93019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495F15C7-0A29-465C-B6B8-E1241ADDF466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="2502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="3484">
   <si>
     <t>Author</t>
   </si>
@@ -8296,6 +8296,2952 @@
   </si>
   <si>
     <t>D_Implication: Irish DF should discipline “RMA” claims with strategic–economic tests and legitimacy checks.</t>
+  </si>
+  <si>
+    <t>Hinton, Patrick</t>
+  </si>
+  <si>
+    <t>Strategic culture versus rules-based order; comparison with neorealism; policy and forecasting implications</t>
+  </si>
+  <si>
+    <t>Conceptual analysis and critical literature synthesis across three waves; comparative theory with illustrative cases (pp.80–87)</t>
+  </si>
+  <si>
+    <t>Finds rules-based order overstated; argues states act through history and culture; neorealism leaves gaps; strategic culture aids explanation and limited forecasting (pp.80–87)</t>
+  </si>
+  <si>
+    <t>Three waves of strategic culture; agency and elites; domestic ideas shape grand strategy; self-reflection; limits of structural theories; terrorism and RMA as tests (pp.81–86)</t>
+  </si>
+  <si>
+    <t>Synthesises Snyder, Johnston, Gray; links theory to practice; shows foresight value and self-critique utility (pp.81–86)</t>
+  </si>
+  <si>
+    <t>Weak operationalisation; few contemporary cases; definitional breadth; US–UK lens; essayistic form limits measurement (pp.82–85)</t>
+  </si>
+  <si>
+    <t>Aligns with Gray on context and self-reflection; with Meyer on relative stability for forecasting (pp.84–86)</t>
+  </si>
+  <si>
+    <t>Differs from neorealism’s parsimony; disputes a stable rules-based order narrative; emphasises cultural mediation of choice (pp.84–86)</t>
+  </si>
+  <si>
+    <t>Frames strategic culture as complement, not substitute; urges breadth of theories; suggests culture-centric approaches in CT and strategy (pp.84–86)</t>
+  </si>
+  <si>
+    <t>Use strategic culture to temper Irish DF planning; pair with structural analysis; build habits of self-critique (pp.84–87)</t>
+  </si>
+  <si>
+    <t>UK Royal Artillery officer with UAS background; RUSI prize context, practitioner tilt (p.87)</t>
+  </si>
+  <si>
+    <t>Lacks tests and metrics; limited case specificity; stability claims risk overreach (pp.82–86)</t>
+  </si>
+  <si>
+    <t>D_Describe: Sets strategic culture against rules-based order; finds behaviour rooted in history (pp.80–81).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters for Irish DF analysis but offers limited measures and few cases (pp.80–87).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual review of three waves, comparative theory, illustrative examples; moderate validity (pp.81–85).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest when critiquing neorealism gaps and urging self-reflection in policy (pp.84–86).</t>
+  </si>
+  <si>
+    <t>D_Author: UK artillery officer, RUSI prize context; pragmatic lens with practitioner tilt (p.87).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with Gray on context, diverges from structural certainty in neorealism (pp.84–86).</t>
+  </si>
+  <si>
+    <t>D_Limit: No operationalisation, stability claims risk overreach, cases selective (pp.82–85).</t>
+  </si>
+  <si>
+    <t>D_Implication: Adopt culture-aware analysis in Irish DF planning and engagement choices (pp.86–87).</t>
+  </si>
+  <si>
+    <t>HINTON_2020</t>
+  </si>
+  <si>
+    <t>RASKA_2021</t>
+  </si>
+  <si>
+    <t>Michael Raska</t>
+  </si>
+  <si>
+    <t>The sixth RMA wave: Disruption in Military Affairs?</t>
+  </si>
+  <si>
+    <t>Conceptual genealogy and literature synthesis; wave periodisation; policy-oriented analysis</t>
+  </si>
+  <si>
+    <t>Finds five IT-RMA waves fell short; argues a sixth AI-driven wave differs in drivers, diffusion and human–machine interaction; implies disruptive shift beyond modernisation-plus (pp.457–459, 469–474)</t>
+  </si>
+  <si>
+    <t>Key ideas: five IT-RMA waves; AI-RMA as global phenomenon; dual-use commercial “spin-on”; US–China techno-nationalism; small and middle-state trajectories; intelligentised warfare; human–machine teaming (pp.457–459, 469–474)</t>
+  </si>
+  <si>
+    <t>Strengths: clear periodisation; links tech, strategy and diffusion; integrates small-state angle; policy relevance</t>
+  </si>
+  <si>
+    <t>Weaknesses: inference led; thin quantification; pre-2021 horizon; emphasis on Asia-Pacific</t>
+  </si>
+  <si>
+    <t>Shares scepticism that prior waves underdelivered; aligns with Bitzinger–Raska on MCF; with Bousquet’s control limits</t>
+  </si>
+  <si>
+    <t>Contrasts platform-led RMA recipes; rejects modernisation-plus; centres civilian ecosystems and strategic rivalry</t>
+  </si>
+  <si>
+    <t>Notes: figure of six waves; Third Offset, JAM-GC, Mosaic Warfare; Singapore as exemplar; emphasis on AI-enabled C2 and autonomy (pp.469–474)</t>
+  </si>
+  <si>
+    <t>My conclusion: treat AI-RMA as diffusion through civilian tech; harden C2, dispersion, deception; build civil–mil pipelines; avoid deterministic claims</t>
+  </si>
+  <si>
+    <t>RSIS scholar; Asia-focused innovation lens; cautious on IT-RMA triumphalism</t>
+  </si>
+  <si>
+    <t>Conceptual scope; secondary sources; few outcome measures; evolving post-2021 contexts</t>
+  </si>
+  <si>
+    <t>D_Describe: Five IT-RMA waves underdelivered; AI-RMA differs in drivers and diffusion (pp.457–459).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes procurement and doctrine around civilian ecosystems and rivalry impacts.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual genealogy and synthesis; moderate validity; policy oriented.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on dual-use diffusion and small-state pathways; lighter on metrics (pp.469–474).</t>
+  </si>
+  <si>
+    <t>D_Author: RSIS academic with East Asia and innovation focus.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with civil–mil fusion and control-limit literatures.</t>
+  </si>
+  <si>
+    <t>D_Limit: Inference heavy; limited quantification; early horizon.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should plug into civilian tech, harden decision networks and practise reconstitution.</t>
+  </si>
+  <si>
+    <t>ADAMSKY_2008</t>
+  </si>
+  <si>
+    <t>Adamsky, Dima P.</t>
+  </si>
+  <si>
+    <t>Through the Looking Glass: Soviet MTR to American RMA; ALB/FOFA, RUK–ROK, OMG</t>
+  </si>
+  <si>
+    <t>Intellectual history using declassified Soviet sources, professional periodicals, US primary material; comparative doctrine (pp.257–259)</t>
+  </si>
+  <si>
+    <t>Shows Soviets theorised MTR first; US later adopted as RMA; deeper Soviet grasp; operationalised via RUK–ROK and OMG; ALB/FOFA context (pp.258–260, 268–274)</t>
+  </si>
+  <si>
+    <t>ALB/FOFA origins; Ogarkov’s MTR; ‘see and strike deep’; RUK–ROK system-of-systems; OMG infiltration; adaptive learning West–East–West (pp.260, 263–265, 271–274)</t>
+  </si>
+  <si>
+    <t>Strong source base; clear genealogy from MTR to RMA; rich operational implications; bridges theory and doctrine (pp.258–260, 271–274)</t>
+  </si>
+  <si>
+    <t>Limited operationalisation; few quantitative tests; deliberately avoids judging if change is truly revolutionary; period focus (p.258, p.259)</t>
+  </si>
+  <si>
+    <t>Aligns with sceptics that organisation and concepts condition tech; resonates with deep battle revival (pp.271–274)</t>
+  </si>
+  <si>
+    <t>Differs from US-first RMA narratives; disputes narrow weapons-led explanations; stresses Soviet conceptual primacy (pp.258–260)</t>
+  </si>
+  <si>
+    <t>RUK–ROK = sensors, C2, long-range precision; OMG = early deep manoeuvre to disrupt C2; parity by faster application (pp.271–274, 268–269)</t>
+  </si>
+  <si>
+    <t>Use Soviet lens to temper RMA claims; prioritise ISR–fires–C2 integration and doctrine for small-state defence (pp.271–274)</t>
+  </si>
+  <si>
+    <t>Academic practitioner of strategic studies; balanced but sympathetic to Soviet theoretical sophistication (front matter)</t>
+  </si>
+  <si>
+    <t>Article refrains from testing revolution status; selective cases; measurement light (p.258, p.259)</t>
+  </si>
+  <si>
+    <t>D_Describe: Soviet MTR prefigures US RMA; concepts outpaced tech (p.258).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters for DF doctrine; cautions against tech determinism (pp.268–269).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Archival and periodical synthesis; comparative doctrinal analysis; solid validity (pp.258–259).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best where RUK–ROK and OMG link ideas to operations (pp.271–274).</t>
+  </si>
+  <si>
+    <t>D_Author: Strategic studies scholar; dual US–Israel affiliations; rigorous synthesis (front matter).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with deep battle revival; diverges from US-first RMA stories (pp.260, 271).</t>
+  </si>
+  <si>
+    <t>D_Limit: Avoids adjudicating revolution; thin metrics; dated cases (p.258).</t>
+  </si>
+  <si>
+    <t>D_Implication: Build ISR–fires–C2 complexes that preserve mission command in DF (pp.271–274).</t>
+  </si>
+  <si>
+    <t>JOHNSON_2010</t>
+  </si>
+  <si>
+    <t>Bonnie Johnson</t>
+  </si>
+  <si>
+    <t>AI for tactical decision superiority and battle management</t>
+  </si>
+  <si>
+    <t>Conceptual systems-engineering synthesis with figures; no experiments or formal tests</t>
+  </si>
+  <si>
+    <t>AI-enabled BMAs can improve CID, shared SA, COA generation and prediction if built as a system of systems</t>
+  </si>
+  <si>
+    <t>Knowns/unknowns quadrants; ABI and OBP; OODA SoS; human–machine modes; JDL level-4 resource management; distributed agents; predictive analytics; decision scope; confidence levels</t>
+  </si>
+  <si>
+    <t>Holistic architecture maps data to decisions; actionable categories; integrates complexity science and resource management</t>
+  </si>
+  <si>
+    <t>Advocacy tone; no empirical validation; US naval focus; underplays adversary adaptation and legal–ethical constraints</t>
+  </si>
+  <si>
+    <t>Aligns with Nye–Owens on information integration; with Murray and McNaugher on evolution and organisation</t>
+  </si>
+  <si>
+    <t>More optimistic on automation; emphasises full automation in places; lighter on doctrine and legitimacy</t>
+  </si>
+  <si>
+    <t>Use AI as aid not decider; codify mode selection and thresholds; design UI that protects mission command</t>
+  </si>
+  <si>
+    <t>Prototype SoS BMAs with human-on-the-loop; measure confidence; prefer incremental roll-out</t>
+  </si>
+  <si>
+    <t>US systems-engineering and naval lens; pro-AI decision support</t>
+  </si>
+  <si>
+    <t>No pagination in extract; no trials; limited adversarial testing; transfer to small states not explicit</t>
+  </si>
+  <si>
+    <t>D_Describe: Conceptual AI–BMA framework for CID, shared SA, COA and prediction.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Shows when AI supports mission command and force coordination for small states.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with figures, not experiments; validity moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on architecture and modes, weak on measurement and failure cases.</t>
+  </si>
+  <si>
+    <t>D_Author: USN systems engineer advocates SoS decision aids.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with evolutionary anti-determinism; diverges on optimism for automation.</t>
+  </si>
+  <si>
+    <t>D_Limit: No empirical trials or deception models; no pagination.</t>
+  </si>
+  <si>
+    <t>D_Implication: Prototype AI BMAs, codify human control and confidence, protect mission command.</t>
+  </si>
+  <si>
+    <t>Historical–conceptual review of military revolutions; synthesis applied to autonomy; policy analysis; no original data</t>
+  </si>
+  <si>
+    <t>Autonomy is revolutionary when it mitigates political and economic cost; advises exquisite, controlled systems for low-stakes coercion and cheap mass autonomy for great-power war; warns survivability drives cost and scarcity (pp.177–178)</t>
+  </si>
+  <si>
+    <t>Speed–range–precision are tactical; cost decides revolutions; network fragility; mass cheap nodes for resilient meshes; Vietnam drove risk-mitigating unmanned adoption; FY2020 spend and domain split; survivability trade-offs (pp.171–176, 177–178)</t>
+  </si>
+  <si>
+    <t>Clear cost-centred framework; integrates longue durée history with concrete acquisition guidance; sharp trade-off analysis (pp.174–178)</t>
+  </si>
+  <si>
+    <t>US-centric lens; limited primary evidence or measurement; adversary adaptation and governance thin; small-state transfer implicit (pp.171–178)</t>
+  </si>
+  <si>
+    <t>Aligns with Murray/Knox on revolutions reshaping state capacity; with Gray/McNaugher on limits of tech determinism (pp.165–166, 174–176)</t>
+  </si>
+  <si>
+    <t>Differs from speed- or precision-led RMA triumphalism; challenges survivability-at-all-costs investment logic (pp.174–176, 177–178)</t>
+  </si>
+  <si>
+    <t>Useful to frame Irish DF choices: privilege mass, cheap sensors and munitions; mesh networks; set human-control thresholds by timeline and confidence (pp.174–178)</t>
+  </si>
+  <si>
+    <t>Treat autonomy as a cost lever, not a magic edge; build layered cheap capabilities, avoid brittle exquisite dependencies; protect mission command (pp.177–178)</t>
+  </si>
+  <si>
+    <t>US policy-advice stance; cost focus; sceptical of tech determinism (pp.171–178)</t>
+  </si>
+  <si>
+    <t>Secondary synthesis; scant quantitative testing; uncertain robustness under deception; pagination varies across sections (pp.171–178)</t>
+  </si>
+  <si>
+    <t>D_Describe: Cost, not speed, makes autonomy revolutionary; two acquisition paths (pp.177–178).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reorients “RMA” claims to budgets and politics; dials down hype (pp.177–178).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Historical synthesis plus conceptual mapping; validity moderate (pp.171–176).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best on trade-offs and mesh-at-scale over exquisite survivability (pp.174–176).</t>
+  </si>
+  <si>
+    <t>D_Author: US scholars linking autonomy to cost and state capacity (pp.171–178).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with continuity-first histories; rejects tech-only leaps (pp.165–166, 174–176).</t>
+  </si>
+  <si>
+    <t>D_Limit: Few measurements; US context; transferability bounded (pp.171–178).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should buy cheap mass autonomy, codify human-control, harden comms (pp.177–178).</t>
+  </si>
+  <si>
+    <t>SCHNEIDER_2024A</t>
+  </si>
+  <si>
+    <t>BOUSQUET_2007</t>
+  </si>
+  <si>
+    <t>Antoine J. A. Bousquet</t>
+  </si>
+  <si>
+    <t>Conceptual genealogy; discourse analysis; history of ideas tied to technologies</t>
+  </si>
+  <si>
+    <t>Thesis: a scientific way of warfare exists with four regimes — mechanistic, thermodynamic, cybernetic, chaoplexic — each defined by how it seeks order over chaos through centralisation, prediction and control (p.3).</t>
+  </si>
+  <si>
+    <t>Vocabulary: order–chaos; centralise–decentralise; predictability–uncertainty; clockwork, engine, computer, network metaphors; cybernetic ‘closed world’; Vietnam as cybernetic failure; complexity, OODA, swarming, network-centric warfare (pp.3, 40–47, 121–122, 204–205).</t>
+  </si>
+  <si>
+    <t>Strengths: clear periodisation; bridges science, technology and organisation; shows limits of control via Vietnam; maps move from computer to network metaphors (pp.3, 20, 121, 204–205).</t>
+  </si>
+  <si>
+    <t>Weaknesses: inference heavy; Western focus; thin quantification; doctoral horizon pre-2010.</t>
+  </si>
+  <si>
+    <t>Similarities: Converges with RASKA_2021 on waves and dual-use diffusion; with BOUSQUET_2014 on control limits; with KOBER_2008 on tech not decisive alone.</t>
+  </si>
+  <si>
+    <t>Differences: Challenges technological determinism; resists monolithic ‘RMA’ claims; nuances NCW as hybrid, not pure decentralisation (pp.40–47, 204–205).</t>
+  </si>
+  <si>
+    <t>Notes: ‘Closed world’ of Cold War C2, OR, systems analysis; Vietnam reversals; rise of chaos–complexity; networks, swarming, NCW; ‘Genealogy of control’ conclusion (pp.121–122, 150, 204–205, 225–230).</t>
+  </si>
+  <si>
+    <t>My conclusion: Use Bousquet as frame for argument maps; treat control claims sceptically; privilege mission command, dispersion, deception, reconstitution.</t>
+  </si>
+  <si>
+    <t>Author Bias: LSE IR scholar; critical of omniscience claims; sympathetic to decentralised control under uncertainty.</t>
+  </si>
+  <si>
+    <t>Key Limitations: Conceptual synthesis; Western literature base; limited outcome metrics; 2007 horizon.</t>
+  </si>
+  <si>
+    <t>D_Describe: Four regimes show shifting answers to order–chaos via machine metaphors and control ideals (p.3).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Re-centres Irish DF choices on control under uncertainty, not kit alone.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Genealogical discourse study across science, tech and doctrine; moderate validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Sharp where it shows cybernetic failure in Vietnam and the partial break to networks (pp.20, 204–205).</t>
+  </si>
+  <si>
+    <t>D_Author: Doctoral thesis positioning against technicism; engages Gray, Edwards, van Creveld.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with sceptics of decisive control; bridges to complexity–network thinking (pp.40–47).</t>
+  </si>
+  <si>
+    <t>D_Limit: Concept heavy, Western scope, thin measurement.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should institutionalise mission command, layered C2 hardening, EW, dispersion and rapid reconstitution.</t>
+  </si>
+  <si>
+    <t>DAVIS_2018</t>
+  </si>
+  <si>
+    <t>Davis, Paul K.</t>
+  </si>
+  <si>
+    <t>Defence planning under deep uncertainty; FARness principle; limits of PPBE; cases 1976–2016</t>
+  </si>
+  <si>
+    <t>Conceptual analysis with historical cases; critique of mainstream PPBE; prescriptive framework for adaptiveness (pp.374–385)</t>
+  </si>
+  <si>
+    <t>Normal processes struggle with major change; leaders and special mechanisms drive shifts; analysis should deliver FARness; capabilities-based planning hedges against uncertainty (pp.375–385)</t>
+  </si>
+  <si>
+    <t>PPBE tenets; inertia from standard scenarios; rapid deployment forces to USCENTCOM; 1990s–2000s transformation; COIN pivot; Era B diffusion; FARness duties; capabilities-based planning as hedge (pp.375–384)</t>
+  </si>
+  <si>
+    <t>Synthetic sweep across eras; clear practical lessons; precise analyst duties; strong linkage to policy problems (pp.375–385)</t>
+  </si>
+  <si>
+    <t>US lens; few metrics; essayistic evidence; selective cases; limited operationalisation for small states (pp.378–383)</t>
+  </si>
+  <si>
+    <t>Aligns with adaptive planning and robust decisionmaking literatures; echoes critiques of technocratic optimisation (pp.384–385)</t>
+  </si>
+  <si>
+    <t>Differs from process-faithful PPBE advocates; challenges structural certainty and narrow scenario planning (pp.375–376)</t>
+  </si>
+  <si>
+    <t>Use FARness to structure Irish DF plans; combine capabilities-based hedging with culture-aware analysis; test outside routine gates (pp.384–385)</t>
+  </si>
+  <si>
+    <t>Adopt flexible, adaptive, robust planning; keep hedges and options; avoid single-scenario optimisation (pp.384–385)</t>
+  </si>
+  <si>
+    <t>RAND scholar-practitioner; DoD planning background; pro-adaptiveness stance (front matter)</t>
+  </si>
+  <si>
+    <t>Not empirical; US-centric; stability of recommendations untested; relies on secondary sources (pp.374–385)</t>
+  </si>
+  <si>
+    <t>D_Describe: Examines defence planning; finds big changes need special mechanisms (pp.374–376).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Useful for Irish DF reform; prioritises adaptiveness over fixed visions (pp.384–385).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual review with case vignettes; argumentative evidence; moderate validity (pp.374–385).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best where FARness and capabilities-based planning are specified (pp.384–385).</t>
+  </si>
+  <si>
+    <t>D_Author: RAND scholar-practitioner; DoD experience shapes priorities (p.374).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with adaptive planning literature; critiques over-standardisation (p.375).</t>
+  </si>
+  <si>
+    <t>D_Limit: US-centric cases; minimal quantitative testing; normative bias (pp.378–383).</t>
+  </si>
+  <si>
+    <t>D_Implication: Embed FARness in Irish DF planning and exercises (pp.384–385).</t>
+  </si>
+  <si>
+    <t>ALACH_2010</t>
+  </si>
+  <si>
+    <t>Zhivan Alach</t>
+  </si>
+  <si>
+    <t>The New Aztecs: Ritual and Restraint in Contemporary Western Military Operations</t>
+  </si>
+  <si>
+    <t>Conceptual historical–comparative analysis; case vignettes; cultural–strategic synthesis</t>
+  </si>
+  <si>
+    <t>Western warfare has shifted to ritual and restraint resembling primitive war; casualty aversion, ROE and legitimacy shape conduct; restraint can delay decision and extend conflicts (pp.248–251, 254–261, 266)</t>
+  </si>
+  <si>
+    <t>Key ideas: Flower Wars metaphor; ritual and restraint; Somalia, Kosovo, Afghanistan, Iraq, Lebanon 2006; media–democracy–humanitarian norms; professionalism; counterfactuals (pp.248–249, 254–261, 262–266)</t>
+  </si>
+  <si>
+    <t>Strengths: Coherent genealogy; vivid case contrasts; links culture, politics and method; clear drivers with implications (pp.248–251, 261)</t>
+  </si>
+  <si>
+    <t>Weaknesses: Inference heavy; Western lens; limited quantification; selective cases (pp.261–266)</t>
+  </si>
+  <si>
+    <t>Similarities: Converges with Gray and van Creveld on restraint and limited utility; echoes Biddle on 2006 Lebanon limits (pp.260–261)</t>
+  </si>
+  <si>
+    <t>Differences: Challenges Hanson’s decisive Western way of war; disputes total-war logic in contemporary interventions (pp.249–253)</t>
+  </si>
+  <si>
+    <t>Notes: Kosovo high-altitude caution and Apache withheld; Afghanistan and Iraq as extreme policing with tight ROE; Lebanon airpower-first then constrained ground; counterfactuals of total war (pp.255–261, 262)</t>
+  </si>
+  <si>
+    <t>My conclusion: Treat restraint as structural not incidental; design doctrine for protracted, legitimacy-bound contests and adversary adaptation (pp.261–266)</t>
+  </si>
+  <si>
+    <t>Author Bias: NZ defence analyst; sceptical of technicism; attentive to legal–humanitarian frames (p.249)</t>
+  </si>
+  <si>
+    <t>Key Limitations: 2010 horizon; pre-Arab Spring and Ukraine; few outcome metrics; heavy secondary sourcing (pp.261–266)</t>
+  </si>
+  <si>
+    <t>D_Describe: Western war has returned to ritual and restraint across Somalia, Kosovo, Afghanistan, Iraq and Lebanon (pp.254–261).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Explains low-casualty politics and legitimacy calculus; warns restraint may prolong conflicts; omits robust metrics.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with historical sweep, case vignettes and counterfactuals; moderate validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Sharp where it details ROE, casualty aversion and alliance micromanagement in Kosovo and Iraq (pp.255–259).</t>
+  </si>
+  <si>
+    <t>D_Author: NZ policy analyst with defence background; argues against annihilationist narratives.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with sceptics of decisive control; diverges from total-war advocates (pp.259–261).</t>
+  </si>
+  <si>
+    <t>D_Limit: Western focus and snapshot horizon restrict generalisability.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should plan restrained operations: ROE discipline, dispersion, civ–mil contact skills and information management.</t>
+  </si>
+  <si>
+    <t>DECHANT_2014</t>
+  </si>
+  <si>
+    <t>Dechant, Jason A.</t>
+  </si>
+  <si>
+    <t>Catalysing change in complex organisations: the DoD Office of Force Transformation</t>
+  </si>
+  <si>
+    <t>Qualitative multi-case study; documentary analysis; ~20 elite interviews; evaluative framework of productivity, effectiveness, impact (pp.15–42; 249–251)</t>
+  </si>
+  <si>
+    <t>OFT broadly advanced three initiatives—ORS, Stiletto, Education for Transformation—with endurance varying by case; leadership and resourcing proved decisive (pp.165–172; 198–205; 233–235)</t>
+  </si>
+  <si>
+    <t>Evaluative criteria defined; ORS funding climbed to ~$228m in 2009; Stiletto total ~$31.8m; PME framed as culture lever; endurance as success proxy (pp.165; 198–199; 210–213; 233–235)</t>
+  </si>
+  <si>
+    <t>Systematic framework; triangulates interviews with budget series; clear cross-case logic; granular funding data</t>
+  </si>
+  <si>
+    <t>US DoD-centric; outcomes proxied by endurance; interview recall risk; limited independent operational performance data</t>
+  </si>
+  <si>
+    <t>Converges with organisational change work that foregrounds leadership, culture, resources</t>
+  </si>
+  <si>
+    <t>Differs from battlefield-effects literature by privileging bureaucratic levers over combat outcomes</t>
+  </si>
+  <si>
+    <t>Useful for LO on explaining how institutions change; template for assessing Irish initiatives; watch service resistance; use PME to shift culture (pp.210–213; 249–251)</t>
+  </si>
+  <si>
+    <t>Small catalytic offices can accelerate change if resourced, sponsored, and embedded into service structures; ORS likely advanced 10–15 years (p.172)</t>
+  </si>
+  <si>
+    <t>Practitioner-scholar acknowledges Institute for Defense Analyses support; proximity may tilt interpretations toward programme value</t>
+  </si>
+  <si>
+    <t>ID-bound cases; endurance ≠ effectiveness; generalisability to small states uncertain</t>
+  </si>
+  <si>
+    <t>D_Describe: OFT advanced ORS, Stiletto, education; success mixed, endurance matters (pp.165; 205; 251).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Shows how small offices catalyse change; omits robust operational outcomes.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Three cases, interviews, funding series; moderate validity signals.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best on endurance and funding trend evidence (pp.165–205).</t>
+  </si>
+  <si>
+    <t>D_Author: IDA-supported practitioner; access rich, potential tilt.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with culture-and-leadership change accounts.</t>
+  </si>
+  <si>
+    <t>D_Limit: US DoD scale; transfer to small states uncertain.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF could trial a small catalytic unit plus PME lever.</t>
+  </si>
+  <si>
+    <t>Zhivan J. Alach</t>
+  </si>
+  <si>
+    <t>Slowing Military Change</t>
+  </si>
+  <si>
+    <t>Comparative historical analysis; development timelines; performance metrics; conceptual synthesis</t>
+  </si>
+  <si>
+    <t>Finds relative military stasis: longer development cycles with smaller capability gains; only electronics improve rapidly yet military lags commercial; RMA claims overstated (Summary; pp.4–22, 21–24, 49, 67).</t>
+  </si>
+  <si>
+    <t>Key ideas: F/A-22’s 24-year path to IOC; P-51’s 117-day prototype and 2-year to ops; elongating US fighter timelines; Soviet tanks’ incrementalism; cruisers culminating in Aegis; IT progress pulled by civilian sector; causes = threat decline, bureaucratic drag, technology limits (pp.4–12, 13–18, 19–24, 24–41, 21–24, 49).</t>
+  </si>
+  <si>
+    <t>Strengths: Clear cross-domain periodisation; concrete timelines and performance framing; balanced treatment of electronics vs platforms; policy-neutral stance (Summary; pp.4–22).</t>
+  </si>
+  <si>
+    <t>Weaknesses: Inference heavy; thin quantification; US–Russia focus; 2008 horizon (pp.24–41, 67).</t>
+  </si>
+  <si>
+    <t>Similarities: Converges with BOUSQUET_2007 on limits of control; aligns with RASKA_2021 and BLITZINGER_2022 on civilian innovation primacy; echoes KOBER_2008 scepticism.</t>
+  </si>
+  <si>
+    <t>Differences: Challenges RMA triumphalism; resists platform-led transformation narratives (p.49).</t>
+  </si>
+  <si>
+    <t>Notes: F/A-22 requirements 1981, IOC 2005; P-51 117-day prototype; fighter performance gains tail off; tanks and ships incremental; electronics lag commercial; “Darwinian” threat response; government structure; technology ceilings; RMA critique (pp.4–12, 13–22, 21–24, 24–41, 49).</t>
+  </si>
+  <si>
+    <t>My conclusion: Treat stasis as structural; privilege doctrine, organisation, dispersion and reconstitution; assume computing advances come via civilian pipelines; be wary of revolution rhetoric (pp.21–24, 49, 67).</t>
+  </si>
+  <si>
+    <t>Author Bias: NZ Army capability analyst; USAWC-funded monograph; cautious of technicism (Foreword; Bio).</t>
+  </si>
+  <si>
+    <t>Key Limitations: Pre-AI swarms maturity; limited outcome metrics; Western focus; macro lens (pp.24–41, 67).</t>
+  </si>
+  <si>
+    <t>D_Describe: Relative military stasis: longer cycles, smaller gains; electronics fast yet military lags (Summary; pp.4–22).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes modernisation as organisational and political, not platform alone; counters RMA hype (pp.49, 67).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Cross-domain timelines and performance indicators; conceptual synthesis; moderate validity (pp.4–22, 24–41).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where it contrasts F/A-22 and P-51 speed to field and links tech to context (pp.4–10).</t>
+  </si>
+  <si>
+    <t>D_Author: NZ analyst with USAWC funding signals policy-analytic lens and caution (Foreword; Bio).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with sceptics who prize information and organisation over hardware leaps.</t>
+  </si>
+  <si>
+    <t>D_Limit: Thin quantification and pre-2008 horizon bound claims (pp.24–41, 67).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should plan for diffusion via civilian tech, resilience in C2, deception and rapid reconstitution.</t>
+  </si>
+  <si>
+    <t>GENTRY_2002</t>
+  </si>
+  <si>
+    <t>Gentry, John A.</t>
+  </si>
+  <si>
+    <t>JV 2020 critique; RMA promises vs institutional limits and vulnerabilities</t>
+  </si>
+  <si>
+    <t>Conceptual policy critique using official documents, incidents and practitioner insight; argumentative evidence with notes (n.1–47)</t>
+  </si>
+  <si>
+    <t>JV 2020 is narrowly applicable, infrastructure-fragile, easily countered and institutionally blocked; results will disappoint unless redesigned</t>
+  </si>
+  <si>
+    <t>Four fatal flaws; network complexity and fragility; GPS jamming risk; commercial links; cyber vulnerability; maskirovka; attrition strategy; force protection saturation; weak measures of effectiveness; cultural arrogance; need to reform doctrine, training and leadership</t>
+  </si>
+  <si>
+    <t>Concrete examples with citations; integrates technology, organisation and politics; prescriptive reform steps</t>
+  </si>
+  <si>
+    <t>US-centric and dated; few metrics; selective cases; normative tone; limited small-state mapping</t>
+  </si>
+  <si>
+    <t>Converges with Davis on process inertia and hedging; with Adamsky on organisation gating technology; with Betts on asymmetric counters</t>
+  </si>
+  <si>
+    <t>Differs from network-centric optimism and full-protection doctrines; rejects tech determinism and JV 2020 end-state claims</t>
+  </si>
+  <si>
+    <t>Information superiority definition and JV 2010–2020 aims (n.1–4); GPS jamming and space vulnerabilities (n.11–15); NSA outage and cyber exercises ER97 and Zenith Star (n.16–22); maskirovka and deception, satellite orbits online, NSA limits (n.29); institutional sprawl, Y2K continuity, DODI 3020.39 (n.32, n.36–37)</t>
+  </si>
+  <si>
+    <t>Irish DF should treat RMA claims cautiously, build resilient modular C2 with analogue fallback, codify disciplined intervention, prioritise human capital and measures of effectiveness</t>
+  </si>
+  <si>
+    <t>MITRE analyst and USAR lieutenant colonel; practitioner lens; sceptical of tech determinism</t>
+  </si>
+  <si>
+    <t>Lacks pagination in excerpt; essayistic evidence; pre-2003 context; small-state transfer uncertain</t>
+  </si>
+  <si>
+    <t>D_Describe: Critiques JV 2020 as tech-led, fragile, narrowly applicable, institutionally blocked (n.4; n.19–22).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Shows RMA limits for policy; warns Irish DF against network dependency and weak metrics.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual critique using incidents, official docs, press, practitioner insight; argumentative validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on infrastructure vulnerabilities, easy countermeasures, institutional barriers to interoperability.</t>
+  </si>
+  <si>
+    <t>D_Author: MITRE analyst, USAR LTC; practitioner lens; cautious on tech determinism.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with adaptive planning critiques; diverges from network-centric optimism and full protection doctrines.</t>
+  </si>
+  <si>
+    <t>D_Limit: Evidence essayistic, US-centric; lacks pages and measures in this excerpt.</t>
+  </si>
+  <si>
+    <t>D_Implication: Build resilient C2 with analogue fallback; codify disciplined intervention; invest in human capital.</t>
+  </si>
+  <si>
+    <t>P. W. Singer</t>
+  </si>
+  <si>
+    <t>The ethics of killer applications: why it is hard to talk about morality with new military technology</t>
+  </si>
+  <si>
+    <t>Conceptual essay; seven-factor framework; illustrative cases; policy-inflected synthesis (pp.299–312)</t>
+  </si>
+  <si>
+    <t>Explains seven obstacles to ethical debate on emerging military tech; offers cautions and heuristics (pp.301–312)</t>
+  </si>
+  <si>
+    <t>Disciplinary disconnect; revenge of the real world; money pressures; cultural divergence; distance of action and intent; suspicion of ethics; ‘magic’ and science denial; Moore’s Law outruns law (pp.301–311)</t>
+  </si>
+  <si>
+    <t>Clear taxonomy; vivid cases; policy relevance; bridges tech, law, ethics; durable frame for analysis (pp.301–312)</t>
+  </si>
+  <si>
+    <t>Essayistic; limited primary data; US-centric lens; dated examples risk drift without updating (pp.299–312)</t>
+  </si>
+  <si>
+    <t>Converges with Dunlap on lawfare and complexity; aligns with caution on mirror-imaging (pp.302–303, 306–307)</t>
+  </si>
+  <si>
+    <t>Differs from tech determinists and simple ‘ethical governor’ fixes; resists silver bullets (pp.302–303)</t>
+  </si>
+  <si>
+    <t>Use as framing device for autonomy, UAS, mission command; extract practical safeguards; map to Irish DF education (pp.302–311)</t>
+  </si>
+  <si>
+    <t>Adopt Singer’s constraints to temper optimism; build ethics capacity and indicator watch for misuse (pp.301–311)</t>
+  </si>
+  <si>
+    <t>Brookings scholar; policy-advocacy tone; Western institutional perspective shapes examples (p.299)</t>
+  </si>
+  <si>
+    <t>No formal methodology; anecdotal evidence; few discriminating tests; cultural generalisations need care (pp.299–307)</t>
+  </si>
+  <si>
+    <t>D_Describe: Seven obstacles slow ethical debate on new military tech, complicating policy (pp.301–311).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Framework matters for autonomy debates; omits measurable criteria of improvement.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with cases and interviews; validity from coherence not data.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong taxonomy that travels across cases; warns off silver bullets (pp.302–311).</t>
+  </si>
+  <si>
+    <t>D_Author: Brookings policy scholar with US vantage point.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with lawfare complexity; diverges from techno-optimism.</t>
+  </si>
+  <si>
+    <t>D_Limit: Essay form, few metrics for impact.</t>
+  </si>
+  <si>
+    <t>D_Implication: Build ethics processes, transparency, cross-cultural literacy in DF practice.</t>
+  </si>
+  <si>
+    <t>SINGER_2010</t>
+  </si>
+  <si>
+    <t>Conceptual systems-engineering synthesis with figures; no formal trials</t>
+  </si>
+  <si>
+    <t>AI-enabled decision aids can lift combat ID, shared SA, COA generation and predictive wargaming if built as a system of systems</t>
+  </si>
+  <si>
+    <t>Knowns/unknowns quadrants; ABI &amp; OBP; OODA SoS; human–machine modes (manual/semiauto/auto); JDL level-4 resource management; distributed identical agents; predictive analytics; decision scope; confidence levels</t>
+  </si>
+  <si>
+    <t>Coherent architecture from data to decisions; crisp categories for fusion; force-level coordination logic</t>
+  </si>
+  <si>
+    <t>Advocacy tone; no empirical tests; thin on adversary deception and legal-ethical controls; US naval focus</t>
+  </si>
+  <si>
+    <t>Converges with Nye–Owens on information integration; aligns with evolutionary, organisation-first views</t>
+  </si>
+  <si>
+    <t>Diverts from platform-led determinism; more optimistic on automation than sceptical civil–military strands</t>
+  </si>
+  <si>
+    <t>Use as architectural blueprint but prototype cautiously; measure accuracy, latency, human intervention thresholds</t>
+  </si>
+  <si>
+    <t>Irish DF should trial AI BMAs as aids not deciders; codify human-on-the-loop; protect mission command</t>
+  </si>
+  <si>
+    <t>US systems-engineering lens favouring AI decision support</t>
+  </si>
+  <si>
+    <t>No pagination in extract; figures not tied to performance; deception and failure modes under-specified</t>
+  </si>
+  <si>
+    <t>D_Describe: Proposes AI-enabled BMAs for CID, shared SA, COA and prediction inside an OODA-oriented SoS.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Guides small-state choices on when AI supports mission command and coalition coordination.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with figures; validity moderate without trials.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on adaptive human–machine modes and resource management; weak on failure cases.</t>
+  </si>
+  <si>
+    <t>D_Author: USN systems engineer advocating SoS decision aids.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with information-integration accounts; diverges from kit-first determinism.</t>
+  </si>
+  <si>
+    <t>D_Limit: Untested concepts; thin treatment of deception and governance.</t>
+  </si>
+  <si>
+    <t>D_Implication: Prototype incrementally, codify intervention thresholds, rehearse degraded-comms fallbacks.</t>
+  </si>
+  <si>
+    <t>SPARROW_2016</t>
+  </si>
+  <si>
+    <t>Robert Sparrow</t>
+  </si>
+  <si>
+    <t>Robots and Respect: Assessing the Case Against Autonomous Weapon Systems</t>
+  </si>
+  <si>
+    <t>Philosophical ethics; conceptual analysis; historiography of the AWS debate; Arkin vs critics</t>
+  </si>
+  <si>
+    <t>Even if AWS could discriminate in restricted domains, their use disrespects human enemies; public revulsion and convention justify a prohibition; AWS should be treated as mala in se in practice</t>
+  </si>
+  <si>
+    <t>Definition of autonomy; military–technical drivers; hard problems of perception, proportionality and hors de combat; “ethical governor” critique; human oversight undermines advantages; restricted-domain feasibility; respect and the interpersonal relation; responsibility gap; public revulsion; case for a ban</t>
+  </si>
+  <si>
+    <t>Balanced dialectic; clear map of jus in bello hurdles; deep account of respect; acknowledges limited domains where targeting may be tractable</t>
+  </si>
+  <si>
+    <t>No empirical testing; depends on conventions and public attitudes; legal analysis light; small-state transfer indirect</t>
+  </si>
+  <si>
+    <t>Aligns with HRW, Roff, Sharkey on risks; converges with sceptics who centre organisation and ethics over kit</t>
+  </si>
+  <si>
+    <t>Differs from Arkin’s ethical autonomy and consequentialist “better than human” standards</t>
+  </si>
+  <si>
+    <t>Use to frame governance: insist on human control, narrow roles, respect-based limits; treat AWS as politically costly signals</t>
+  </si>
+  <si>
+    <t>My conclusion: keep AI as decision aid; if lethal autonomy is pursued, confine to narrow domains with strict human control</t>
+  </si>
+  <si>
+    <t>Normative scholar; critical of techno-optimism; sympathetic to arms-control arguments</t>
+  </si>
+  <si>
+    <t>Conceptual essay; relies on secondary sources; surveys not reproduced; measurement absent</t>
+  </si>
+  <si>
+    <t>D_Describe: Argues AWS violate respect though discrimination may work in narrow domains.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Grounds policy in jus in bello respect, not speed or precision.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual ethics with literature review; validity moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on respect and discrimination limits; weaker on data.</t>
+  </si>
+  <si>
+    <t>D_Author: Normative ethicist critiquing AWS optimism.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with bans on dehumanising means; challenges Arkin.</t>
+  </si>
+  <si>
+    <t>D_Limit: Conventionalism and no measurement.</t>
+  </si>
+  <si>
+    <t>D_Implication: Codify human control and resist lethal autonomy rhetoric.</t>
+  </si>
+  <si>
+    <t>POSTMA_2021</t>
+  </si>
+  <si>
+    <t>Joël Postma</t>
+  </si>
+  <si>
+    <t>Drones over Nagorno-Karabakh: A glimpse at the future of war?</t>
+  </si>
+  <si>
+    <t>Case-based analysis; open-source synthesis; doctrinal implications</t>
+  </si>
+  <si>
+    <t>Drones shaped outcomes but were not decisive; Azeri combined arms and tactics mattered; Western forces cannot assume air control; prioritise CCD, tactical C-UAS and low-altitude air control (pp.15–20).</t>
+  </si>
+  <si>
+    <t>Key ideas: Harop and TB2 effectiveness; AN-2 decoy tactic; TB2 attrition and cost; Shusha decided by infantry in fog; democratisation of airpower; CCD “mask or die”; JADO and NATO IAMD relevance (pp.15–20).</t>
+  </si>
+  <si>
+    <t>Strengths: Moderates hype; links tech to tactics and doctrine; concrete vignettes; actionable lessons for small states.</t>
+  </si>
+  <si>
+    <t>Weaknesses: Relies on Oryx counts; thin Armenian perspective; limited quantification; single theatre scope.</t>
+  </si>
+  <si>
+    <t>Similarities: Aligns with sceptics on evolution not revolution; converges with Alach and Hutto’s non-decisive drone reading (pp.15–20).</t>
+  </si>
+  <si>
+    <t>Differences: Challenges “tank is dead” claims; tempers techno-optimist narratives of decisive drone dominance (pp.15–18).</t>
+  </si>
+  <si>
+    <t>Notes: SIPRI inventory; Harop SEAD role; TB2 kill list and LOS limit; AN-2 baiting; SOF storming Shusha; CCD urgency; air littoral seam (pp.15–20).</t>
+  </si>
+  <si>
+    <t>My conclusion: For Irish DF emphasise CCD, echeloned C-UAS, dispersed manoeuvre, and clarified responsibility for low-altitude air control (pp.15–20).</t>
+  </si>
+  <si>
+    <t>Author Bias: RNLAF airpower scholar; NATO doctrinal lens; intent to moderate hype.</t>
+  </si>
+  <si>
+    <t>Key Limitations: 2020 conflict snapshot; open sources; extrapolation risk to peer wars; pre-Ukraine evolution.</t>
+  </si>
+  <si>
+    <t>D_Describe: Drones mattered yet were not decisive; infantry took Shusha (pp.15–18).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes debate to tactics and doctrine; warns low-altitude air gaps (pp.19–20).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Open-source case synthesis with tactical vignettes; moderate validity (pp.15–18).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on CCD and “mask or die” urgency (p.19).</t>
+  </si>
+  <si>
+    <t>D_Author: RNLAF assistant professor; airpower lens.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Echoes evolutionists; rejects tank-obsolescence hype.</t>
+  </si>
+  <si>
+    <t>D_Limit: Single theatre and Oryx data constrain generalisation.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should prioritise CCD, C-UAS, and air-land integration below 10,000 ft.</t>
+  </si>
+  <si>
+    <t>GRAY_2005A</t>
+  </si>
+  <si>
+    <t>Strategy for Chaos: RMAs and the Evidence of History (selected chapters)</t>
+  </si>
+  <si>
+    <t>Clausewitzian strategic theory; historical-conceptual synthesis; critique of RMA; introduces 17 dimensions</t>
+  </si>
+  <si>
+    <t>Use RMA as heuristic, not truth; strategy is holistic, adversarial and time-bound; continuity dominates; beware fashion and reductionism; four core RMA questions remain under-evidenced</t>
+  </si>
+  <si>
+    <t>17 dimensions framework; friction and chance; adversary centrality; time unforgiving; warning label on RMA discontinuity and nominalism; challenge–response is partial; RMA must work as strategy through politics, culture, logistics, command and operations</t>
+  </si>
+  <si>
+    <t>Coherent, transportable framework; sharp caveats; embeds RMA in full strategy; restores politics, society and time</t>
+  </si>
+  <si>
+    <t>Abstract; few measurements; US debate focus; labels elastic; cannot falsify easily</t>
+  </si>
+  <si>
+    <t>Converges with Murray and McNaugher on continuity and organisation; with Hobson on economy and context</t>
+  </si>
+  <si>
+    <t>Differs from technicist and triumphalist ‘the RMA’ narratives and speed-only frames</t>
+  </si>
+  <si>
+    <t>Apply 17-dimension checklist when judging autonomy, UxS and C2 claims; treat RMA as lens, not law</t>
+  </si>
+  <si>
+    <t>Irish DF: protect mission command; privilege organisation, logistics and time; test claims against adversary and cost</t>
+  </si>
+  <si>
+    <t>Clausewitzian strategist; sceptical of US fashion dynamics; warns against reification of acronyms</t>
+  </si>
+  <si>
+    <t>Conceptual synthesis; limited quantitative evidence; US-centric debate archive</t>
+  </si>
+  <si>
+    <t>D_Describe: Gray builds 17 dimensions; strategy is adversarial and time-bound; RMA is a tool, not truth. :contentReference[oaicite:0]{index=0} :contentReference[oaicite:1]{index=1}</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reorients thesis from speed/precision hype to continuity and holism across politics, logistics and command. :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>D_Methodology: Clausewitzian, case-informed theory; validity moderate; evidence illustrative, not decisive. :contentReference[oaicite:3]{index=3}</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on adversary, time, friction and caveats; weak on measurement and hard thresholds. :contentReference[oaicite:4]{index=4} :contentReference[oaicite:5]{index=5}</t>
+  </si>
+  <si>
+    <t>D_Author: Clausewitzian critic of American RMA fashion dynamics and nominalism. :contentReference[oaicite:6]{index=6} :contentReference[oaicite:7]{index=7}</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with continuity-first histories; embeds tech within organisation and politics. :contentReference[oaicite:8]{index=8}</t>
+  </si>
+  <si>
+    <t>D_Limit: Non-falsifiable framework; ambiguous empirics; US debate focus. :contentReference[oaicite:9]{index=9}</t>
+  </si>
+  <si>
+    <t>D_Implication: Use 17-dimension checks in Irish DF planning; stress time, adversary, logistics and mission command. :contentReference[oaicite:10]{index=10}</t>
+  </si>
+  <si>
+    <t>KHELIFI_2022</t>
+  </si>
+  <si>
+    <t>Khelifi, Manel; Butun, Ismail</t>
+  </si>
+  <si>
+    <t>Swarm UAV localisation: requirements, techniques, future directions (Journal of Sensors, 2022)</t>
+  </si>
+  <si>
+    <t>Narrative review and taxonomy of SUAV localisation; draws on vision, cooperative, cellular, AI/ML; challenges and future work (pp.1–6, 8–9)</t>
+  </si>
+  <si>
+    <t>Defines core requirements; shows GPS limits and jamming risk; surveys cooperative and AI/ML localisation; flags few deployable systems; projects 4G/5G/6G roles (pp.1–5, 8–9)</t>
+  </si>
+  <si>
+    <t>SUAV localisation requirements; GPS obscuration and jamming; cooperative SLAM/EKF; computer vision roles; centralised vs distributed control; indoor vs outdoor; AI/ML trade-offs; cellular networks and edge; security and privacy (pp.2–5, 8–9)</t>
+  </si>
+  <si>
+    <t>Comprehensive scope; clear taxonomy; links localisation to comms and autonomy; highlights open problems and research paths</t>
+  </si>
+  <si>
+    <t>Light on quantitative benchmarking; few real-world deployments; limited small-state mapping; privacy and regulatory issues only sketched</t>
+  </si>
+  <si>
+    <t>Converges with Davis on adaptiveness and hedging under uncertainty; with Gentry on fragility and anti-jam needs</t>
+  </si>
+  <si>
+    <t>Differs from tech-determinist RMA optimism; stresses constraints, interoperability, and human factors</t>
+  </si>
+  <si>
+    <t>Use multi-sensor localisation (GNSS+INS+vision); plan for jamming and non-LOS; exploit 4G/5G where available; test cooperative SLAM at small-unit scale; treat privacy and cyber early (pp.2–5, 8–9)</t>
+  </si>
+  <si>
+    <t>Irish DF should build resilient, cooperative localisation with analogue fallbacks and spectrum awareness; use cellular as a convenience, not a crutch; pair technical work with doctrine and training (pp.3–5, 8–9)</t>
+  </si>
+  <si>
+    <t>Academic framing with networking focus; positive to cellular and AI potentials</t>
+  </si>
+  <si>
+    <t>Survey article; minimal operational validation; productisation thin; context mainly civil and research</t>
+  </si>
+  <si>
+    <t>D_Describe: Surveys SUAV localisation, requirements, and jamming-aware techniques, few fielded systems (pp.1–5).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Useful to bound claims and guide Irish DF trials; warns against network dependence.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Narrative review with taxonomy across computer vision, cooperative SLAM, AI/ML, cellular.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best where it specifies requirements and cooperative gains; weakest on metrics and field data.</t>
+  </si>
+  <si>
+    <t>D_Author: Computer science scholars; emphasis on cellular, autonomy, AI.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with sceptics of tech fixes; complements planning under uncertainty.</t>
+  </si>
+  <si>
+    <t>D_Limit: Lacks benchmarks and operational cases; privacy and security high-level.</t>
+  </si>
+  <si>
+    <t>D_Implication: Trial GNSS-resilient, cooperative localisation with edge support and strict COOP drills.</t>
+  </si>
+  <si>
+    <t>SALMON_2022</t>
+  </si>
+  <si>
+    <t>Paul M. Salmon et al.</t>
+  </si>
+  <si>
+    <t>It’s risk, Jim, but not as we know it: identifying the risks associated with future Artificial General Intelligence-based Unmanned Combat Aerial Vehicle systems(Systems HFE; Work Domain Analysis + WDA–Broken Nodes; envisioned-world UCAV “Executor”)</t>
+  </si>
+  <si>
+    <t>Work Domain Analysis abstraction hierarchy; WDA–Broken Nodes on “Executor” AGI-UCAV; envisioned-world risk elicitation</t>
+  </si>
+  <si>
+    <t>The most critical risks arise when AGI optimises goals at the expense of core values or becomes super-intelligent beyond human control; proactive controls are urged</t>
+  </si>
+  <si>
+    <t>Abstraction hierarchy across purposes, values, functions; node-breaking of purpose-related functions; three risk sets (sub-optimal, value-overriding optimisation, super-intelligence); controls at developer, in-built AGI, and system levels</t>
+  </si>
+  <si>
+    <t>Holistic systems method; explicit trace from purposes to objects; forward-looking control agenda</t>
+  </si>
+  <si>
+    <t>Speculative AGI; limited empirics; controls list truncated; UCAV-specific scope</t>
+  </si>
+  <si>
+    <t>Aligns with HFE safety methods and Russell’s control agenda; consistent with AI-safety concern over goal-misalignment</t>
+  </si>
+  <si>
+    <t>Differs from tech-optimist autonomy narratives; centres HFE systems risk over legalistic sufficiency</t>
+  </si>
+  <si>
+    <t>Use WDA-BN to scope Irish DF autonomy risks; plan controls and doctrine for kill-switches and human takeover</t>
+  </si>
+  <si>
+    <t>My conclusion: keep humans decisive; restrict autonomy to aids; build layered controls now</t>
+  </si>
+  <si>
+    <t>HFE systems and safety scholars; cautious on AGI; may over-weight super-intelligence risk</t>
+  </si>
+  <si>
+    <t>No measured performance; envisioned world only; suggested controls not fully printed; transferability uncertain</t>
+  </si>
+  <si>
+    <t>D_Describe: Identifies AGI-UCAV risks, especially value-overriding optimisation and super-intelligence.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes autonomy as systems-risk and control design problem.</t>
+  </si>
+  <si>
+    <t>D_Methodology: WDA + Broken Nodes on an envisioned “Executor” UCAV; validity moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on structured risk surfacing; weak on empirics and specificity.</t>
+  </si>
+  <si>
+    <t>D_Author: HFE team advancing proactive AGI safety.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with AI-safety on alignment and control.</t>
+  </si>
+  <si>
+    <t>D_Limit: Envisioned world, partial controls, no trials.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should codify human control, test WDA-BN, and harden doctrine.</t>
+  </si>
+  <si>
+    <t>USMC_2021</t>
+  </si>
+  <si>
+    <t>United States Marine Corps</t>
+  </si>
+  <si>
+    <t>LEE_2020</t>
+  </si>
+  <si>
+    <t>Lee, Gyeong Taek; Kim, Chang Ouk</t>
+  </si>
+  <si>
+    <t>Deep RL for CUAV evasion and routing; AIE (SIL+RND) with formation control</t>
+  </si>
+  <si>
+    <t>Simulation study: 3-DOF point-mass CUAV, PN missiles, 100×200×30 km arena; A2C baseline; AIE1–3 with intrinsic penalty and predictor memory; ECV state for coordinates/angles; 60k single, 80k formation episodes</t>
+  </si>
+  <si>
+    <t>Single CUAV reached target ~95%; four-ship formation all-reach ~70%; AIE3 fastest and most stable; performance drops when air-defence layout shifts; formation learning slow</t>
+  </si>
+  <si>
+    <t>ECV coordinate/angle encoding; SIL+RND exploration; intrinsic penalty to escape local optima; predictor replay to curb catastrophic forgetting; 28-action thrust–bank–load control; cruise action; overlapping SAM zones exploited for safer path</t>
+  </si>
+  <si>
+    <t>Strong ablations; clear environment and action model; concrete success rates; reproducible algorithmic details</t>
+  </si>
+  <si>
+    <t>Simulation-only; limited external validity; generalisation weak to layout change; no real EW or human-in-the-loop; training cost high</t>
+  </si>
+  <si>
+    <t>Converges with KHELIFI_2022 on GNSS fragility and multi-sensor needs; with DAVIS_2018 on adaptiveness; with GENTRY_2002 on contested-EM risk</t>
+  </si>
+  <si>
+    <t>Differs from deterministic tech-optimism by showing constraint-bound gains; emphasises doctrine for degraded ops</t>
+  </si>
+  <si>
+    <t>For thesis LO: method defence and critical synthesis aided by transparent ablations; policy read-across cautions on jamming, COOP, degraded C2</t>
+  </si>
+  <si>
+    <t>Use RL as adjunct for path planning and evasion trials; keep mission command primacy; drill degraded ops and analogue fallbacks</t>
+  </si>
+  <si>
+    <t>Agency for Defense Development funding; RL-positive, simulation-engineering lens</t>
+  </si>
+  <si>
+    <t>Sim world biases; scenario overfitting; sparse field validation; compute demands</t>
+  </si>
+  <si>
+    <t>D_Describe: Proposes SIL+RND AIE to fly CUAVs past SAMs; 95% single success.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Useful hedge insights for Irish DF; highlights fragility under layout shifts.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Simulated 3-DOF CUAV, PN missiles; A2C vs AIE1–3; ablations solid.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best where AIE3 beats baselines and formation reaches improve.</t>
+  </si>
+  <si>
+    <t>D_Author: Yonsei IE team with defence funding; RL-centric framing.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with sceptics on brittleness; complements planning-under-uncertainty.</t>
+  </si>
+  <si>
+    <t>D_Limit: Simulation-only; generalisation weak; training time heavy.</t>
+  </si>
+  <si>
+    <t>D_Implication: Prototype RL in trials with EW play, COOP drills, doctrine to limit centralising drift.</t>
+  </si>
+  <si>
+    <t>Operational Art: German, Soviet and American efforts (service education essay)</t>
+  </si>
+  <si>
+    <t>Historical essay; doctrinal synthesis; professional military education</t>
+  </si>
+  <si>
+    <t>Defines operational art as the design that links tactical success to strategic goals; debunks the Blitzkrieg myth; credits Soviet deep battle and deep operations; traces US post-Vietnam renaissance and AirLand Battle; warns against confusing operational art with a fixed “level of war” (n.p.)</t>
+  </si>
+  <si>
+    <t>Key ideas: Schlieffen’s replacement of arithmetic campaign logic; Seeckt’s reforms; Blitzkrieg label created by foreign media; Soviet deep battle, deep operations, successive operations, fronts and armies; US AirLand Battle and manoeuvre warfare; Wass de Czege definition; Echevarria and Strachan critiques of levels-of-war thinking; MCDP 1-2 lineage (n.p.)</t>
+  </si>
+  <si>
+    <t>Strengths: Clear correction of Blitzkrieg mythology; connects ideas to organisations; bridges strategy, campaigns and operations; practical definitional clarity (n.p.)</t>
+  </si>
+  <si>
+    <t>Weaknesses: US-centric lens; sparse sourcing detail; limited metrics; corporate authorship (n.p.)</t>
+  </si>
+  <si>
+    <t>Similarities: Aligns with KOBER_2008 on organisation over kit; BOUSQUET_2007/2014 on control limits; RASKA_2021 on doctrine–ecosystem links (n.p.)</t>
+  </si>
+  <si>
+    <t>Differences: Challenges German-centric origin stories for operational art; rejects tech-determinist RMA takes (n.p.)</t>
+  </si>
+  <si>
+    <t>Notes: FMFM 1-1 to MCDP 1-2; Liddell Hart fabrication debate; Naveh; Messenger; Tal Tovy; Geyer; Soviet Fundamentals of Deep Operations; FM 100-5; Joint Pub 1-02 critique; Huba Wass de Czege’s definition; Strachan on war–policy conflation; Echevarria on levels-of-war pitfalls (n.p.)</t>
+  </si>
+  <si>
+    <t>My conclusion: Treat operational art as campaign design that integrates intelligence and logistics with manoeuvre; avoid level-of-war fetish; use Soviet-style depth concepts prudently (n.p.)</t>
+  </si>
+  <si>
+    <t>Author Bias: USMC PME voice; heavy use of US Army sources; corrective stance on German myths (n.p.)</t>
+  </si>
+  <si>
+    <t>Key Limitations: No page cues in images; professional essay not peer-reviewed; limited quantification (n.p.)</t>
+  </si>
+  <si>
+    <t>D_Describe: Defines operational art; debunks Blitzkrieg; credits Soviet deep operations (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Re-centres campaigns as design that links tactics to strategy; cautions on level-of-war traps (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Historical-conceptual synthesis with doctrinal anchors; moderate validity (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Sharpest where it separates operational art from an alleged intermediate “level” (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Author: Corporate USMC teaching voice; doctrine-first lens (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with sceptics who prioritise organisation and design over platform glamour (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Limit: Images lack pagination; sourcing density unclear (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should institutionalise campaign design, depth, intelligence–logistics integration and reconstitution.</t>
+  </si>
+  <si>
+    <t>LI_2013</t>
+  </si>
+  <si>
+    <t>Bai Li; Ligang Gong; Chunhui Zhao</t>
+  </si>
+  <si>
+    <t>Unmanned combat aerial vehicle path planning using a novel probability density model based on Artificial Bee Colony algorithm</t>
+  </si>
+  <si>
+    <t>Novel probability-density threat model; transforms UCAV path planning into numerical optimisation; ABC vs PSO vs C-ABC; MATLAB 2D simulations with repeated runs and parameter disclosure (pp.620–624). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>ABC yields smoother paths and more robust convergence than PSO; C-ABC initially faster yet trades robustness; density model avoids hard threat boundaries; feasibility for multi-core real time noted (pp.622–625). :contentReference[oaicite:1]{index=1}</t>
+  </si>
+  <si>
+    <t>Continuous-risk cost via exp(−d/δ) replaces circles; total-cost mixes threat integral and path length with γ=0.5; threshold 0.05 as analogue radius; D segmentation; constant-speed assumption (pp.621–623). :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>Transparent algorithm steps; figures compare paths; multiple trials; parameter values reported; qualitative smoothness and convergence evidence (pp.622–624). :contentReference[oaicite:3]{index=3}</t>
+  </si>
+  <si>
+    <t>2D only; arbitrary δ, γ and 0.05; constant speed; no real flight tests; limited statistical detail beyond repetitions (pp.623–625). :contentReference[oaicite:4]{index=4}</t>
+  </si>
+  <si>
+    <t>Aligns with BEATTY_2025 that autonomy can extend capability when embedded in structure; offers engineering ballast to autonomy claims (pp.620–624). :contentReference[oaicite:5]{index=5}</t>
+  </si>
+  <si>
+    <t>Differs from SINGER_2010 and EKEN_2025 which are ethical or strategic; this is algorithmic and simulation based (pp.620–625). :contentReference[oaicite:6]{index=6}</t>
+  </si>
+  <si>
+    <t>Use the continuous-risk model to nuance DF UAS planning; treat ABC-class heuristics as candidate baselines; test boundary conditions and parameter sensitivity before adoption (pp.622–625). :contentReference[oaicite:7]{index=7}</t>
+  </si>
+  <si>
+    <t>Adopt continuous-risk modelling and ABC for study scenarios; beware C-ABC fragility despite early speed; prioritise robustness over headline iterations (pp.622–624). :contentReference[oaicite:8]{index=8}</t>
+  </si>
+  <si>
+    <t>Engineering lens; Chinese university funding; acknowledgement to Duan; potential inclination toward ABC family (pp.620, 625). :contentReference[oaicite:9]{index=9}</t>
+  </si>
+  <si>
+    <t>Only 2D; weighting factor choice unresolved; identical δ across threats; lacks 3D validation and field trials (pp.623–625). :contentReference[oaicite:10]{index=10}</t>
+  </si>
+  <si>
+    <t>D_Describe: Continuous-risk model with ABC beats PSO on smoothness and convergence (pp.622–624). :contentReference[oaicite:11]{index=11}</t>
+  </si>
+  <si>
+    <t>D_Interpret: Useful engineering ballast for autonomy claims; omits real-flight validation (pp.624–625). :contentReference[oaicite:12]{index=12}</t>
+  </si>
+  <si>
+    <t>D_Methodology: 2D MATLAB simulations; repeated trials; disclosed params; moderate validity (pp.622–623). :contentReference[oaicite:13]{index=13}</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where model removes hard edges and improves paths (pp.621–623). :contentReference[oaicite:14]{index=14}</t>
+  </si>
+  <si>
+    <t>D_Author: Beihang and Zhejiang engineers; student programme support (p.620). :contentReference[oaicite:15]{index=15}</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Supports BEATTY_2025 on autonomy potential when paired with structure (pp.622–624). :contentReference[oaicite:16]{index=16}</t>
+  </si>
+  <si>
+    <t>D_Limit: 2D, arbitrary γ and δ; robustness not field tested (pp.623–625). :contentReference[oaicite:17]{index=17}</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should test continuous-risk planning with robustness metrics before doctrine changes (pp.623–625). :contentReference[oaicite:18]{index=18}</t>
+  </si>
+  <si>
+    <t>TURANOGLU_SIRIN_2025</t>
+  </si>
+  <si>
+    <t>Betül Turanoğlu Şirin</t>
+  </si>
+  <si>
+    <t>Evaluation of unmanned combat aerial vehicles using q-rung orthopair fuzzy entropy based multi-attribute border approximation area comparison method</t>
+  </si>
+  <si>
+    <t>q-ROF entropy weighting + MABAC ranking; 9 criteria, 14 UCAV alternatives; sensitivity + comparative analyses</t>
+  </si>
+  <si>
+    <t>A9 ranked first; stable ordering across checks; weights via objective entropy; q set to 5 (pp.2–3, 15–18)</t>
+  </si>
+  <si>
+    <t>q-ROF captures uncertainty; entropy avoids subjective weights; MABAC yields interpretable distances; ranking A9 &gt; A14 &gt; A6 &gt; ... &gt; A3 (pp.14–18)</t>
+  </si>
+  <si>
+    <t>Transparent multi-step design; robustness checks; real-world criteria set; clear decision support focus</t>
+  </si>
+  <si>
+    <t>Small DM set; narrow criteria exclude survivability, EW resilience, cost; static snapshot; assumes criteria independence</t>
+  </si>
+  <si>
+    <t>Converges with LI_2013 on MCDM suitability for UAV selection</t>
+  </si>
+  <si>
+    <t>Diverts from SINGER_2010 which foregrounds socio-political and organisational constraints</t>
+  </si>
+  <si>
+    <t>Useful for procurement shortlisting; embed with red-team stressors, cost and doctrine review; treat rank gaps cautiously (pp.15–18)</t>
+  </si>
+  <si>
+    <t>For DF: use as screening tool, then wargame top 3 against EW threat and dispersed ops</t>
+  </si>
+  <si>
+    <t>D_Describe: UCAV choice via q-ROF entropy + MABAC; A9 best (pp.15–18).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Good for shortlist speed; omits cost, survivability, doctrine.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Objective entropy weights, fuzzy sets, MABAC distances; moderate validity with sensitivity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where robustness holds across q and weight shifts (pp.16–18).</t>
+  </si>
+  <si>
+    <t>D_Author: Method-centric stance, novelty-seeking, limited operational embedding.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with MCDM UAV work; less attuned to organisational limits.</t>
+  </si>
+  <si>
+    <t>D_Limit: Findings bound by criteria choice and small DM input.</t>
+  </si>
+  <si>
+    <t>D_Implication: DF should pair MCDM with EW-focused trials and cost realism.</t>
+  </si>
+  <si>
+    <t>Author tends to privilege methodological elegance over messy field variables</t>
+  </si>
+  <si>
+    <t>Weights are objective, but criteria choice subjective; external validity unclear</t>
+  </si>
+  <si>
+    <t>Describe procurement context; interpret ranking gaps; methodology sound but bounded; evaluate robustness vs operational realism</t>
+  </si>
+  <si>
+    <t>Single academic lens; no declared funding; limited practitioner co-design</t>
+  </si>
+  <si>
+    <t>Combine with Li-style MCDM and Singer’s caution; cross-validate on Irish use-cases</t>
+  </si>
+  <si>
+    <t>Bound to selected criteria, q choice, and static data</t>
+  </si>
+  <si>
+    <t>Adopt as Stage-1 filter in DF buying; test top options under EW, logistics, cost</t>
+  </si>
+  <si>
+    <t>ZOIDZE_2021</t>
+  </si>
+  <si>
+    <t>Mamuka Ya. Zoidze; Givi O. Sanadze; Oleksandr V. Krakhmalyov; Olena I. Zinchenko; Vitalii O. Brusentsev</t>
+  </si>
+  <si>
+    <t>Challenges and perspective with using a group of small combat unmanned aerial vehicles</t>
+  </si>
+  <si>
+    <t>Conceptual–technical survey plus simple swarm-control formulation and raid simulation against air defence; tabulated nano/micro/mini specs</t>
+  </si>
+  <si>
+    <t>Small, cheap combat UAV groups coordinated by decentralised heuristics can saturate legacy air defence; hierarchical links economise power and comms; energy density and navigation miniaturisation are key constraints; simulation shows 10/15 leakers with AD ammo depletion (open-source model). :contentReference[oaicite:0]{index=0} :contentReference[oaicite:1]{index=1} :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>Classifications of nano/micro/mini UAVs with performance tables; hierarchical control where few nodes link to GCS; self-organised group intelligence inspired by insects, fish, birds; local-interaction algorithm with resultant forces and obstacle avoidance; illustrative raid model shows saturation risk. :contentReference[oaicite:3]{index=3} :contentReference[oaicite:4]{index=4} :contentReference[oaicite:5]{index=5}</t>
+  </si>
+  <si>
+    <t>Breadth across design, comms and control; clear articulation of power and comms limits; concrete though simple control law and scenario</t>
+  </si>
+  <si>
+    <t>Highly simplified air-defence and comms assumptions; no ECM, deception or blue tactics; no empirical trials; some non-English phrasing and source heterogeneity</t>
+  </si>
+  <si>
+    <t>Converges with cost-mass arguments and mesh control logics that favour cheap nodes and decentralised C2</t>
+  </si>
+  <si>
+    <t>Contrasts with tech-determinist claims of single exquisite platforms; less optimistic on survivability of few high-value assets</t>
+  </si>
+  <si>
+    <t>Use as a caution on C-UAS requirements and as a design brief for low-cost swarms and hierarchical comms; treat as threat baseline for exercises</t>
+  </si>
+  <si>
+    <t>Conclusion: swarms are low-cost saturation tools; DF should harden C-UAS layers, practise ammo management and EW, and field disciplined, cheap attritable UAS</t>
+  </si>
+  <si>
+    <t>Regional engineering and defence-education vantage; sympathetic to group-use potential</t>
+  </si>
+  <si>
+    <t>Scenario-bound modelling; weak defensive adaptation; limited legal–ethical engagement; energy and navigation progress assumed</t>
+  </si>
+  <si>
+    <t>D_Describe: Argues small, cheap UAV groups with decentralised control can overwhelm legacy AD; energy and comms are binds. :contentReference[oaicite:6]{index=6} D_Interpret: Frames swarm threat for small states; urges layered C-UAS and disciplined comms.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Survey, performance tables, heuristic control law and illustrative raid simulation; validity moderate. :contentReference[oaicite:7]{index=7} D_Evaluate: Strong where power/comms limits meet hierarchical control; weakest in simplistic AD model. :contentReference[oaicite:8]{index=8} D_Author: Georgian–Ukrainian team; open-access engineering lens.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with cost-centred autonomy meshes; challenges survivability-first bets.</t>
+  </si>
+  <si>
+    <t>D_Limit: No ECM/deception; toy control and raid assumptions.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should build layered C-UAS, mesh comms and cheap attritable UAS; drill saturation defence. :contentReference[oaicite:9]{index=9}</t>
+  </si>
+  <si>
+    <t>PRNEWSWIRE_2016</t>
+  </si>
+  <si>
+    <t>PR Newswire iReach / WiseGuy Reports</t>
+  </si>
+  <si>
+    <t>Unmanned Aerial Vehicle (UAV) Market (Combat, Small, Strategic, Tactical) Analysis and Forecasts to 2027</t>
+  </si>
+  <si>
+    <t>Commercial market press release; descriptive segmentation; forecast claims</t>
+  </si>
+  <si>
+    <t>UAV market projected to grow with regional variation; drivers include border security and diversified applications; lists vendors and segments; many values redacted as “XX%/XXX” (pp.1–2)</t>
+  </si>
+  <si>
+    <t>Key ideas: type and application segments; North America led by military projects; Europe commercial growth; Asia Pacific border security; vendor list; CAGR claims without numbers (pp.1–2)</t>
+  </si>
+  <si>
+    <t>Strengths: quick map of segments and vendors; flags regional narratives</t>
+  </si>
+  <si>
+    <t>Weaknesses: promotional tone; no transparent method; placeholders for data; not peer reviewed</t>
+  </si>
+  <si>
+    <t>Similarities: Mirrors generic industry taxonomies used across defence papers</t>
+  </si>
+  <si>
+    <t>Differences: Lacks evidence standards used in academic or governmental studies</t>
+  </si>
+  <si>
+    <t>Notes: cites Market Research Future and WiseGuy Reports; contact details; links to paywalled report (pp.1–3)</t>
+  </si>
+  <si>
+    <t>My conclusion: treat as a directory and prompt for further sources, not as evidence for effects or budgets</t>
+  </si>
+  <si>
+    <t>Author Bias: vendor-marketing incentive; paywalled report sales</t>
+  </si>
+  <si>
+    <t>Key Limitations: missing numbers; no sampling frame; unknown methodology; wire feed format</t>
+  </si>
+  <si>
+    <t>D_Describe: Press release segments UAV markets by type and region with growth language but redacted numbers (pp.1–2).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Useful only for scoping keywords and firms; not suitable as evidence for trends or policy.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Descriptive claims with undisclosed methods; low validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Weak where numbers are “XX%/XXX”; cannot support inference.</t>
+  </si>
+  <si>
+    <t>D_Author: Commercial wire copy on behalf of a market research seller.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Use cautiously alongside governmental or peer-reviewed sources.</t>
+  </si>
+  <si>
+    <t>D_Limit: Promotional and method-opaque; data absent.</t>
+  </si>
+  <si>
+    <t>D_Implication: For Irish DF, use as lead list then replace with transparent sources before citing figures.</t>
+  </si>
+  <si>
+    <t>YIN_2020</t>
+  </si>
+  <si>
+    <t>Yin, J.; et al.</t>
+  </si>
+  <si>
+    <t>Efficiency analysis of manned–unmanned cooperative combat (MUM-T) via integrated index model</t>
+  </si>
+  <si>
+    <t>Engineering study proposing an integrated index model; decomposes subsystem capability (data link, C2, UAV intelligence, platform self-capability); evaluates cooperative reconnaissance and attack missions in simulation (Algorithm of Subsystem Capability; mission set).</t>
+  </si>
+  <si>
+    <t>Cooperative MUM-T architectures outperform single-platform baselines in task efficiency; efficiency gated by data link throughput, C2 agility, UAV intelligence level and platform performance (Simulation Results; subsystem algorithms).</t>
+  </si>
+  <si>
+    <t>Integrated index model; formal metrics for data link, C2, intelligence level, and airframe capability; mission templates for recon and attack; scenario-based evaluation; emphasis on coordination benefits (Keywords; subsystem sections; missions).</t>
+  </si>
+  <si>
+    <t>Structured decomposition; links architecture choices to mission outcome; reusable mission templates; quantifies trade-offs between comms, control and autonomy.</t>
+  </si>
+  <si>
+    <t>Limited external validation; some metrics abstract; dependence on communication quality; restricted detail on adversary counter-measures.</t>
+  </si>
+  <si>
+    <t>Converges with LEE_2020 on coordination and layout sensitivity; with KHELIFI_2022 on comms fragility and multi-sensor needs; with GENTRY_2002 on infrastructure vulnerability.</t>
+  </si>
+  <si>
+    <t>Differs from purely narrative RMA claims by offering a calculative model; focuses on subsystem bottlenecks rather than generic tech optimism.</t>
+  </si>
+  <si>
+    <t>Keywords confirm integrated index framing; subsystem algorithms specify how to compute data link and C2 capability; missions defined for recon and attack; simulation section summarises comparative efficiency (Keywords; subsystem caps; mission figures; sim header).</t>
+  </si>
+  <si>
+    <t>Adopt the integrated-index approach to plan Irish DF MUM-T trials; prioritise resilient data links, disciplined C2, graded autonomy; test against jamming and loss-of-link; keep analogue fallbacks.</t>
+  </si>
+  <si>
+    <t>Engineering and optimisation lens; pro-coordination framing.</t>
+  </si>
+  <si>
+    <t>Survey-level adversary modelling; unclear pagination in extract; operational realism bounded by simulation.</t>
+  </si>
+  <si>
+    <t>D_Describe: Builds an integrated index model to assess MUM-T efficiency across data link, C2, autonomy and airframe; tests recon and attack missions.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Useful to structure Irish DF trials and to expose bottlenecks in comms and C2 rather than assume tech will solve them.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Algorithmic indices per subsystem, then simulate cooperative missions for comparative efficiency; quantitative, model-driven.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest where subsystem formulas illuminate bottlenecks; weakest on real-world validation and contested EM detail.</t>
+  </si>
+  <si>
+    <t>D_Author: BIT engineering team; systems-analysis orientation; favourable to coordinated autonomy.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with sceptics on dependency risks, complements RL and localisation studies that stress coordination under constraints.</t>
+  </si>
+  <si>
+    <t>D_Limit: Simulation-bound; adversary counters and EW effects simplified.</t>
+  </si>
+  <si>
+    <t>D_Implication: Use the index model for DF wargaming and procurement trade-offs; invest in anti-jam links, COOP rehearsals and degraded-ops drills.</t>
+  </si>
+  <si>
+    <t>KREUZER_2015</t>
+  </si>
+  <si>
+    <t>Michael P. Kreuzer</t>
+  </si>
+  <si>
+    <t>RPAs, UCAVs, autonomy and airpower: technology, cost, law and organisation</t>
+  </si>
+  <si>
+    <t>Conceptual policy analysis; historical framing; legal-ethical review; organisational critique; cost tables</t>
+  </si>
+  <si>
+    <t>Full autonomy unlikely near term; mixed manned–RPA–semi-autonomous force; AI limits; costs and law constrain use</t>
+  </si>
+  <si>
+    <t>AI hype vs learning reality; scientism caution; costs converge with manned; political signalling costs; responsibility in law; HRW automatic vs autonomous; phased use across campaigns; promotion and recognition reforms needed</t>
+  </si>
+  <si>
+    <t>Integrates tech, cost, law and culture; concrete comparisons; pragmatic mixed-force model</t>
+  </si>
+  <si>
+    <t>US-centric; dated prices; few small-state cases; no empirical trials; limited pagination</t>
+  </si>
+  <si>
+    <t>Converges with Gray on continuity; McNaugher on incrementalism; Schneider on cost; Sparrow on human control</t>
+  </si>
+  <si>
+    <t>Differs from automation triumphalism and full-autonomy air-to-air advocacy</t>
+  </si>
+  <si>
+    <t>Use to argue governance-first adoption, human control, and force-mix planning</t>
+  </si>
+  <si>
+    <t>Irish DF: prototype semi-autonomy under mission command; plan comms, law, career pathways</t>
+  </si>
+  <si>
+    <t>USAF practitioner-scholar; sceptical of tech determinism; attentive to organisational incentives</t>
+  </si>
+  <si>
+    <t>Extract lacks page anchors; pre-2015 tech baseline; selective cases</t>
+  </si>
+  <si>
+    <t>D_Describe: Autonomy faces AI, cost, law and culture limits; mixed manned–RPA–UCAV force.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Replaces hype with governance and cost realism for small states.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Cross-domain conceptual synthesis with historical notes and cost tables; validity moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best on responsibility, signalling and costs; weaker on measurement.</t>
+  </si>
+  <si>
+    <t>D_Author: USAF intelligence officer; institutional lens.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with continuity and cost-centred autonomy; resists determinism.</t>
+  </si>
+  <si>
+    <t>D_Limit: US focus; no trials; no pagination.</t>
+  </si>
+  <si>
+    <t>D_Implication: Keep humans decisive; field semi-autonomy prudently; reform careers and doctrine.</t>
+  </si>
+  <si>
+    <t>ARMY_2004</t>
+  </si>
+  <si>
+    <t>U.S. Department of the Army</t>
+  </si>
+  <si>
+    <t>Army mission command doctrine (c.2004) — FM 6-0 era focus on commander’s intent, mission orders, disciplined initiative</t>
+  </si>
+  <si>
+    <t>Doctrinal manual; normative guidance for command and control at echelons; prescriptive processes and principles (n.p.)</t>
+  </si>
+  <si>
+    <t>Defines mission command philosophy; details C2 processes for planning, preparation, execution and assessment; codifies commander’s intent, mission orders, disciplined initiative, prudent risk (n.p.)</t>
+  </si>
+  <si>
+    <t>Command relationship types; CCIR and information management; common operational picture; staff battle rhythm; decentralised execution within commander’s intent; liaison and interoperability with joint partners (n.p.)</t>
+  </si>
+  <si>
+    <t>Coherent framework linking philosophy to procedures; practical staff tools; widely referenced across NATO armies (n.p.)</t>
+  </si>
+  <si>
+    <t>U.S.-centric assumptions; network-dependence risks; little small-state tailoring; dated vis-à-vis contemporary multi-domain congestion (n.p.)</t>
+  </si>
+  <si>
+    <t>Converges with BEATTY_2025 on mission command as culture plus structure; echoes SINGER_2010 caution about process over tech fixes</t>
+  </si>
+  <si>
+    <t>Unlike EKEN_2025’s strategic-culture lens, this source is intra-organisational and procedural</t>
+  </si>
+  <si>
+    <t>Use as doctrinal baseline to test AI–UAS claims; map terms to Irish DF doctrine; extract checklists for decentralised C2 (n.p.)</t>
+  </si>
+  <si>
+    <t>Adopt principles to protect subordinate initiative while adding modern supervisory thresholds and comms restraint (n.p.)</t>
+  </si>
+  <si>
+    <t>Institutional U.S. Army lens; expeditionary bias; assumption of robust networks</t>
+  </si>
+  <si>
+    <t>Scan limits pagination; examples predate Ukraine-era EW and counter-UAS; minimal small-state context</t>
+  </si>
+  <si>
+    <t>D_Describe: Codifies mission command principles and C2 process for echelons (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Serves as baseline for autonomy debates; omits modern EW and saturation realities.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Doctrinal synthesis with prescriptive procedures; validity from practice not experiments.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where principles translate into staff tools and liaison routines (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Author: U.S. Army doctrine writers; institutional, practitioner audience.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with BEATTY_2025 on decentralisation; counters tech-determinism flagged by SINGER_2010.</t>
+  </si>
+  <si>
+    <t>D_Limit: Assumes resilient networks and U.S. scale; scan prevents close citation.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should protect initiative with explicit non-interference rules and low-bandwidth fallbacks.</t>
+  </si>
+  <si>
+    <t>BRASHER_2005</t>
+  </si>
+  <si>
+    <t>Nathan Brasher</t>
+  </si>
+  <si>
+    <t>Unmanned Aerial Vehicles and the Future of Air Combat</t>
+  </si>
+  <si>
+    <t>Trade-journal commentary; tech overview; cost comparison; operational proposals; no empirical tests</t>
+  </si>
+  <si>
+    <t>UAVs/UCAVs will augment not replace pilots; strongest uses are deep strike, SEAD, ambush A2A; autonomy lags human adaptability (pp.36–39)</t>
+  </si>
+  <si>
+    <t>X-45 autonomous drop; cost-per-JDAM vs cruise missiles; carrier-capable UCAV case; Vietnam dogfight lesson; SA limits of remote control; robotic wingman and SEAD concept; ambush A2A in orbits (pp.36–39)</t>
+  </si>
+  <si>
+    <t>Clear statement of roles where unmanned excels; tangible cost comparisons; concrete Navy deep-strike and SEAD vignettes</t>
+  </si>
+  <si>
+    <t>Opinion genre; thin sourcing; dated costs; assumes permissive comms and simple counters</t>
+  </si>
+  <si>
+    <t>Converges with Kreuzer on mixed force and AI limits; Schneider on cost logic; Gray on continuity</t>
+  </si>
+  <si>
+    <t>Differs from full-autonomy triumphalism and pilot-replacement claims</t>
+  </si>
+  <si>
+    <t>Useful as early articulation of wingman, ambush and SEAD roles; treat cost claims cautiously</t>
+  </si>
+  <si>
+    <t>My conclusion: keep humans decisive; field UCAVs for first-day strike, SEAD and cueing; avoid overreach</t>
+  </si>
+  <si>
+    <t>Naval officer essay; pro-innovation but sceptical of replacing pilots</t>
+  </si>
+  <si>
+    <t>No trials; limited legal analysis; Vietnam analogy not quantified</t>
+  </si>
+  <si>
+    <t>D_Describe: Sets UCAVs as enablers for deep strike, SEAD and limited A2A, not pilot replacements.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes autonomy hype toward role-specific use that protects mission command.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Commentary with exemplars and cost contrasts; validity low–moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on concrete roles and costs; weak on adversary counters and measurement.</t>
+  </si>
+  <si>
+    <t>D_Author: Naval practitioner voice, tech-optimist within limits.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with continuity and mixed-force arguments; rejects automation determinism.</t>
+  </si>
+  <si>
+    <t>D_Limit: Opinion, dated data, permissive-EMS assumptions.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should trial UCAVs as wingmen, SEAD tools and deep-strike complements under human control.</t>
+  </si>
+  <si>
+    <t>PARDESI_2005</t>
+  </si>
+  <si>
+    <t>Pardesi, Manjeet S.</t>
+  </si>
+  <si>
+    <t>Strategic implications of UAVs: ISR, SEAD, counterair and MAVs; complement not replace (notes 1–4)</t>
+  </si>
+  <si>
+    <t>Conceptual policy analysis with case vignettes from Afghanistan and Iraq; role comparison; Singaporean view (notes)</t>
+  </si>
+  <si>
+    <t>UAVs complement manned assets; ISR is core; SEAD preemptive viable; counterair unlikely; bandwidth and situational awareness constrain; MAVs useful in urban and special operations (notes 16, 22–24, 28, 34, 37, 49)</t>
+  </si>
+  <si>
+    <t>Network-centric bandwidth burden; autonomy lowers bandwidth; satellites plus UAVs integration; human-in-the-loop for kill; attritionable not expendable; antiaccess pressures; reactive versus preemptive SEAD; MAV swarms potential (notes 22–24, 30, 37–38, 41, 49)</t>
+  </si>
+  <si>
+    <t>Balanced mission-by-mission test; concrete cases; policy focus; clear constraints; integration outlook</t>
+  </si>
+  <si>
+    <t>US-centric and dated; few metrics; limited small-state mapping; political assumptions; no pagination in extract</t>
+  </si>
+  <si>
+    <t>Aligns with GENTRY_2002 on fragility and counters; with KHELIFI_2022 on GNSS and bandwidth; with LEE_2020 on EW brittleness; with DAVIS_2018 on hedging</t>
+  </si>
+  <si>
+    <t>Differs from UCAV-replace narratives; resists AI autonomy supplanting humans; cautions on reactive SEAD reliance</t>
+  </si>
+  <si>
+    <t>JV 2010 and JV 2020 aims (notes 1–2); information superiority definition (note 4); bandwidth surge post-9/11 (note 23); Global Hawk bandwidth burden (note 49); Predator arming milestones (notes 25–27); SEAD definition (note 28); SAM ranges and antiaccess (note 34); attrition rates (note 37); MAV applications and swarms (notes 40–41)</t>
+  </si>
+  <si>
+    <t>Irish DF should treat UAVs as ISR-first, integrate with satellites and manned platforms, enforce bandwidth discipline and anti-jam drills, avoid reliance on reactive SEAD, and trial MAVs for urban reconnaissance</t>
+  </si>
+  <si>
+    <t>Singaporean perspective; US-sourced cases; pragmatic complementarity stance</t>
+  </si>
+  <si>
+    <t>Pre-2005 context; minimal quantification; pagination absent; transfer to small states uncertain</t>
+  </si>
+  <si>
+    <t>D_Describe: Surveys UAV roles; finds complement not replacement; SA and bandwidth bind (notes 1–4, 22–24).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Guides Irish DF planning; warns against network dependence; stresses mission-tailored integration.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual policy analysis with cases and notes; validity moderate; evidence illustrative.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on bandwidth, SA and SEAD limits; clear reactive-preemptive split (notes 28, 34, 49).</t>
+  </si>
+  <si>
+    <t>D_Author: Singapore-based analyst; US-sourced cases; cautious on autonomy replacing humans.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with GENTRY_2002 on fragility and DAVIS_2018 on hedging; diverges from UCAV-replace.</t>
+  </si>
+  <si>
+    <t>D_Limit: Evidence dated; minimal metrics; pagination absent; small-state transfer thin.</t>
+  </si>
+  <si>
+    <t>D_Implication: Prioritise ISR, anti-jam links and disciplined bandwidth; limit UCAV to preemptive SEAD.</t>
+  </si>
+  <si>
+    <t>JORDAN_2021</t>
+  </si>
+  <si>
+    <t>Javier Jordan</t>
+  </si>
+  <si>
+    <t>The future of unmanned combat aerial vehicles: An analysis using the Three Horizons framework</t>
+  </si>
+  <si>
+    <t>Qualitative foresight using the Three Horizons framework; USAF-focused document analysis; structured synthesis of H1–H3 with signposts (pp.2–3). :contentReference[oaicite:1]{index=1}</t>
+  </si>
+  <si>
+    <t>Hypothesises H3 where UCAVs lead combat roles; three drivers—operational, economic, balance of power—shape plausibility; timeframe uncertain (pp.8–10). :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>Key ideas: H1 erosion; H2 innovations like loyal wingman, Skyborg, swarms, ACE; autonomy tiers; training-hour and lifecycle cost pressures; A2/AD context (pp.3, 6–8). :contentReference[oaicite:3]{index=3}</t>
+  </si>
+  <si>
+    <t>Strong scaffold that links innovations to strategic drivers; integrates USAF, European programmes; clear articulation of assumptions and signposts (pp.2, 6–8, 9–10). :contentReference[oaicite:4]{index=4}</t>
+  </si>
+  <si>
+    <t>Non-testable core claim; heavy reliance on secondary sources; limited empirical validation; timeframe and thresholds remain vague (pp.2, 9–10). :contentReference[oaicite:5]{index=5}</t>
+  </si>
+  <si>
+    <t>Converges with BEATTY_2025 on organisation and system-of-systems shaping outcomes</t>
+  </si>
+  <si>
+    <t>Contrasts with ARMY_2004 doctrinal proceduralism; more disruptive than SINGER_2010’s caution-first lens</t>
+  </si>
+  <si>
+    <t>Use to frame thesis chapters: map Irish DF signposts, tie H2 tech to organisational choices; note Tempest/FCAS timelines c.2035–40 (pp.2, 6). :contentReference[oaicite:6]{index=6}</t>
+  </si>
+  <si>
+    <t>H3 is plausible if operational, economic and systemic drivers converge; adopt as foresight lens for Irish DF planning</t>
+  </si>
+  <si>
+    <t>Academic futures lens; USAF-centric source base; cites The War Zone, CNAS, USAF documents (pp.2, 6). :contentReference[oaicite:7]{index=7}</t>
+  </si>
+  <si>
+    <t>Hypothesis not directly testable; uncertain H3 timing; LAWS not yet operational; European politics treated briefly (pp.6–7, 10). :contentReference[oaicite:8]{index=8}</t>
+  </si>
+  <si>
+    <t>D_Describe: UCAVs may displace manned combat under H3; drivers identified (pp.8–10). :contentReference[oaicite:9]{index=9}</t>
+  </si>
+  <si>
+    <t>D_Interpret: Foresight frame aids autonomy debates; lacks measurable thresholds and timelines (pp.2–3, 9). :contentReference[oaicite:10]{index=10}</t>
+  </si>
+  <si>
+    <t>D_Methodology: Three Horizons foresight; USAF case documents; qualitative synthesis, no tests (pp.2–3). :contentReference[oaicite:11]{index=11}</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where H2 innovations map to H3 drivers and signposts (pp.6–8). :contentReference[oaicite:12]{index=12}</t>
+  </si>
+  <si>
+    <t>D_Author: Spanish political scientist with futures lens, USAF-centric sources (p.2). :contentReference[oaicite:13]{index=13}</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with BEATTY_2025 on organisation; complements LI_2013’s engineering ballast.</t>
+  </si>
+  <si>
+    <t>D_Limit: Non-testable hypothesis; uncertain timeframe; secondary evidence heavy (pp.2, 9–10). :contentReference[oaicite:14]{index=14}</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should define signposts, protect mission command, test UCAVs under EW (pp.6–9). :contentReference[oaicite:15]{index=15}</t>
+  </si>
+  <si>
+    <t>GHOSH_2001</t>
+  </si>
+  <si>
+    <t>C. N. Ghosh</t>
+  </si>
+  <si>
+    <t>Application of unmanned combat aerial vehicles in future battles of the subcontinent</t>
+  </si>
+  <si>
+    <t>Conceptual policy analysis; operational taxonomy; technology assessment; Indian context (pp.599–611)</t>
+  </si>
+  <si>
+    <t>UCAVs are technically feasible and should augment air power; strongest roles are SEAD, jamming, ISR and comms relay; success hinges on C3I integration, survivability and airspace management (pp.599–604, 606–609)</t>
+  </si>
+  <si>
+    <t>Key ideas: endurance and quick response; mission set—attack fixed and moving targets; jamming; SEAD; surveillance; comms relay; air-to-air; qualitative requirements; technology expectations; C3I integration; survivability and signature control; Unmanned Tactical Aircraft concept; IAF Heron/Searcher; airspace management (pp.600–609)</t>
+  </si>
+  <si>
+    <t>Strengths: concrete mission taxonomy; clear design and survivability criteria; practical cost–risk logic; ties to C3I and airspace control (pp.600–606, 608–609)</t>
+  </si>
+  <si>
+    <t>Weaknesses: optimistic and speculative performance claims; reliance on secondary and web sources; limited quantification; early horizon (pp.607–609)</t>
+  </si>
+  <si>
+    <t>Similarities: converges with POSTMA_2021 on SEAD and masking urgency; aligns with SCHNEIDER_2024 on cost and expendability; echoes RASKA_2021 on dual-use diffusion</t>
+  </si>
+  <si>
+    <t>Differences: more bullish on autonomy and air-to-air substitution; entertains extreme performance claims; presents UCAVs as near-term multi-role (pp.607–609)</t>
+  </si>
+  <si>
+    <t>Notes: Tipnis keynote on UCAVs; qualitative requirements list; technology expectations; survivability and signature control; SEAD and jamming mechanics; ADDC/JADC airspace coordination; Heron and Searcher II details (pp.600–609)</t>
+  </si>
+  <si>
+    <t>My conclusion: use UCAVs to extend ISR, jamming and SEAD with manned–unmanned teaming; build C3I and airspace rules first; avoid panacea thinking (pp.603–609)</t>
+  </si>
+  <si>
+    <t>Author Bias: IAF Senior Fellow at IDSA; pro-adoption; technology-forward lens</t>
+  </si>
+  <si>
+    <t>Key Limitations: 2001 horizon; pre-AI swarms; vendor-style notes; few outcome data; normative tone (pp.599–611)</t>
+  </si>
+  <si>
+    <t>D_Describe: UCAVs will augment air power with endurance and multi-role missions including SEAD, jamming and ISR (pp.600–604).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes procurement for small states toward persistence and safe penetration rather than platform glamour (pp.600–603).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis drawing on Jane’s, DARPA and web sources; Indian policy lens; moderate–low validity (pp.599–603, 607–609).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest where mission mechanics for SEAD and jamming and the need for airspace management are specified (pp.603–604, 608–609).</t>
+  </si>
+  <si>
+    <t>D_Author: Air Cmde C. N. Ghosh, IDSA Senior Fellow; advocates UCAV adoption (p.599).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with evolution-not-revolution takes and anticipates later CCD and C-UAS emphases.</t>
+  </si>
+  <si>
+    <t>D_Limit: Speculative performance, scarce data and pre-Ukraine horizon bound claims (pp.607–609).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should prioritise ISR, jamming, SEAD, C3I hardening, signature control and airspace rules before expanding strike roles.</t>
+  </si>
+  <si>
+    <t>RAFIQ_2021</t>
+  </si>
+  <si>
+    <t>Aamna Rafiq</t>
+  </si>
+  <si>
+    <t>Militarisation of AI and the future of arms control in South Asia</t>
+  </si>
+  <si>
+    <t>Regional policy analysis using official statements, secondary sources and programme snapshots</t>
+  </si>
+  <si>
+    <t>Prospects for an AI arms-control framework in South Asia are unpromising due to asymmetry and clashing state positions. :contentReference[oaicite:0]{index=0} :contentReference[oaicite:1]{index=1}</t>
+  </si>
+  <si>
+    <t>Dual-use AI from ANI to ASI; military uses span autonomous systems and stationary applications; India’s DAIC and DRDO/CAIR projects; China’s national AI drive, AIRC/USRC, advanced UAVs and 6G; Pakistan’s limited but growing UAV use; GGE divergences on LAWS definitions; speed risks crisis instability. :contentReference[oaicite:2]{index=2} :contentReference[oaicite:3]{index=3} :contentReference[oaicite:4]{index=4} :contentReference[oaicite:5]{index=5} :contentReference[oaicite:6]{index=6} :contentReference[oaicite:7]{index=7} :contentReference[oaicite:8]{index=8}</t>
+  </si>
+  <si>
+    <t>Breadth across India–China–Pakistan programmes; clear linkage to GGE positions; flags instability from AI speed; region-specific synthesis. :contentReference[oaicite:9]{index=9} :contentReference[oaicite:10]{index=10}</t>
+  </si>
+  <si>
+    <t>Relies on public sources; limited empirics; Pakistan-centric venue; few quantified performance measures. :contentReference[oaicite:11]{index=11}</t>
+  </si>
+  <si>
+    <t>Converges with continuity-first cautions and human-control arguments in our corpus</t>
+  </si>
+  <si>
+    <t>Contrasts with autonomy-triumphalist claims of easy regional arms control</t>
+  </si>
+  <si>
+    <t>Use to frame small-state governance, legal posture and crisis-management drills under AI speed</t>
+  </si>
+  <si>
+    <t>My conclusion: prioritise meaningful human control, push definitional clarity, build CBMs that stress time and communications</t>
+  </si>
+  <si>
+    <t>The author is a Research Associate at ISSI’s Arms Control Centre; Pakistani perspective evident. :contentReference[oaicite:12]{index=12}</t>
+  </si>
+  <si>
+    <t>No primary trials; definitional ambiguity; timelines uncertain; many forward-looking claims</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Describe: Argues South Asian AI arms control is unlikely given asymmetry and divergent positions. :contentReference[oaicite:13]{index=13}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Interpret: Reframes policy towards governance, definitions and crisis stability under machine speed. :contentReference[oaicite:14]{index=14}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Methodology: Regional synthesis of official documents, news and research reports; validity moderate. :contentReference[oaicite:15]{index=15}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Evaluate: Strong on GGE contrasts and asymmetry logic; weak on measurement. :contentReference[oaicite:16]{index=16}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Author: Pakistani arms-control analyst at ISSI with normative tilt to restraint. :contentReference[oaicite:17]{index=17}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Synthesis: Aligns with human-control advocates; diverges from ban-feasible optimism. :contentReference[oaicite:18]{index=18}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Limit: Heavily secondary; limited programme performance data; future claims uncertain. :contentReference[oaicite:19]{index=19}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D_Implication: Irish DF should harden human control, definitions and crisis drills under time pressure. :contentReference[oaicite:20]{index=20}</t>
+  </si>
+  <si>
+    <t>CALCARA_2022</t>
+  </si>
+  <si>
+    <t>Antonio Calcara</t>
+  </si>
+  <si>
+    <t>Contractors or robots? Future warfare between privatization and automation</t>
+  </si>
+  <si>
+    <t>Conceptual political-economy analysis; literature synthesis linking PMSCs and automation; defence industry and armed forces focus (pp.250–256). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Privatisation and automation co-evolve to externalise war’s burdens; complex tech increases contractor reliance while automation can replace non-core tasks (pp.250–256, 260–263). :contentReference[oaicite:1]{index=1}</t>
+  </si>
+  <si>
+    <t>Externalisation logic; civilian value chains drive autonomy; Big Tech outspends defence R&amp;D; legal accountability constrains PMSCs and LAWS; military resistance shapes adoption; small-state outsourcing patterns (pp.251–258, 261–263). :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>Integrates industry, policy and organisational lenses; clarifies dual-use dynamics; maps implications for workforce and procurement; rich references (pp.250–258). :contentReference[oaicite:3]{index=3}</t>
+  </si>
+  <si>
+    <t>Limited original data; Euro-Atlantic tilt; cost and reliability assumptions not tested; uncertain timelines; generalises across services and states (pp.256–263). :contentReference[oaicite:4]{index=4}</t>
+  </si>
+  <si>
+    <t>Converges with SINGER_2010 on accountability politics and process limits; aligns with BEATTY_2025 on organisation over tools; echoes JORDAN_2021 on H2–H3 pathways</t>
+  </si>
+  <si>
+    <t>Contrasts with ARMY_2004 procedural doctrine; extends LI_2013’s engineering view with market and labour dynamics</t>
+  </si>
+  <si>
+    <t>Use as scaffold for Irish DF procurement and workforce planning; track spin-in obstacles, R&amp;D asymmetries and contractor reliance in maintenance; stress accountability where outsourcing persists (pp.256–258, 261–263). :contentReference[oaicite:5]{index=5}</t>
+  </si>
+  <si>
+    <t>For DF: treat PMSCs as complements for non-core functions; invest in low-bandwidth resilient C2 and in-house tech literacy; test automation where it relieves burdens without eroding initiative (pp.258–263). :contentReference[oaicite:6]{index=6}</t>
+  </si>
+  <si>
+    <t>Political-economy lens; European governance focus; sensitivity to legitimacy and accountability debates (pp.250–251). :contentReference[oaicite:7]{index=7}</t>
+  </si>
+  <si>
+    <t>Not case-tested; R&amp;D figures and market claims shift quickly; lacks Ireland-specific data; automation costs and reliability unresolved (pp.256–263). :contentReference[oaicite:8]{index=8}</t>
+  </si>
+  <si>
+    <t>D_Describe: Privatization and automation co-evolve to externalise war’s burdens (pp.250–256). :contentReference[oaicite:9]{index=9}</t>
+  </si>
+  <si>
+    <t>D_Interpret: Frames procurement and labour choices for small states; omits measured thresholds. :contentReference[oaicite:10]{index=10}</t>
+  </si>
+  <si>
+    <t>D_Methodology: Literature synthesis on PMSCs, autonomy and industry; conceptual validity, low empirics. :contentReference[oaicite:11]{index=11}</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where dual-use, R&amp;D asymmetry and accountability link to practice (pp.256–258). :contentReference[oaicite:12]{index=12}</t>
+  </si>
+  <si>
+    <t>D_Author: EU-based political scientist with policy lens, accountability emphasis. :contentReference[oaicite:13]{index=13}</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Singer on ethics politics; extends Jordan on H2–H3 via industry. :contentReference[oaicite:14]{index=14}</t>
+  </si>
+  <si>
+    <t>D_Limit: Assumptions on cost, reliability and timelines remain untested (pp.260–263). :contentReference[oaicite:15]{index=15}</t>
+  </si>
+  <si>
+    <t>D_Implication: DF should outsource periphery, build in-house autonomy literacy, and codify accountability.</t>
+  </si>
+  <si>
+    <t>PODAR_2025</t>
+  </si>
+  <si>
+    <t>Alycia Colijn; Heramb Podar</t>
+  </si>
+  <si>
+    <t>Technical Risks of (Lethal) Autonomous Weapons Systems</t>
+  </si>
+  <si>
+    <t>Whitepaper; AI-safety synthesis; response to CCW GGE rolling text; conceptual risk taxonomy</t>
+  </si>
+  <si>
+    <t>Proposed gains depend on classification yet systemic risks make behaviour unpredictable; even tested systems may act uncontrollably; regulate at algorithm level; keep meaningful human control and adaptive oversight central</t>
+  </si>
+  <si>
+    <t>Classification as necessary condition; black-box opacity; grokking; reward hacking; goal misgeneralisation; specification gaming; deceptive alignment; stop-button failure; degradation and drift; immeasurability; escalation pathways; call for global consensus and adaptive oversight</t>
+  </si>
+  <si>
+    <t>Concise risk table; maps risks to GGE assumptions; ties concrete scenarios to named safety failures; wide scholarly signposting</t>
+  </si>
+  <si>
+    <t>No empirics; advocacy tone; few operational thresholds; reliance on secondary sources; limited IHL detail</t>
+  </si>
+  <si>
+    <t>Converges with Sparrow on human respect and control; Salmon on system-level risks; Johnson on human–machine modes; Rafiq on governance hurdles</t>
+  </si>
+  <si>
+    <t>Differs from autonomy-optimists who trust testing; stronger on algorithm-level regulation and emergent behaviour</t>
+  </si>
+  <si>
+    <t>Use as governance checklist for trials and certification; require algorithm audits, drift monitors, shutdown proofs</t>
+  </si>
+  <si>
+    <t>Conclusion: keep AI as aid; reject lethal autonomy in complex settings; mandate layered controls and auditability</t>
+  </si>
+  <si>
+    <t>Advocacy lens (Encode Justice); safety-first framing; sceptical of predictability claims</t>
+  </si>
+  <si>
+    <t>Lacks page-level data, trials, or performance bounds; generalises across platforms</t>
+  </si>
+  <si>
+    <t>D_Describe: Whitepaper argues (L)AWS gains hinge on classification yet systemic risks make outcomes unpredictable. :contentReference[oaicite:1]{index=1}</t>
+  </si>
+  <si>
+    <t>D_Interpret: Centres governance over hype; urges algorithm-level regulation and human control for small states. :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with risk table and scenarios; validity moderate without trials. :contentReference[oaicite:3]{index=3}</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where it names concrete failure modes; weak on thresholds and tests. :contentReference[oaicite:4]{index=4}</t>
+  </si>
+  <si>
+    <t>D_Author: Activist-researchers advocating restraint and safety mechanisms. :contentReference[oaicite:5]{index=5}</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with respect-based and systems-risk traditions; pushes beyond test-centric assurance. :contentReference[oaicite:6]{index=6}</t>
+  </si>
+  <si>
+    <t>D_Limit: No empirical demonstrations; open-ended timelines; sparse legal analysis. :contentReference[oaicite:7]{index=7}</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should codify human control, audit algorithms, and gate autonomy via red-teamed certification. :contentReference[oaicite:8]{index=8}</t>
+  </si>
+  <si>
+    <t>JOHNSON_2020</t>
+  </si>
+  <si>
+    <t>James Johnson</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Drone Swarming and Escalation Risks in Future Warfare</t>
+  </si>
+  <si>
+    <t>Conceptual risk analysis; literature synthesis; scenario mapping</t>
+  </si>
+  <si>
+    <t>AI-augmented swarms and AWS raise inadvertent escalation risks through entanglement, speed and ambiguity; destabilise confidence in second-strike; technical limits persist (pp.26–36)</t>
+  </si>
+  <si>
+    <t>Key ideas: inadvertent escalation; nuclear–conventional entanglement; swarm ISR against TELs and SSBNs; EW and cyber payloads; Sea Hunter; defensive swarms; algorithmic speed compresses decision time; perception effects (pp.28–35)</t>
+  </si>
+  <si>
+    <t>Strengths: clear mechanisms from AI traits to nuclear stability; balanced feasibility caveats; concrete scenarios</t>
+  </si>
+  <si>
+    <t>Weaknesses: inference heavy; sparse data; horizon 2020; Western sources</t>
+  </si>
+  <si>
+    <t>Similarities: aligns with POSTMA_2021 on SEAD, CCD; RASKA_2021 on diffusion; BOUSQUET_2007 on control limits</t>
+  </si>
+  <si>
+    <t>Differences: centres nuclear stability and underwater leg; elevates perception-driven crisis dynamics</t>
+  </si>
+  <si>
+    <t>Notes: brittleness and data poisoning risks; swarms for ISR, SEAD and decoy roles; HGV co-mingling; defensive wall swarms; algorithm warfare; use-them-or-lose-them pressures (pp.27–35)</t>
+  </si>
+  <si>
+    <t>My conclusion: treat swarms as escalation-risk multipliers; keep human command, publish deconfliction rules, harden C3I, practise dispersion and CCD near nuclear powers</t>
+  </si>
+  <si>
+    <t>Author Bias: nonproliferation scholar; strategic-stability lens; caution on AWS</t>
+  </si>
+  <si>
+    <t>Key Limitations: conceptual method; contested technical feasibility; pre-Ukraine; limited empirical anchors</t>
+  </si>
+  <si>
+    <t>D_Describe: AI swarms threaten stability by compressing time and entangling nuclear and conventional forces (pp.26–33).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Puts politics and perception over kit; warns of inadvertent nuclear signalling.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with scenario vignettes; moderate validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong on mechanisms from AI traits to crisis instability (pp.31–35).</t>
+  </si>
+  <si>
+    <t>D_Author: RUSI scholar of nuclear strategy; stability-first stance.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with sceptics of decisive tech; extends to nuclear context.</t>
+  </si>
+  <si>
+    <t>D_Limit: Feasibility and timelines contested; data thin.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should avoid ambiguous swarm deployments and harden decision networks.</t>
+  </si>
+  <si>
+    <t>Deterrence in the age of AI &amp; autonomy; nuclear stability risks</t>
+  </si>
+  <si>
+    <t>Conceptual synthesis of deterrence theory with AI applications; theory-led analysis</t>
+  </si>
+  <si>
+    <t>AI and autonomy likely decrease nuclear stability and raise inadvertent escalation risk (pp.422–423)</t>
+  </si>
+  <si>
+    <t>Post-classical deterrence; first strike, crisis, arms-race stability; NC3 cyber; AI-ISR; drone swarms; multipolarity complexity (pp.427–433, 432–434)</t>
+  </si>
+  <si>
+    <t>Frames stability types clearly; links cognition with tech; concrete swarm scenarios; multipolar nuance (pp.427–434)</t>
+  </si>
+  <si>
+    <t>Sparse empirical tests; speculative capabilities; policy remedies light; assumes steady AI adoption (pp.423–424)</t>
+  </si>
+  <si>
+    <t>Converges with RAND on automation accidents and escalation risks (pp.442, 444)</t>
+  </si>
+  <si>
+    <t>More sceptical than tech-optimists; centres NC3 entanglement over platforms (pp.427–433)</t>
+  </si>
+  <si>
+    <t>AI-ISR and cyber raise pre-emption incentives; swarms threaten second-strike survivability; multipolarity compounds misperception (pp.429–434)</t>
+  </si>
+  <si>
+    <t>Use to argue for human-over-the-loop, resilient NC3, and conservative signalling for small states (pp.427–434)</t>
+  </si>
+  <si>
+    <t>Cautious sceptic; academic lens; Western canon foregrounded (pp.422–424)</t>
+  </si>
+  <si>
+    <t>No cases; models implicit; secondary-heavy; generalises across regimes (pp.423–424)</t>
+  </si>
+  <si>
+    <t>D_Describe: AI and autonomy lower nuclear stability, raise escalation risk (pp.422–423).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters for crisis signalling; omits operational evidence.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Theory-driven synthesis; illustrative logic; validity moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on stability types and NC3 vulnerabilities (pp.427–433).</t>
+  </si>
+  <si>
+    <t>D_Author: Sceptical stance; post-classical deterrence lens.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with RAND on automation risks; diverges from techno-optimism.</t>
+  </si>
+  <si>
+    <t>D_Limit: Assumes adoption pace; thin on cases.</t>
+  </si>
+  <si>
+    <t>D_Implication: DF should harden comms, retain human judgement, avoid over-automation.</t>
+  </si>
+  <si>
+    <t>JOHNSON_2020b</t>
+  </si>
+  <si>
+    <t>OYEWOLE_2025</t>
+  </si>
+  <si>
+    <t>Samuel Oyewole; Christopher Isike; Tony Oche; Ezenwa E. Olumba</t>
+  </si>
+  <si>
+    <t>Autonomous Weapons Systems in Africa: Emerging Realities, Prospects, and Risks</t>
+  </si>
+  <si>
+    <t>Content analysis of public sources; structural phenomenological analysis; transdisciplinary, theory-driven frame across cost–benefit, strategy, military sociology, realism and political economy (pp.609–610)</t>
+  </si>
+  <si>
+    <t>Records accelerating AWS adoption in Africa; 19 states and 167 platforms acquired; prospects in ISR, precision and casualty reduction; risks to rights, democracy, sovereignty and stability; recommends cost–benefit approach (pp.604–606, 611–614, 615–621)</t>
+  </si>
+  <si>
+    <t>Kargu-2 as LAWS in Libya 2020; Triton demo in Gabon 2024; SIPRI-derived Tables of recipients, spend and suppliers; Turkish and Chinese dominance; indigenous R\&amp;D gaps; risk of dependency and testing-ground politics (pp.611–614, 618–621)</t>
+  </si>
+  <si>
+    <t>Strong African-centred synthesis; concrete cases plus tables; clear articulation of benefits and risks; policy relevance for small states (pp.611–614, 615–621)</t>
+  </si>
+  <si>
+    <t>Heavy reliance on secondary sources; uncertain measurement of autonomy levels; some specification lines from media; limited statistical validation (pp.609–610, 612–614)</t>
+  </si>
+  <si>
+    <t>Converges with SINGER_2010 on ethical risk awareness; aligns with CALCARA_2022 on dependency and accountability; resonates with JORDAN_2021 on signposts and trajectories</t>
+  </si>
+  <si>
+    <t>Contrasts with LI_2013’s algorithmic evidence and ARMY_2004 doctrinal proceduralism; offers continental perspective rather than program-specific trials</t>
+  </si>
+  <si>
+    <t>Use as African context scaffold; track supplier leverage; link to Irish DF oversight, low-bandwidth C2 and human-on-the-loop thresholds; map signposts to procurement</t>
+  </si>
+  <si>
+    <t>Adopt cautious, staged AWS exploration; pair ISR gains with rights safeguards and sovereignty protections; hedge supplier lock-in</t>
+  </si>
+  <si>
+    <t>Authors are African policy and security scholars; possible normative emphasis on governance risks and continental capacity-building</t>
+  </si>
+  <si>
+    <t>Secondary and media-sourced data; autonomy degrees vary; case secrecy; tables abstract complex reality</t>
+  </si>
+  <si>
+    <t>D_Describe: AWS adoption rising in Africa; benefits and risks balanced through cost–benefit lens (pp.604–606, 615–621).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Frames small-state choices on capability vs dependency; omits granular autonomy metrics (pp.611–614, 618–621).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Public-source content analysis plus structural phenomenology; conceptual validity, low empirics (pp.609–610).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best where cases and tables anchor claims; weaker where definitions and autonomy degrees blur (pp.611–614).</t>
+  </si>
+  <si>
+    <t>D_Author: African security scholars with practitioner engagements; policy orientation (pp.609–610).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Singer’s caution and Calcara’s political-economy lens; complements Jordan’s horizons.</t>
+  </si>
+  <si>
+    <t>D_Limit: Reliant on open sources and SIPRI tables; limited verification (pp.609–614).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should pursue ISR pilots with governance safeguards, autonomy literacy and supplier hedges (pp.615–621).</t>
+  </si>
+  <si>
+    <t>SAUER_2020</t>
+  </si>
+  <si>
+    <t>Frank Sauer</t>
+  </si>
+  <si>
+    <t>Stepping back from the brink: Why multilateral regulation of autonomy in weapons systems is difficult, yet imperative and feasible</t>
+  </si>
+  <si>
+    <t>Conceptual and policy analysis using functional approach; CCW process reading; strategic and ethical assessment</t>
+  </si>
+  <si>
+    <t>Regulation is difficult yet imperative and feasible; positive obligation to retain meaningful human control; three steps proposed; autonomy already present in niches; risks include diffusion, vulnerabilities, escalation, entanglement (pp.239–240, 249, 258–259)</t>
+  </si>
+  <si>
+    <t>Functional focus on critical functions of selecting and engaging targets; Harpy as extant autonomous example; automatic v autonomous is a false dichotomy; terminal defences like Phalanx/Patriot; RAND wargame escalation; Petrov as human fail-safe; swarms affect strategic stability (pp.239–240, 249–250, 258–259)</t>
+  </si>
+  <si>
+    <t>Clear functional framing; bridges strategy, ethics and law; concrete exemplars; plausible pathway via CCW and human control norm; relevant to small states</t>
+  </si>
+  <si>
+    <t>Thin empirical metrics; verification and compliance not detailed; feasibility shaped by great-power politics; few operational case datasets</t>
+  </si>
+  <si>
+    <t>Converges with ICRC/iPRAW on meaningful human control and with sceptics of techno-determinism</t>
+  </si>
+  <si>
+    <t>Diverts from strong techno-optimists who prioritise machine speed and full autonomy</t>
+  </si>
+  <si>
+    <t>For DF: adopt a human-control-by-design policy; avoid autonomous targeting of persons; stress training to counter automation bias; support CCW norm-building; test swarm countermeasures and comms resilience (pp.239, 249–250)</t>
+  </si>
+  <si>
+    <t>Prudent course is governance first: retain meaningful human control, design doctrine and systems to slow unsafe automation, and back multilateral norms to reduce escalation risk</t>
+  </si>
+  <si>
+    <t>Author is a disarmament/arms-control scholar; normative tilt toward precaution and humanitarian restraint</t>
+  </si>
+  <si>
+    <t>Conceptual not statistical; ambiguous verification standards; uncertain CCW tractability; limited discussion of state incentives and workarounds</t>
+  </si>
+  <si>
+    <t>D_Describe: Sets a functional, human-control lens on autonomy; autonomy exists now in niches; proposes three-step norm path (pp.239–240, 258–259).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters as autonomy scales; unmanaged machine speed threatens escalation and dignity; omits concrete verification regime.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Normative-strategic synthesis from CCW debate, exemplars and literature; validity moderate; bias precautionary.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest where it collapses automatic v autonomous and centres critical functions and targets (pp.239–240).</t>
+  </si>
+  <si>
+    <t>D_Author: Arms-control scholar advocating meaningful human control within CCW dynamics.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with ICRC/iPRAW control norm and strategic-risk literature; counters automation maximalists.</t>
+  </si>
+  <si>
+    <t>D_Limit: Limited empirical testing and compliance mechanisms; feasibility hinges on politics.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should encode human control, resist autonomous targeting of persons, and support CCW norm work.</t>
+  </si>
+  <si>
+    <t>ALTMANN_2017</t>
+  </si>
+  <si>
+    <t>Jürgen Altmann; Frank Sauer</t>
+  </si>
+  <si>
+    <t>Autonomous Weapon Systems and Strategic Stability</t>
+  </si>
+  <si>
+    <t>Conceptual strategic-stability analysis using Cold War analogies, tech-trend synthesis, arms-control pathways (pp.117–123, 132–136)</t>
+  </si>
+  <si>
+    <t>AWS will spur proliferation and arms races and heighten crisis instability; authors advocate a preventive prohibition with meaningful human control and ex post verification ideas (pp.121–129, 132–136)</t>
+  </si>
+  <si>
+    <t>Dual-use diffusion; software-centric autonomy easy to copy; swarm speed outpaces human checks; algorithmic interaction risk; overlap with nuclear C2; CCW venue; ‘glass box’ verification concept (pp.124–135)</t>
+  </si>
+  <si>
+    <t>Clear two-dimension instability frame; links tech to practice; vivid analogies and concrete programme examples; actionable arms-control options (pp.119–126, 132–136)</t>
+  </si>
+  <si>
+    <t>Conceptual not empirical; assumes swarm maturity; limited operational data; dated vis-à-vis post-2017 counter-UAS shifts (pp.128–135)</t>
+  </si>
+  <si>
+    <t>Converges with SINGER_2010 on accountability and ethics risk; aligns with CALCARA_2022 on dual-use and spin-in; resonates with OYEWOLE_2025 on governance exposure</t>
+  </si>
+  <si>
+    <t>More pessimistic on H3 than JORDAN_2021; contrasts ARMY_2004 procedure-first lens; differs from LI_2013 engineering proofpoints</t>
+  </si>
+  <si>
+    <t>Define AWS vs automatic; DoD 3000.09; swarms like Perdix; flash-crash analogy for algorithmic escalation; 19 states called for a ban by 2017; CCW track; ‘meaningful human control’ and verification via logs (pp.117–121, 123–131, 132–135)</t>
+  </si>
+  <si>
+    <t>Use as strategic-risk counterweight; prioritise human control, slow-down circuits, dispersion and low-bandwidth fallbacks; prefer verification-ready oversight</t>
+  </si>
+  <si>
+    <t>ICRAC-linked authors; arms-control and humanitarian lens; sceptical of AWS benefit claims</t>
+  </si>
+  <si>
+    <t>Pre-2018 evidence; forecasting risk; verification practicality debated; dual-use monitoring hard</t>
+  </si>
+  <si>
+    <t>D_Describe: AWS likely drive proliferation and crisis instability, warranting preventive prohibition (pp.121–129, 132–136).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Centres small-state choices on speed, escalation and governance; omits costed operational trials.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with Cold War precedents and tech exemplars; plausibility not tests (pp.118–123).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where speed, swarms and algorithmic interaction map to instability; gives concrete arms-control routes (pp.128–136).</t>
+  </si>
+  <si>
+    <t>D_Author: Altmann physicist, Sauer IR scholar; ICRAC members with arms-control stance (p.117).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Singer and Calcara on accountability and externalities; challenges optimistic autonomy narratives.</t>
+  </si>
+  <si>
+    <t>D_Limit: No new data; maturity of swarms and counters uncertain; verification feasibility contested.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should harden C2, codify human control and supervisory restraint, and back verification-ready logging.</t>
+  </si>
+  <si>
+    <t>HOROWITZ_2019</t>
+  </si>
+  <si>
+    <t>Horowitz, Michael C.</t>
+  </si>
+  <si>
+    <t>When speed kills: LAWS, deterrence and stability (Journal of Strategic Studies, 2019)</t>
+  </si>
+  <si>
+    <t>Conceptual synthesis using classic security studies and historical cases; theory-led assessment of LAWS effects</t>
+  </si>
+  <si>
+    <t>LAWS can raise crisis instability via machine-speed operations and reduced human control; deployment shaped by trust and accident risk; verification opacity complicates arms control; likely proliferation more than classic arms races; limited but real impacts on strategic stability, especially first-strike pressures</t>
+  </si>
+  <si>
+    <t>Speed vs control trade-off; automation bias and accidents; opacity of software vs hardware; dual-use diffusion; CIWS and Patriot precedents; Perimeter analogy; swarm tracking of SSBNs as stability concern; CCW GGE norms pathway; uncertainty amplifies security dilemmas</t>
+  </si>
+  <si>
+    <t>Clear framing of speed and control; connects deterrence types to AI pathways; balanced on arms control feasibility; policy-relevant cautions</t>
+  </si>
+  <si>
+    <t>Speculative capabilities; few empirical anchors; major-power lens; limited small-state mapping</t>
+  </si>
+  <si>
+    <t>Aligns with JOHNSON_2020 on inadvertent escalation; with GENTRY_2002 on infrastructure and fragility; with YIN_2020 on C2 and links as gates</t>
+  </si>
+  <si>
+    <t>More cautious than techno-optimists; less platform-centric than UAV studies like LEE_2020; privileges stability over performance</t>
+  </si>
+  <si>
+    <t>Use LAWS arguments to justify human veto points, slow-down drills, anti-jam practice and mixed fleets; expect diffusion through dual-use rather than discrete arms races; verification and ROE will be decisive</t>
+  </si>
+  <si>
+    <t>Irish DF should treat autonomy as an adjunct, keep human-over-the-loop, enforce bandwidth discipline, invest in resilient C2 and analogue fallbacks, and rehearse degraded ops in EW</t>
+  </si>
+  <si>
+    <t>US academic strategic-studies lens; cautious on arms control; not anti-technology but risk-aware</t>
+  </si>
+  <si>
+    <t>Theory-heavy; dated by tech pace; no quantitative evaluation; small-state implications implicit</t>
+  </si>
+  <si>
+    <t>D_Describe: Assesses how LAWS’ speed and reduced human control shape arms racing, deterrence and stability.</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters for DF crisis signalling and ROE design; warns that opacity and machine-speed can compress decision time.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Theory-driven synthesis with historical analogies and contemporary policy fora; validity moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on speed–stability trade-off and verification opacity; weakest on measured effects.</t>
+  </si>
+  <si>
+    <t>D_Author: US political scientist; cautious stability-first stance; engages arms control debates.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with sceptics on automation risks and NC3 entanglement; diverges from replacement narratives.</t>
+  </si>
+  <si>
+    <t>D_Limit: Few cases, speculative tech pathways, major-power focus.</t>
+  </si>
+  <si>
+    <t>D_Implication: Keep human veto points, harden comms, practise slow-down doctrine and anti-jam drills; scale autonomy prudently.</t>
+  </si>
+  <si>
+    <t>BODE_2022</t>
+  </si>
+  <si>
+    <t>Ingvild Bode; Hendrik Huelss</t>
+  </si>
+  <si>
+    <t>Autonomous Weapons Systems and International Norms</t>
+  </si>
+  <si>
+    <t>Conceptual IR–law synthesis; historical cases; UN process analysis</t>
+  </si>
+  <si>
+    <t>Core claim: norms on force emerge in practice as well as law; a legal-regulative order and a normative order can align or misalign; drones widened self-defence readings and lowered thresholds; AWS will shape order through practices beyond formal law (ch.1 pp.26–33; ch.2 pp.65–67; ch.3 pp.102–110)</t>
+  </si>
+  <si>
+    <t>Key ideas: autonomy vs automation; machine learning limits; spectrum of autonomy; CCW/LAWS debate and meaningful human control; ex post vs ex ante regulation via submarines, chemical, nuclear, blinding lasers; legal-regulative vs normative orders; congruence vs incongruence; “unwilling or unable” and elastic self-defence (ch.1 pp.26–46; ch.2 pp.65–74, 91–101; ch.3 pp.102–118)</t>
+  </si>
+  <si>
+    <t>Strengths: sharp two-order framework; links law, practice and politics; grounded historical illustrations; clear UN process read-across (ch.1 pp.26–34; ch.2 pp.65–74; ch.3 pp.102–110)</t>
+  </si>
+  <si>
+    <t>Weaknesses: limited quantification; Western-centric examples; inference heavy on effects of drones to AWS; few programme-level data (ch.2 pp.91–101; ch.3 pp.118–126)</t>
+  </si>
+  <si>
+    <t>Similarities: Aligns with BOUSQUET_2007 on control limits and practice; RASKA_2021 on diffusion beyond platforms; SCHNEIDER_2024 on conditions for change, not traits alone</t>
+  </si>
+  <si>
+    <t>Differences: Challenges legal-centrism and tech determinism; diverges from ban-only or kit-first frames by foregrounding micro-practices and norm drift</t>
+  </si>
+  <si>
+    <t>Notes: SIPRI definition of autonomy; black-box ML and data brittleness; Article 2(4) and 51 dynamics; Washington and London submarine treaties; Nuremberg treatment; drone-era elasticity of imminence and attribution; practice-led norm shifts (ch.1 pp.26–46; ch.2 pp.74–90; ch.3 pp.110–120)</t>
+  </si>
+  <si>
+    <t>My conclusion: Treat AWS governance as practice-shaping; aim to increase congruence between law and norms by testing, logging, and doctrine for human control; constrain elastic self-defence narratives (ch.3 pp.118–126)</t>
+  </si>
+  <si>
+    <t>Author Bias: IR–norms scholars; sceptical of positivist legal closure; attentive to politics of definition at CCW</t>
+  </si>
+  <si>
+    <t>Key Limitations: Book-level synthesis; scarce metrics; early-2020s horizon; limited state practice datasets</t>
+  </si>
+  <si>
+    <t>D_Describe: AWS will change order because norms emerge in practice as well as law; two orders can misalign (ch.3 pp.102–110).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters as misalignment lowers use-of-force thresholds; congruence restores restraint; drones illustrate drift (ch.3 pp.110–118).</t>
+  </si>
+  <si>
+    <t>D_Methodology: IR–legal conceptual build with historical cases and UN process tracing; moderate validity (ch.1–3).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strong where two-order model explains drone-era elasticity of self-defence (ch.3 pp.110–116).</t>
+  </si>
+  <si>
+    <t>D_Author: Norms-focused IR scholars engaging CCW politics and legal indeterminacy (ch.1–3).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with control-limit and diffusion literatures; tempers RMA/platform claims.</t>
+  </si>
+  <si>
+    <t>D_Limit: Few measures of norm change; Western cases; inference heavy (ch.2–3).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should shape practice: codify human-in-the-loop, audit logs, precise ROE and inter-agency review to keep law–norm congruence.</t>
+  </si>
+  <si>
+    <t>MILAN_2020</t>
+  </si>
+  <si>
+    <t>Francesco F. Milan; Aniseh Bassiri Tabrizi</t>
+  </si>
+  <si>
+    <t>Armed, unmanned, and in high demand: the drivers behind combat drones proliferation in the Middle East</t>
+  </si>
+  <si>
+    <t>Conceptual policy analysis with illustrative country cases and documentary sources; qualitative synthesis organised by operational and strategic drivers (ME focus). :contentReference[oaicite:0]{index=0}</t>
+  </si>
+  <si>
+    <t>Result: UCAVs have become a strategic enabler in the Middle East; procurement has normalised through indigenous projects and Chinese exports; drivers are cost, reliability, risk mitigation, deniability and proxy-enabled power projection. :contentReference[oaicite:1]{index=1} Key regional ownership and examples evidence the claim. :contentReference[oaicite:2]{index=2}</t>
+  </si>
+  <si>
+    <t>Key ideas: Three operational drivers—cost, reliability, risk mitigation—plus strategic drivers—deniability and influence via proxies; end of the US–Israel UCAV export duopoly; Chinese Wing Loong and CH-4 as accelerants. :contentReference[oaicite:3]{index=3} :contentReference[oaicite:4]{index=4} :contentReference[oaicite:5]{index=5}</t>
+  </si>
+  <si>
+    <t>Strengths: Clear two-level framework; concrete cases across Iraq, UAE, KSA, Egypt; links procurement choices to conflict dynamics. :contentReference[oaicite:6]{index=6} :contentReference[oaicite:7]{index=7} :contentReference[oaicite:8]{index=8}</t>
+  </si>
+  <si>
+    <t>Weaknesses: Heavily secondary-source reliant; no formal measurement of thresholds; fast-changing tech and politics reduce durability. Bibliography skews to media and reports. :contentReference[oaicite:9]{index=9}</t>
+  </si>
+  <si>
+    <t>Similarities: Converges with CALCARA_2022 on externalisation, supplier leverage and accountability; aligns with JORDAN_2021 on pathway drivers (H2→H3); resonates with OYEWOLE_2025 on diffusion and governance risks</t>
+  </si>
+  <si>
+    <t>Differences: More regional procurement lens than ARMY_2004’s doctrine; more optimistic on adoption than ALTMANN_2017’s instability lens; less technical than LI_2013</t>
+  </si>
+  <si>
+    <t>Notes: Use ME cases to evidence cost, reliability and risk logics; track deniability patterns and proxy supply chains; treat Chinese exports as a standing signpost. :contentReference[oaicite:10]{index=10} :contentReference[oaicite:11]{index=11}</t>
+  </si>
+  <si>
+    <t>My conclusion: UCAVs lower costs and political risk yet raise escalation and attribution problems; for a small state, exploit ISR and persistence but harden governance, attribution and low-bandwidth C2. :contentReference[oaicite:12]{index=12} :contentReference[oaicite:13]{index=13}</t>
+  </si>
+  <si>
+    <t>Author Bias: UK academic and policy lens (KCL; RUSI); emphasis on practical procurement dynamics and open-source cases</t>
+  </si>
+  <si>
+    <t>Key Limitations: Region-specific scope; pre-Ukraine-era baseline; secondary evidence; no quantified effect sizes; limited transfer to small states without adaptation</t>
+  </si>
+  <si>
+    <t>D_Describe: UCAV procurement in the Middle East is now the norm; Chinese exports and indigenous projects enabled rapid adoption. :contentReference[oaicite:14]{index=14}</t>
+  </si>
+  <si>
+    <t>D_Interpret: Frames autonomy debates through operational and strategic payoffs; omits measured thresholds for when drones outperform manned options.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis with case vignettes from Iraq, UAE, KSA and Egypt; validity from coherence, not tests. :contentReference[oaicite:15]{index=15}</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest where operational drivers and deniability are evidenced by concrete deployments and proxy use. :contentReference[oaicite:16]{index=16} :contentReference[oaicite:17]{index=17}</t>
+  </si>
+  <si>
+    <t>D_Author: Analysts rooted in UK defence studies and policy research focus on practice-facing implications</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Jordan on horizons and drivers; extends Calcara’s political economy with ME procurement detail; complements Oyewole’s diffusion map</t>
+  </si>
+  <si>
+    <t>D_Limit: No formal metrics; reliance on open sources; claims time-bound to 2015–2019 cases. :contentReference[oaicite:18]{index=18}</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should treat UCAVs as Stage-1 enablers for ISR and persistence while building attribution, oversight and low-bandwidth doctrine.</t>
+  </si>
+  <si>
+    <t>GUNEY_2024</t>
+  </si>
+  <si>
+    <t>Güney &amp; İşeri</t>
+  </si>
+  <si>
+    <t>Linkage theory, regime survival and Turkey’s Eurasian turn (2013–2022)</t>
+  </si>
+  <si>
+    <t>Conceptual synthesis + single-case qualitative tracing from speeches, policy acts, secondary data; tables on finance and energy (pp.597–601, 606–608)</t>
+  </si>
+  <si>
+    <t>Turkey’s weakening Western “inner-directed” linkages coincided with deliberate “outer-directed” linkages to Russia and China for regime survival; shift from Europhilism to Eurasianism; hedging on Ukraine; deepening energy and defence ties; selective BRI engagement (pp.597–598, 601, 606–608)</t>
+  </si>
+  <si>
+    <t>Inner vs outer linkage model; regime survival lens; 2013 Gezi and 2016 coup as inflections; Russia S-400 deal and Syria operations; AIIB credit, BRI “Middle Corridor”; neutral sanctions stance on Russia (pp.601, 606–608)</t>
+  </si>
+  <si>
+    <t>Clear framework; coherent case chronology; integrates domestic politics with foreign policy; concrete episodes (S-400, Syria, energy); policy relevance for small and middle powers</t>
+  </si>
+  <si>
+    <t>Single case; causal identification modest; some normative language; reliance on secondary sources; limited measurement; generalisability uncertain</t>
+  </si>
+  <si>
+    <t>Converges with authoritarian resilience and hedging literatures; links domestic survival to external alignment</t>
+  </si>
+  <si>
+    <t>Differs from EU-anchor theses that expect sustained Westernisation; challenges unitary-liberal order assumptions</t>
+  </si>
+  <si>
+    <t>Use the linkage–survival synthesis to read alignment as regime insurance; expect selective Eurasian ties to persist unless EU credibility rises (pp.601, 606–608)</t>
+  </si>
+  <si>
+    <t>For DF: plan for partner hedging; diversify logistics and energy-facing missions; build redundancy for great-power shocks</t>
+  </si>
+  <si>
+    <t>D_Describe: Authoritarian Turkey pivots to Eurasian outer linkages for regime survival after 2013/2016 (pp.597–598, 606).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Shows domestic survival drives alignment; underplays pure economic drivers.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Single-case synthesis from statements, policies and secondary data; credible yet non-quantitative.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest where S-400, Syria and energy map to survival logic (pp.606–607).</t>
+  </si>
+  <si>
+    <t>D_Author: Critical of liberal order; Turkish academic lens; CATS/SWP funded.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns linkage-regime survival; diverges from EU-anchor optimism.</t>
+  </si>
+  <si>
+    <t>D_Limit: One case, 2013–2022 window, tentative causality.</t>
+  </si>
+  <si>
+    <t>D_Implication: Small states should hedge and build resilient multi-vector ties.</t>
+  </si>
+  <si>
+    <t>SOYALTIN-COLELLA_2023</t>
+  </si>
+  <si>
+    <t>Digdem Soyaltin-Colella; Tolga Demiryol</t>
+  </si>
+  <si>
+    <t>Unusual middle power activism and regime survival: Turkey’s drone warfare and its regime-boosting effects</t>
+  </si>
+  <si>
+    <t>Political science case study; document and media analysis; SIPRI-based descriptive stats; theory-led process tracing</t>
+  </si>
+  <si>
+    <t>Finds three regime-boosting pathways from drones: techno-nationalism, border security and regional order, export-led prestige and contestation; supports middle power activism thesis (pp.724–737)</t>
+  </si>
+  <si>
+    <t>Key ideas: unusual middle power activism; techno-nationalism festivals and media; TB2 exports to two dozen countries; SIPRI export rise; Syria, Libya, Nagorno-Karabakh uses; rally effects; NATO balancing; norm contestation (pp.725–736)</t>
+  </si>
+  <si>
+    <t>Strengths: clear three-pathway framework; triangulates foreign and domestic arenas; embeds SIPRI tables; actionable linkage of tech, politics and legitimacy (pp.726–733)</t>
+  </si>
+  <si>
+    <t>Weaknesses: inference heavy; relies on government-linked media reports; limited causal identification; selection bias; partial sales data (pp.731–737)</t>
+  </si>
+  <si>
+    <t>Similarities: Converges with POSTMA_2021 on drones shaping but not deciding wars; BODE_2022 on practice shaping norms; RASKA_2021 on civil–mil diffusion (pp.729–736)</t>
+  </si>
+  <si>
+    <t>Differences: Challenges tech-determinist “drone revolution” takes; centres domestic regime survival mechanisms over battlefield lethality (pp.724–729)</t>
+  </si>
+  <si>
+    <t>Notes: SIPRI tables on exports/imports; TB2 sales to ~24 states; Syria and Libya strike videos; Teknofest as pride platform; Ukraine visibility and marketing; NATO implications (pp.726–736)</t>
+  </si>
+  <si>
+    <t>My conclusion: Treat drones as political instruments as well as military tools; expect regime-linkages in exporters; watch export controls and narratives (pp.733–737)</t>
+  </si>
+  <si>
+    <t>Author Bias: IR and comparative politics scholars; norm and regime-survival lens; Turkish and UK institutional bases (p.724)</t>
+  </si>
+  <si>
+    <t>Key Limitations: Open-source and media dependence; sparse counterfactuals; partial transparency on contracts; generalisability beyond Turkey (pp.731–737)</t>
+  </si>
+  <si>
+    <t>D_Describe: Drones boost regime survival via pride, security and export-led prestige in Turkey (pp.724–729).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters because tech use reshapes domestic legitimacy and regional agency; data depth limited.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Theory-led case with documents, media and SIPRI tables; moderate validity (pp.724–727).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Most persuasive where SIPRI trends and three channels align with cases (pp.726–733).</t>
+  </si>
+  <si>
+    <t>D_Author: Political scientists of norms and Turkish politics; cautious of liberal-order assumptions.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with evolution-not-revolution war readings; connects to norms-in-practice debates.</t>
+  </si>
+  <si>
+    <t>D_Limit: Evidence largely correlational; media-heavy; few falsification tests.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should separate military utility from political branding; scrutinise export-governance spillovers.</t>
+  </si>
+  <si>
+    <t>MARSHALL_2015</t>
+  </si>
+  <si>
+    <t>Marshall, Tim</t>
+  </si>
+  <si>
+    <t>Prisoners of Geography — selected chapters (Russia; China; USA; Western Europe; Arctic)</t>
+  </si>
+  <si>
+    <t>Journalistic geopolitical synthesis; historical cases; terrain, rivers, ports, routes; region-by-region narrative (ebook pp.20–49; 50–81; 82–106; 107–133; 232–252)</t>
+  </si>
+  <si>
+    <t>Core claim: geography structures state choices; technology modifies but rarely escapes constraints; Russia seeks buffers; China faces land–sea dilemmas; the USA benefits from rivers and oceans; Europe fragments then integrates; Arctic opens new corridors (pp.20–49; 50–81; 82–106; 107–133; 232–252)</t>
+  </si>
+  <si>
+    <t>Key ideas: buffers and chokepoints; heartlands and rimlands; navigable rivers as growth engines; mountains as political borders; Malacca dilemma; North European Plain; Bosporus control; Arctic sea routes (pp.20–49; 50–81; 82–106; 107–133; 232–252)</t>
+  </si>
+  <si>
+    <t>Strengths: clear regional anatomy; maps to strategy; memorable heuristics; useful for framing constraints; cross-era examples (pp.20–49; 50–81; 82–106)</t>
+  </si>
+  <si>
+    <t>Weaknesses: popular tone; sparse sourcing; determinism risk; underplays agency, ideas, learning; thin on measurement (pp.107–133)</t>
+  </si>
+  <si>
+    <t>Similarities: aligns with sceptics on tech determinism; echoes classical geopolitics; complements GENTRY_2002 on infrastructure limits (pp.50–81; 82–106)</t>
+  </si>
+  <si>
+    <t>Differences: diverges from RMA-optimists; less on institutions and economics; little on small-state workarounds (pp.107–133)</t>
+  </si>
+  <si>
+    <t>Notes: treat chapter bands as anchors; use for constraints-first framing then test exceptions; link claims to Irish DF tasks</t>
+  </si>
+  <si>
+    <t>My conclusion: use Marshall as a bounding device; then interrogate where doctrine and networks bend constraints</t>
+  </si>
+  <si>
+    <t>Author Bias: British journalist; privileging physical geography; macro generalisations; limited quantitative backing</t>
+  </si>
+  <si>
+    <t>Key Limitations: deterministic pull; dated examples; minimal treatment of cyber and supply chains beyond chokepoints</t>
+  </si>
+  <si>
+    <t>D_Describe: Geography channels state power; technology narrows not erases limits (pp.20–49; 50–81).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Frames what Ireland can and cannot do; prompts hedging around chokepoints (pp.82–106).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Narrative synthesis with historical vignettes; validity heuristic, not causal (pp.107–133).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best where rivers and plains explain growth and invasion routes (pp.82–106).</t>
+  </si>
+  <si>
+    <t>D_Author: Journalist–analyst; maps first; agency underweighted (pp.107–133).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with infrastructure fragility; tempers RMA claims (pp.50–81; 232–252).</t>
+  </si>
+  <si>
+    <t>D_Limit: Determinism risk; thin metrics; popular style (pp.107–133).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should plan around chokepoints and weather windows; test exceptions (pp.232–252).</t>
+  </si>
+  <si>
+    <t>ALACH_2008A</t>
   </si>
 </sst>
 </file>
@@ -8708,10 +11654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0111F966-AC4E-4B87-8117-CC0F46545464}">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15983,6 +18929,3069 @@
         <v>2501</v>
       </c>
     </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F108" t="s">
+        <v>2506</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2507</v>
+      </c>
+      <c r="H108" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I108" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J108" t="s">
+        <v>2510</v>
+      </c>
+      <c r="K108" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L108" t="s">
+        <v>2512</v>
+      </c>
+      <c r="M108" t="s">
+        <v>2513</v>
+      </c>
+      <c r="N108" t="s">
+        <v>2514</v>
+      </c>
+      <c r="O108" t="s">
+        <v>2515</v>
+      </c>
+      <c r="P108" t="s">
+        <v>2516</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>2517</v>
+      </c>
+      <c r="R108" t="s">
+        <v>2518</v>
+      </c>
+      <c r="S108" t="s">
+        <v>2519</v>
+      </c>
+      <c r="T108" t="s">
+        <v>2520</v>
+      </c>
+      <c r="U108" t="s">
+        <v>2521</v>
+      </c>
+      <c r="V108" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F109" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2530</v>
+      </c>
+      <c r="H109" t="s">
+        <v>2531</v>
+      </c>
+      <c r="I109" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J109" t="s">
+        <v>2533</v>
+      </c>
+      <c r="K109" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L109" t="s">
+        <v>2535</v>
+      </c>
+      <c r="M109" t="s">
+        <v>2536</v>
+      </c>
+      <c r="N109" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O109" t="s">
+        <v>2538</v>
+      </c>
+      <c r="P109" t="s">
+        <v>2539</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>2540</v>
+      </c>
+      <c r="R109" t="s">
+        <v>2541</v>
+      </c>
+      <c r="S109" t="s">
+        <v>2542</v>
+      </c>
+      <c r="T109" t="s">
+        <v>2543</v>
+      </c>
+      <c r="U109" t="s">
+        <v>2544</v>
+      </c>
+      <c r="V109" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2551</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2553</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2554</v>
+      </c>
+      <c r="J110" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K110" t="s">
+        <v>2556</v>
+      </c>
+      <c r="L110" t="s">
+        <v>2557</v>
+      </c>
+      <c r="M110" t="s">
+        <v>2558</v>
+      </c>
+      <c r="N110" t="s">
+        <v>2559</v>
+      </c>
+      <c r="O110" t="s">
+        <v>2560</v>
+      </c>
+      <c r="P110" t="s">
+        <v>2561</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>2562</v>
+      </c>
+      <c r="R110" t="s">
+        <v>2563</v>
+      </c>
+      <c r="S110" t="s">
+        <v>2564</v>
+      </c>
+      <c r="T110" t="s">
+        <v>2565</v>
+      </c>
+      <c r="U110" t="s">
+        <v>2566</v>
+      </c>
+      <c r="V110" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F111" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H111" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2576</v>
+      </c>
+      <c r="J111" t="s">
+        <v>2577</v>
+      </c>
+      <c r="K111" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L111" t="s">
+        <v>2579</v>
+      </c>
+      <c r="M111" t="s">
+        <v>2580</v>
+      </c>
+      <c r="N111" t="s">
+        <v>2581</v>
+      </c>
+      <c r="O111" t="s">
+        <v>2582</v>
+      </c>
+      <c r="P111" t="s">
+        <v>2583</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>2584</v>
+      </c>
+      <c r="R111" t="s">
+        <v>2585</v>
+      </c>
+      <c r="S111" t="s">
+        <v>2586</v>
+      </c>
+      <c r="T111" t="s">
+        <v>2587</v>
+      </c>
+      <c r="U111" t="s">
+        <v>2588</v>
+      </c>
+      <c r="V111" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2592</v>
+      </c>
+      <c r="G112" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I112" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J112" t="s">
+        <v>2596</v>
+      </c>
+      <c r="K112" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L112" t="s">
+        <v>2598</v>
+      </c>
+      <c r="M112" t="s">
+        <v>2599</v>
+      </c>
+      <c r="N112" t="s">
+        <v>2600</v>
+      </c>
+      <c r="O112" t="s">
+        <v>2601</v>
+      </c>
+      <c r="P112" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>2603</v>
+      </c>
+      <c r="R112" t="s">
+        <v>2604</v>
+      </c>
+      <c r="S112" t="s">
+        <v>2605</v>
+      </c>
+      <c r="T112" t="s">
+        <v>2606</v>
+      </c>
+      <c r="U112" t="s">
+        <v>2607</v>
+      </c>
+      <c r="V112" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H113" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2617</v>
+      </c>
+      <c r="J113" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K113" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L113" t="s">
+        <v>2620</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2621</v>
+      </c>
+      <c r="N113" t="s">
+        <v>2622</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2623</v>
+      </c>
+      <c r="P113" t="s">
+        <v>2624</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>2625</v>
+      </c>
+      <c r="R113" t="s">
+        <v>2626</v>
+      </c>
+      <c r="S113" t="s">
+        <v>2627</v>
+      </c>
+      <c r="T113" t="s">
+        <v>2628</v>
+      </c>
+      <c r="U113" t="s">
+        <v>2629</v>
+      </c>
+      <c r="V113" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F114" t="s">
+        <v>2636</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2637</v>
+      </c>
+      <c r="H114" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I114" t="s">
+        <v>2639</v>
+      </c>
+      <c r="J114" t="s">
+        <v>2640</v>
+      </c>
+      <c r="K114" t="s">
+        <v>2641</v>
+      </c>
+      <c r="L114" t="s">
+        <v>2642</v>
+      </c>
+      <c r="M114" t="s">
+        <v>2643</v>
+      </c>
+      <c r="N114" t="s">
+        <v>2644</v>
+      </c>
+      <c r="O114" t="s">
+        <v>2645</v>
+      </c>
+      <c r="P114" t="s">
+        <v>2646</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>2647</v>
+      </c>
+      <c r="R114" t="s">
+        <v>2648</v>
+      </c>
+      <c r="S114" t="s">
+        <v>2649</v>
+      </c>
+      <c r="T114" t="s">
+        <v>2650</v>
+      </c>
+      <c r="U114" t="s">
+        <v>2651</v>
+      </c>
+      <c r="V114" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F115" t="s">
+        <v>2658</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2659</v>
+      </c>
+      <c r="H115" t="s">
+        <v>2660</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2661</v>
+      </c>
+      <c r="J115" t="s">
+        <v>2662</v>
+      </c>
+      <c r="K115" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L115" t="s">
+        <v>2664</v>
+      </c>
+      <c r="M115" t="s">
+        <v>2665</v>
+      </c>
+      <c r="N115" t="s">
+        <v>2666</v>
+      </c>
+      <c r="O115" t="s">
+        <v>2667</v>
+      </c>
+      <c r="P115" t="s">
+        <v>2668</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>2669</v>
+      </c>
+      <c r="R115" t="s">
+        <v>2670</v>
+      </c>
+      <c r="S115" t="s">
+        <v>2671</v>
+      </c>
+      <c r="T115" t="s">
+        <v>2672</v>
+      </c>
+      <c r="U115" t="s">
+        <v>2673</v>
+      </c>
+      <c r="V115" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F116" t="s">
+        <v>2680</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2681</v>
+      </c>
+      <c r="H116" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J116" t="s">
+        <v>2684</v>
+      </c>
+      <c r="K116" t="s">
+        <v>2685</v>
+      </c>
+      <c r="L116" t="s">
+        <v>2686</v>
+      </c>
+      <c r="M116" t="s">
+        <v>2687</v>
+      </c>
+      <c r="N116" t="s">
+        <v>2688</v>
+      </c>
+      <c r="O116" t="s">
+        <v>2689</v>
+      </c>
+      <c r="P116" t="s">
+        <v>2690</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>2691</v>
+      </c>
+      <c r="R116" t="s">
+        <v>2692</v>
+      </c>
+      <c r="S116" t="s">
+        <v>2693</v>
+      </c>
+      <c r="T116" t="s">
+        <v>2694</v>
+      </c>
+      <c r="U116" t="s">
+        <v>2695</v>
+      </c>
+      <c r="V116" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2702</v>
+      </c>
+      <c r="H117" t="s">
+        <v>2703</v>
+      </c>
+      <c r="I117" t="s">
+        <v>2704</v>
+      </c>
+      <c r="J117" t="s">
+        <v>2705</v>
+      </c>
+      <c r="K117" t="s">
+        <v>2706</v>
+      </c>
+      <c r="L117" t="s">
+        <v>2707</v>
+      </c>
+      <c r="M117" t="s">
+        <v>2708</v>
+      </c>
+      <c r="N117" t="s">
+        <v>2709</v>
+      </c>
+      <c r="O117" t="s">
+        <v>2710</v>
+      </c>
+      <c r="P117" t="s">
+        <v>2711</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>2712</v>
+      </c>
+      <c r="R117" t="s">
+        <v>2713</v>
+      </c>
+      <c r="S117" t="s">
+        <v>2714</v>
+      </c>
+      <c r="T117" t="s">
+        <v>2715</v>
+      </c>
+      <c r="U117" t="s">
+        <v>2716</v>
+      </c>
+      <c r="V117" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2724</v>
+      </c>
+      <c r="H118" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2726</v>
+      </c>
+      <c r="J118" t="s">
+        <v>2727</v>
+      </c>
+      <c r="K118" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L118" t="s">
+        <v>2729</v>
+      </c>
+      <c r="M118" t="s">
+        <v>2730</v>
+      </c>
+      <c r="N118" t="s">
+        <v>2731</v>
+      </c>
+      <c r="O118" t="s">
+        <v>2732</v>
+      </c>
+      <c r="P118" t="s">
+        <v>2733</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>2734</v>
+      </c>
+      <c r="R118" t="s">
+        <v>2735</v>
+      </c>
+      <c r="S118" t="s">
+        <v>2736</v>
+      </c>
+      <c r="T118" t="s">
+        <v>2737</v>
+      </c>
+      <c r="U118" t="s">
+        <v>2738</v>
+      </c>
+      <c r="V118" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2744</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2745</v>
+      </c>
+      <c r="H119" t="s">
+        <v>2746</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2747</v>
+      </c>
+      <c r="J119" t="s">
+        <v>2748</v>
+      </c>
+      <c r="K119" t="s">
+        <v>2749</v>
+      </c>
+      <c r="L119" t="s">
+        <v>2750</v>
+      </c>
+      <c r="M119" t="s">
+        <v>2751</v>
+      </c>
+      <c r="N119" t="s">
+        <v>2752</v>
+      </c>
+      <c r="O119" t="s">
+        <v>2753</v>
+      </c>
+      <c r="P119" t="s">
+        <v>2754</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>2755</v>
+      </c>
+      <c r="R119" t="s">
+        <v>2756</v>
+      </c>
+      <c r="S119" t="s">
+        <v>2757</v>
+      </c>
+      <c r="T119" t="s">
+        <v>2758</v>
+      </c>
+      <c r="U119" t="s">
+        <v>2759</v>
+      </c>
+      <c r="V119" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F120" t="s">
+        <v>2764</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2765</v>
+      </c>
+      <c r="H120" t="s">
+        <v>2766</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2767</v>
+      </c>
+      <c r="J120" t="s">
+        <v>2768</v>
+      </c>
+      <c r="K120" t="s">
+        <v>2769</v>
+      </c>
+      <c r="L120" t="s">
+        <v>2770</v>
+      </c>
+      <c r="M120" t="s">
+        <v>2771</v>
+      </c>
+      <c r="N120" t="s">
+        <v>2772</v>
+      </c>
+      <c r="O120" t="s">
+        <v>2773</v>
+      </c>
+      <c r="P120" t="s">
+        <v>2774</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>2775</v>
+      </c>
+      <c r="R120" t="s">
+        <v>2776</v>
+      </c>
+      <c r="S120" t="s">
+        <v>2777</v>
+      </c>
+      <c r="T120" t="s">
+        <v>2778</v>
+      </c>
+      <c r="U120" t="s">
+        <v>2779</v>
+      </c>
+      <c r="V120" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F121" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2787</v>
+      </c>
+      <c r="H121" t="s">
+        <v>2788</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2789</v>
+      </c>
+      <c r="J121" t="s">
+        <v>2790</v>
+      </c>
+      <c r="K121" t="s">
+        <v>2791</v>
+      </c>
+      <c r="L121" t="s">
+        <v>2792</v>
+      </c>
+      <c r="M121" t="s">
+        <v>2793</v>
+      </c>
+      <c r="N121" t="s">
+        <v>2794</v>
+      </c>
+      <c r="O121" t="s">
+        <v>2795</v>
+      </c>
+      <c r="P121" t="s">
+        <v>2796</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>2797</v>
+      </c>
+      <c r="R121" t="s">
+        <v>2798</v>
+      </c>
+      <c r="S121" t="s">
+        <v>2799</v>
+      </c>
+      <c r="T121" t="s">
+        <v>2800</v>
+      </c>
+      <c r="U121" t="s">
+        <v>2801</v>
+      </c>
+      <c r="V121" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2808</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2809</v>
+      </c>
+      <c r="H122" t="s">
+        <v>2810</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2811</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2812</v>
+      </c>
+      <c r="K122" t="s">
+        <v>2813</v>
+      </c>
+      <c r="L122" t="s">
+        <v>2814</v>
+      </c>
+      <c r="M122" t="s">
+        <v>2815</v>
+      </c>
+      <c r="N122" t="s">
+        <v>2816</v>
+      </c>
+      <c r="O122" t="s">
+        <v>2817</v>
+      </c>
+      <c r="P122" t="s">
+        <v>2818</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>2819</v>
+      </c>
+      <c r="R122" t="s">
+        <v>2820</v>
+      </c>
+      <c r="S122" t="s">
+        <v>2821</v>
+      </c>
+      <c r="T122" t="s">
+        <v>2822</v>
+      </c>
+      <c r="U122" t="s">
+        <v>2823</v>
+      </c>
+      <c r="V122" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2829</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2830</v>
+      </c>
+      <c r="H123" t="s">
+        <v>2831</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2832</v>
+      </c>
+      <c r="J123" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K123" t="s">
+        <v>2834</v>
+      </c>
+      <c r="L123" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M123" t="s">
+        <v>2836</v>
+      </c>
+      <c r="N123" t="s">
+        <v>2837</v>
+      </c>
+      <c r="O123" t="s">
+        <v>2838</v>
+      </c>
+      <c r="P123" t="s">
+        <v>2839</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>2840</v>
+      </c>
+      <c r="R123" t="s">
+        <v>2841</v>
+      </c>
+      <c r="S123" t="s">
+        <v>2842</v>
+      </c>
+      <c r="T123" t="s">
+        <v>2843</v>
+      </c>
+      <c r="U123" t="s">
+        <v>2844</v>
+      </c>
+      <c r="V123" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H124" t="s">
+        <v>2853</v>
+      </c>
+      <c r="I124" t="s">
+        <v>2854</v>
+      </c>
+      <c r="J124" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K124" t="s">
+        <v>2856</v>
+      </c>
+      <c r="L124" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M124" t="s">
+        <v>2858</v>
+      </c>
+      <c r="N124" t="s">
+        <v>2859</v>
+      </c>
+      <c r="O124" t="s">
+        <v>2860</v>
+      </c>
+      <c r="P124" t="s">
+        <v>2861</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>2862</v>
+      </c>
+      <c r="R124" t="s">
+        <v>2863</v>
+      </c>
+      <c r="S124" t="s">
+        <v>2864</v>
+      </c>
+      <c r="T124" t="s">
+        <v>2865</v>
+      </c>
+      <c r="U124" t="s">
+        <v>2866</v>
+      </c>
+      <c r="V124" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F125" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H125" t="s">
+        <v>2875</v>
+      </c>
+      <c r="I125" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J125" t="s">
+        <v>2877</v>
+      </c>
+      <c r="K125" t="s">
+        <v>2878</v>
+      </c>
+      <c r="L125" t="s">
+        <v>2879</v>
+      </c>
+      <c r="M125" t="s">
+        <v>2880</v>
+      </c>
+      <c r="N125" t="s">
+        <v>2881</v>
+      </c>
+      <c r="O125" t="s">
+        <v>2882</v>
+      </c>
+      <c r="P125" t="s">
+        <v>2883</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>2884</v>
+      </c>
+      <c r="R125" t="s">
+        <v>2885</v>
+      </c>
+      <c r="S125" t="s">
+        <v>2886</v>
+      </c>
+      <c r="T125" t="s">
+        <v>2887</v>
+      </c>
+      <c r="U125" t="s">
+        <v>2888</v>
+      </c>
+      <c r="V125" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2895</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F126" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2898</v>
+      </c>
+      <c r="H126" t="s">
+        <v>2899</v>
+      </c>
+      <c r="I126" t="s">
+        <v>2900</v>
+      </c>
+      <c r="J126" t="s">
+        <v>2901</v>
+      </c>
+      <c r="K126" t="s">
+        <v>2902</v>
+      </c>
+      <c r="L126" t="s">
+        <v>2903</v>
+      </c>
+      <c r="M126" t="s">
+        <v>2904</v>
+      </c>
+      <c r="N126" t="s">
+        <v>2905</v>
+      </c>
+      <c r="O126" t="s">
+        <v>2906</v>
+      </c>
+      <c r="P126" t="s">
+        <v>2907</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>2908</v>
+      </c>
+      <c r="R126" t="s">
+        <v>2909</v>
+      </c>
+      <c r="S126" t="s">
+        <v>2910</v>
+      </c>
+      <c r="T126" t="s">
+        <v>2911</v>
+      </c>
+      <c r="U126" t="s">
+        <v>2912</v>
+      </c>
+      <c r="V126" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2916</v>
+      </c>
+      <c r="F127" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G127" t="s">
+        <v>2918</v>
+      </c>
+      <c r="H127" t="s">
+        <v>2919</v>
+      </c>
+      <c r="I127" t="s">
+        <v>2920</v>
+      </c>
+      <c r="J127" t="s">
+        <v>2921</v>
+      </c>
+      <c r="K127" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L127" t="s">
+        <v>2923</v>
+      </c>
+      <c r="M127" t="s">
+        <v>2924</v>
+      </c>
+      <c r="N127" t="s">
+        <v>2925</v>
+      </c>
+      <c r="O127" t="s">
+        <v>2926</v>
+      </c>
+      <c r="P127" t="s">
+        <v>2927</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>2928</v>
+      </c>
+      <c r="R127" t="s">
+        <v>2929</v>
+      </c>
+      <c r="S127" t="s">
+        <v>2930</v>
+      </c>
+      <c r="T127" t="s">
+        <v>2931</v>
+      </c>
+      <c r="U127" t="s">
+        <v>2932</v>
+      </c>
+      <c r="V127" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F128" t="s">
+        <v>2939</v>
+      </c>
+      <c r="G128" t="s">
+        <v>2940</v>
+      </c>
+      <c r="H128" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I128" t="s">
+        <v>2942</v>
+      </c>
+      <c r="J128" t="s">
+        <v>2943</v>
+      </c>
+      <c r="K128" t="s">
+        <v>2944</v>
+      </c>
+      <c r="L128" t="s">
+        <v>2945</v>
+      </c>
+      <c r="M128" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N128" t="s">
+        <v>2947</v>
+      </c>
+      <c r="O128" t="s">
+        <v>2948</v>
+      </c>
+      <c r="P128" t="s">
+        <v>2949</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>2950</v>
+      </c>
+      <c r="R128" t="s">
+        <v>2951</v>
+      </c>
+      <c r="S128" t="s">
+        <v>2952</v>
+      </c>
+      <c r="T128" t="s">
+        <v>2953</v>
+      </c>
+      <c r="U128" t="s">
+        <v>2954</v>
+      </c>
+      <c r="V128" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F129" t="s">
+        <v>2961</v>
+      </c>
+      <c r="G129" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H129" t="s">
+        <v>2963</v>
+      </c>
+      <c r="I129" t="s">
+        <v>2964</v>
+      </c>
+      <c r="J129" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K129" t="s">
+        <v>2966</v>
+      </c>
+      <c r="L129" t="s">
+        <v>2967</v>
+      </c>
+      <c r="M129" t="s">
+        <v>2968</v>
+      </c>
+      <c r="N129" t="s">
+        <v>2969</v>
+      </c>
+      <c r="O129" t="s">
+        <v>2970</v>
+      </c>
+      <c r="P129" t="s">
+        <v>2971</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>2972</v>
+      </c>
+      <c r="R129" t="s">
+        <v>2973</v>
+      </c>
+      <c r="S129" t="s">
+        <v>2974</v>
+      </c>
+      <c r="T129" t="s">
+        <v>2975</v>
+      </c>
+      <c r="U129" t="s">
+        <v>2976</v>
+      </c>
+      <c r="V129" t="s">
+        <v>2977</v>
+      </c>
+      <c r="W129" t="s">
+        <v>2978</v>
+      </c>
+      <c r="X129" t="s">
+        <v>2979</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>2980</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>2981</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F130" t="s">
+        <v>2988</v>
+      </c>
+      <c r="G130" t="s">
+        <v>2989</v>
+      </c>
+      <c r="H130" t="s">
+        <v>2990</v>
+      </c>
+      <c r="I130" t="s">
+        <v>2991</v>
+      </c>
+      <c r="J130" t="s">
+        <v>2992</v>
+      </c>
+      <c r="K130" t="s">
+        <v>2993</v>
+      </c>
+      <c r="L130" t="s">
+        <v>2994</v>
+      </c>
+      <c r="M130" t="s">
+        <v>2995</v>
+      </c>
+      <c r="N130" t="s">
+        <v>2996</v>
+      </c>
+      <c r="O130" t="s">
+        <v>2997</v>
+      </c>
+      <c r="P130" t="s">
+        <v>2998</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>2999</v>
+      </c>
+      <c r="R130" t="s">
+        <v>3000</v>
+      </c>
+      <c r="S130" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E131" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F131" t="s">
+        <v>3007</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3008</v>
+      </c>
+      <c r="H131" t="s">
+        <v>3009</v>
+      </c>
+      <c r="I131" t="s">
+        <v>3010</v>
+      </c>
+      <c r="J131" t="s">
+        <v>3011</v>
+      </c>
+      <c r="K131" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L131" t="s">
+        <v>3013</v>
+      </c>
+      <c r="M131" t="s">
+        <v>3014</v>
+      </c>
+      <c r="N131" t="s">
+        <v>3015</v>
+      </c>
+      <c r="O131" t="s">
+        <v>1995</v>
+      </c>
+      <c r="P131" t="s">
+        <v>3016</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>3017</v>
+      </c>
+      <c r="R131" t="s">
+        <v>3018</v>
+      </c>
+      <c r="S131" t="s">
+        <v>3019</v>
+      </c>
+      <c r="T131" t="s">
+        <v>3020</v>
+      </c>
+      <c r="U131" t="s">
+        <v>3021</v>
+      </c>
+      <c r="V131" t="s">
+        <v>3022</v>
+      </c>
+      <c r="W131" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3029</v>
+      </c>
+      <c r="G132" t="s">
+        <v>3030</v>
+      </c>
+      <c r="H132" t="s">
+        <v>3031</v>
+      </c>
+      <c r="I132" t="s">
+        <v>3032</v>
+      </c>
+      <c r="J132" t="s">
+        <v>3033</v>
+      </c>
+      <c r="K132" t="s">
+        <v>3034</v>
+      </c>
+      <c r="L132" t="s">
+        <v>3035</v>
+      </c>
+      <c r="M132" t="s">
+        <v>3036</v>
+      </c>
+      <c r="N132" t="s">
+        <v>3037</v>
+      </c>
+      <c r="O132" t="s">
+        <v>3038</v>
+      </c>
+      <c r="P132" t="s">
+        <v>3039</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>3040</v>
+      </c>
+      <c r="R132" t="s">
+        <v>3041</v>
+      </c>
+      <c r="S132" t="s">
+        <v>3042</v>
+      </c>
+      <c r="T132" t="s">
+        <v>3043</v>
+      </c>
+      <c r="U132" t="s">
+        <v>3044</v>
+      </c>
+      <c r="V132" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3050</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3052</v>
+      </c>
+      <c r="H133" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I133" t="s">
+        <v>3054</v>
+      </c>
+      <c r="J133" t="s">
+        <v>3055</v>
+      </c>
+      <c r="K133" t="s">
+        <v>3056</v>
+      </c>
+      <c r="L133" t="s">
+        <v>3057</v>
+      </c>
+      <c r="M133" t="s">
+        <v>3058</v>
+      </c>
+      <c r="N133" t="s">
+        <v>3059</v>
+      </c>
+      <c r="O133" t="s">
+        <v>3060</v>
+      </c>
+      <c r="P133" t="s">
+        <v>3061</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>3062</v>
+      </c>
+      <c r="R133" t="s">
+        <v>3063</v>
+      </c>
+      <c r="S133" t="s">
+        <v>3064</v>
+      </c>
+      <c r="T133" t="s">
+        <v>3065</v>
+      </c>
+      <c r="U133" t="s">
+        <v>3066</v>
+      </c>
+      <c r="V133" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E134" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F134" t="s">
+        <v>3073</v>
+      </c>
+      <c r="G134" t="s">
+        <v>3074</v>
+      </c>
+      <c r="H134" t="s">
+        <v>3075</v>
+      </c>
+      <c r="I134" t="s">
+        <v>3076</v>
+      </c>
+      <c r="J134" t="s">
+        <v>3077</v>
+      </c>
+      <c r="K134" t="s">
+        <v>3078</v>
+      </c>
+      <c r="L134" t="s">
+        <v>3079</v>
+      </c>
+      <c r="M134" t="s">
+        <v>3080</v>
+      </c>
+      <c r="N134" t="s">
+        <v>3081</v>
+      </c>
+      <c r="O134" t="s">
+        <v>3082</v>
+      </c>
+      <c r="P134" t="s">
+        <v>3083</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>3084</v>
+      </c>
+      <c r="R134" t="s">
+        <v>3085</v>
+      </c>
+      <c r="S134" t="s">
+        <v>3086</v>
+      </c>
+      <c r="T134" t="s">
+        <v>3087</v>
+      </c>
+      <c r="U134" t="s">
+        <v>3088</v>
+      </c>
+      <c r="V134" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E135" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G135" t="s">
+        <v>3096</v>
+      </c>
+      <c r="H135" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I135" t="s">
+        <v>3098</v>
+      </c>
+      <c r="J135" t="s">
+        <v>3099</v>
+      </c>
+      <c r="K135" t="s">
+        <v>3100</v>
+      </c>
+      <c r="L135" t="s">
+        <v>3101</v>
+      </c>
+      <c r="M135" t="s">
+        <v>3102</v>
+      </c>
+      <c r="N135" t="s">
+        <v>3103</v>
+      </c>
+      <c r="O135" t="s">
+        <v>3104</v>
+      </c>
+      <c r="P135" t="s">
+        <v>3105</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>3106</v>
+      </c>
+      <c r="R135" t="s">
+        <v>3107</v>
+      </c>
+      <c r="S135" t="s">
+        <v>3108</v>
+      </c>
+      <c r="T135" t="s">
+        <v>3109</v>
+      </c>
+      <c r="U135" t="s">
+        <v>3110</v>
+      </c>
+      <c r="V135" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E136" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G136" t="s">
+        <v>3118</v>
+      </c>
+      <c r="H136" t="s">
+        <v>3119</v>
+      </c>
+      <c r="I136" t="s">
+        <v>3120</v>
+      </c>
+      <c r="J136" t="s">
+        <v>3121</v>
+      </c>
+      <c r="K136" t="s">
+        <v>3122</v>
+      </c>
+      <c r="L136" t="s">
+        <v>3123</v>
+      </c>
+      <c r="M136" t="s">
+        <v>3124</v>
+      </c>
+      <c r="N136" t="s">
+        <v>3125</v>
+      </c>
+      <c r="O136" t="s">
+        <v>3126</v>
+      </c>
+      <c r="P136" t="s">
+        <v>3127</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>3128</v>
+      </c>
+      <c r="R136" t="s">
+        <v>3129</v>
+      </c>
+      <c r="S136" t="s">
+        <v>3130</v>
+      </c>
+      <c r="T136" t="s">
+        <v>3131</v>
+      </c>
+      <c r="U136" t="s">
+        <v>3132</v>
+      </c>
+      <c r="V136" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F137" t="s">
+        <v>3139</v>
+      </c>
+      <c r="G137" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H137" t="s">
+        <v>3141</v>
+      </c>
+      <c r="I137" t="s">
+        <v>3142</v>
+      </c>
+      <c r="J137" t="s">
+        <v>3143</v>
+      </c>
+      <c r="K137" t="s">
+        <v>3144</v>
+      </c>
+      <c r="L137" t="s">
+        <v>3145</v>
+      </c>
+      <c r="M137" t="s">
+        <v>3146</v>
+      </c>
+      <c r="N137" t="s">
+        <v>3147</v>
+      </c>
+      <c r="O137" t="s">
+        <v>3148</v>
+      </c>
+      <c r="P137" t="s">
+        <v>3149</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>3150</v>
+      </c>
+      <c r="R137" t="s">
+        <v>3151</v>
+      </c>
+      <c r="S137" t="s">
+        <v>3152</v>
+      </c>
+      <c r="T137" t="s">
+        <v>3153</v>
+      </c>
+      <c r="U137" t="s">
+        <v>3154</v>
+      </c>
+      <c r="V137" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E138" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G138" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H138" t="s">
+        <v>3163</v>
+      </c>
+      <c r="I138" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J138" t="s">
+        <v>3165</v>
+      </c>
+      <c r="K138" t="s">
+        <v>3166</v>
+      </c>
+      <c r="L138" t="s">
+        <v>3167</v>
+      </c>
+      <c r="M138" t="s">
+        <v>3168</v>
+      </c>
+      <c r="N138" t="s">
+        <v>3169</v>
+      </c>
+      <c r="O138" t="s">
+        <v>3170</v>
+      </c>
+      <c r="P138" t="s">
+        <v>3171</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>3172</v>
+      </c>
+      <c r="R138" t="s">
+        <v>3173</v>
+      </c>
+      <c r="S138" t="s">
+        <v>3174</v>
+      </c>
+      <c r="T138" t="s">
+        <v>3175</v>
+      </c>
+      <c r="U138" t="s">
+        <v>3176</v>
+      </c>
+      <c r="V138" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E139" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F139" t="s">
+        <v>3183</v>
+      </c>
+      <c r="G139" t="s">
+        <v>3184</v>
+      </c>
+      <c r="H139" t="s">
+        <v>3185</v>
+      </c>
+      <c r="I139" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J139" t="s">
+        <v>3187</v>
+      </c>
+      <c r="K139" t="s">
+        <v>3188</v>
+      </c>
+      <c r="L139" t="s">
+        <v>3189</v>
+      </c>
+      <c r="M139" t="s">
+        <v>3190</v>
+      </c>
+      <c r="N139" t="s">
+        <v>3191</v>
+      </c>
+      <c r="O139" t="s">
+        <v>3192</v>
+      </c>
+      <c r="P139" t="s">
+        <v>3193</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>3194</v>
+      </c>
+      <c r="R139" t="s">
+        <v>3195</v>
+      </c>
+      <c r="S139" t="s">
+        <v>3196</v>
+      </c>
+      <c r="T139" t="s">
+        <v>3197</v>
+      </c>
+      <c r="U139" t="s">
+        <v>3198</v>
+      </c>
+      <c r="V139" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E140" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F140" t="s">
+        <v>3205</v>
+      </c>
+      <c r="G140" t="s">
+        <v>3206</v>
+      </c>
+      <c r="H140" t="s">
+        <v>3207</v>
+      </c>
+      <c r="I140" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J140" t="s">
+        <v>3209</v>
+      </c>
+      <c r="K140" t="s">
+        <v>3210</v>
+      </c>
+      <c r="L140" t="s">
+        <v>3211</v>
+      </c>
+      <c r="M140" t="s">
+        <v>3212</v>
+      </c>
+      <c r="N140" t="s">
+        <v>3213</v>
+      </c>
+      <c r="O140" t="s">
+        <v>3214</v>
+      </c>
+      <c r="P140" t="s">
+        <v>3215</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>3216</v>
+      </c>
+      <c r="R140" t="s">
+        <v>3217</v>
+      </c>
+      <c r="S140" t="s">
+        <v>3218</v>
+      </c>
+      <c r="T140" t="s">
+        <v>3219</v>
+      </c>
+      <c r="U140" t="s">
+        <v>3220</v>
+      </c>
+      <c r="V140" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E141" t="s">
+        <v>3226</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G141" t="s">
+        <v>3228</v>
+      </c>
+      <c r="H141" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I141" t="s">
+        <v>3230</v>
+      </c>
+      <c r="J141" t="s">
+        <v>3231</v>
+      </c>
+      <c r="K141" t="s">
+        <v>3232</v>
+      </c>
+      <c r="L141" t="s">
+        <v>3233</v>
+      </c>
+      <c r="M141" t="s">
+        <v>3234</v>
+      </c>
+      <c r="N141" t="s">
+        <v>3235</v>
+      </c>
+      <c r="O141" t="s">
+        <v>3236</v>
+      </c>
+      <c r="P141" t="s">
+        <v>3237</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>3238</v>
+      </c>
+      <c r="R141" t="s">
+        <v>3239</v>
+      </c>
+      <c r="S141" t="s">
+        <v>3240</v>
+      </c>
+      <c r="T141" t="s">
+        <v>3241</v>
+      </c>
+      <c r="U141" t="s">
+        <v>3242</v>
+      </c>
+      <c r="V141" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F142" t="s">
+        <v>3249</v>
+      </c>
+      <c r="G142" t="s">
+        <v>3250</v>
+      </c>
+      <c r="H142" t="s">
+        <v>3251</v>
+      </c>
+      <c r="I142" t="s">
+        <v>3252</v>
+      </c>
+      <c r="J142" t="s">
+        <v>3253</v>
+      </c>
+      <c r="K142" t="s">
+        <v>3254</v>
+      </c>
+      <c r="L142" t="s">
+        <v>3255</v>
+      </c>
+      <c r="M142" t="s">
+        <v>3256</v>
+      </c>
+      <c r="N142" t="s">
+        <v>3257</v>
+      </c>
+      <c r="O142" t="s">
+        <v>3258</v>
+      </c>
+      <c r="P142" t="s">
+        <v>3259</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>3260</v>
+      </c>
+      <c r="R142" t="s">
+        <v>3261</v>
+      </c>
+      <c r="S142" t="s">
+        <v>3262</v>
+      </c>
+      <c r="T142" t="s">
+        <v>3263</v>
+      </c>
+      <c r="U142" t="s">
+        <v>3264</v>
+      </c>
+      <c r="V142" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E143" t="s">
+        <v>3268</v>
+      </c>
+      <c r="F143" t="s">
+        <v>3269</v>
+      </c>
+      <c r="G143" t="s">
+        <v>3270</v>
+      </c>
+      <c r="H143" t="s">
+        <v>3271</v>
+      </c>
+      <c r="I143" t="s">
+        <v>3272</v>
+      </c>
+      <c r="J143" t="s">
+        <v>3273</v>
+      </c>
+      <c r="K143" t="s">
+        <v>3274</v>
+      </c>
+      <c r="L143" t="s">
+        <v>3275</v>
+      </c>
+      <c r="M143" t="s">
+        <v>3276</v>
+      </c>
+      <c r="N143" t="s">
+        <v>3277</v>
+      </c>
+      <c r="O143" t="s">
+        <v>3278</v>
+      </c>
+      <c r="P143" t="s">
+        <v>3279</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>3280</v>
+      </c>
+      <c r="R143" t="s">
+        <v>3281</v>
+      </c>
+      <c r="S143" t="s">
+        <v>3282</v>
+      </c>
+      <c r="T143" t="s">
+        <v>3283</v>
+      </c>
+      <c r="U143" t="s">
+        <v>3284</v>
+      </c>
+      <c r="V143" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E144" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3292</v>
+      </c>
+      <c r="G144" t="s">
+        <v>3293</v>
+      </c>
+      <c r="H144" t="s">
+        <v>3294</v>
+      </c>
+      <c r="I144" t="s">
+        <v>3295</v>
+      </c>
+      <c r="J144" t="s">
+        <v>3296</v>
+      </c>
+      <c r="K144" t="s">
+        <v>3297</v>
+      </c>
+      <c r="L144" t="s">
+        <v>3298</v>
+      </c>
+      <c r="M144" t="s">
+        <v>3299</v>
+      </c>
+      <c r="N144" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O144" t="s">
+        <v>3301</v>
+      </c>
+      <c r="P144" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>3303</v>
+      </c>
+      <c r="R144" t="s">
+        <v>3304</v>
+      </c>
+      <c r="S144" t="s">
+        <v>3305</v>
+      </c>
+      <c r="T144" t="s">
+        <v>3306</v>
+      </c>
+      <c r="U144" t="s">
+        <v>3307</v>
+      </c>
+      <c r="V144" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E145" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F145" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G145" t="s">
+        <v>3315</v>
+      </c>
+      <c r="H145" t="s">
+        <v>3316</v>
+      </c>
+      <c r="I145" t="s">
+        <v>3317</v>
+      </c>
+      <c r="J145" t="s">
+        <v>3318</v>
+      </c>
+      <c r="K145" t="s">
+        <v>3319</v>
+      </c>
+      <c r="L145" t="s">
+        <v>3320</v>
+      </c>
+      <c r="M145" t="s">
+        <v>3321</v>
+      </c>
+      <c r="N145" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O145" t="s">
+        <v>3323</v>
+      </c>
+      <c r="P145" t="s">
+        <v>3324</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>3325</v>
+      </c>
+      <c r="R145" t="s">
+        <v>3326</v>
+      </c>
+      <c r="S145" t="s">
+        <v>3327</v>
+      </c>
+      <c r="T145" t="s">
+        <v>3328</v>
+      </c>
+      <c r="U145" t="s">
+        <v>3329</v>
+      </c>
+      <c r="V145" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E146" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F146" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G146" t="s">
+        <v>3337</v>
+      </c>
+      <c r="H146" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I146" t="s">
+        <v>3339</v>
+      </c>
+      <c r="J146" t="s">
+        <v>3340</v>
+      </c>
+      <c r="K146" t="s">
+        <v>3341</v>
+      </c>
+      <c r="L146" t="s">
+        <v>3342</v>
+      </c>
+      <c r="M146" t="s">
+        <v>3343</v>
+      </c>
+      <c r="N146" t="s">
+        <v>3344</v>
+      </c>
+      <c r="O146" t="s">
+        <v>3345</v>
+      </c>
+      <c r="P146" t="s">
+        <v>3346</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>3347</v>
+      </c>
+      <c r="R146" t="s">
+        <v>3348</v>
+      </c>
+      <c r="S146" t="s">
+        <v>3349</v>
+      </c>
+      <c r="T146" t="s">
+        <v>3350</v>
+      </c>
+      <c r="U146" t="s">
+        <v>3351</v>
+      </c>
+      <c r="V146" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E147" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F147" t="s">
+        <v>3358</v>
+      </c>
+      <c r="G147" t="s">
+        <v>3359</v>
+      </c>
+      <c r="H147" t="s">
+        <v>3360</v>
+      </c>
+      <c r="I147" t="s">
+        <v>3361</v>
+      </c>
+      <c r="J147" t="s">
+        <v>3362</v>
+      </c>
+      <c r="K147" t="s">
+        <v>3363</v>
+      </c>
+      <c r="L147" t="s">
+        <v>3364</v>
+      </c>
+      <c r="M147" t="s">
+        <v>3365</v>
+      </c>
+      <c r="N147" t="s">
+        <v>3366</v>
+      </c>
+      <c r="O147" t="s">
+        <v>3367</v>
+      </c>
+      <c r="P147" t="s">
+        <v>3368</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>3369</v>
+      </c>
+      <c r="R147" t="s">
+        <v>3370</v>
+      </c>
+      <c r="S147" t="s">
+        <v>3371</v>
+      </c>
+      <c r="T147" t="s">
+        <v>3372</v>
+      </c>
+      <c r="U147" t="s">
+        <v>3373</v>
+      </c>
+      <c r="V147" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E148" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F148" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G148" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H148" t="s">
+        <v>3382</v>
+      </c>
+      <c r="I148" t="s">
+        <v>3383</v>
+      </c>
+      <c r="J148" t="s">
+        <v>3384</v>
+      </c>
+      <c r="K148" t="s">
+        <v>3385</v>
+      </c>
+      <c r="L148" t="s">
+        <v>3386</v>
+      </c>
+      <c r="M148" t="s">
+        <v>3387</v>
+      </c>
+      <c r="N148" t="s">
+        <v>3388</v>
+      </c>
+      <c r="O148" t="s">
+        <v>3389</v>
+      </c>
+      <c r="P148" t="s">
+        <v>3390</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>3391</v>
+      </c>
+      <c r="R148" t="s">
+        <v>3392</v>
+      </c>
+      <c r="S148" t="s">
+        <v>3393</v>
+      </c>
+      <c r="T148" t="s">
+        <v>3394</v>
+      </c>
+      <c r="U148" t="s">
+        <v>3395</v>
+      </c>
+      <c r="V148" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E149" t="s">
+        <v>3401</v>
+      </c>
+      <c r="F149" t="s">
+        <v>3402</v>
+      </c>
+      <c r="G149" t="s">
+        <v>3403</v>
+      </c>
+      <c r="H149" t="s">
+        <v>3404</v>
+      </c>
+      <c r="I149" t="s">
+        <v>3405</v>
+      </c>
+      <c r="J149" t="s">
+        <v>3406</v>
+      </c>
+      <c r="K149" t="s">
+        <v>3407</v>
+      </c>
+      <c r="L149" t="s">
+        <v>3408</v>
+      </c>
+      <c r="M149" t="s">
+        <v>3409</v>
+      </c>
+      <c r="N149" t="s">
+        <v>3410</v>
+      </c>
+      <c r="O149" t="s">
+        <v>3411</v>
+      </c>
+      <c r="P149" t="s">
+        <v>3412</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>3413</v>
+      </c>
+      <c r="R149" t="s">
+        <v>3414</v>
+      </c>
+      <c r="S149" t="s">
+        <v>3415</v>
+      </c>
+      <c r="T149" t="s">
+        <v>3416</v>
+      </c>
+      <c r="U149" t="s">
+        <v>3417</v>
+      </c>
+      <c r="V149" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E150" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F150" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G150" t="s">
+        <v>3425</v>
+      </c>
+      <c r="H150" t="s">
+        <v>3426</v>
+      </c>
+      <c r="I150" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J150" t="s">
+        <v>3428</v>
+      </c>
+      <c r="K150" t="s">
+        <v>3429</v>
+      </c>
+      <c r="L150" t="s">
+        <v>3430</v>
+      </c>
+      <c r="M150" t="s">
+        <v>3431</v>
+      </c>
+      <c r="N150" t="s">
+        <v>3432</v>
+      </c>
+      <c r="O150" t="s">
+        <v>3433</v>
+      </c>
+      <c r="P150" t="s">
+        <v>3434</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>3435</v>
+      </c>
+      <c r="R150" t="s">
+        <v>3436</v>
+      </c>
+      <c r="S150" t="s">
+        <v>3437</v>
+      </c>
+      <c r="T150" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E151" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F151" t="s">
+        <v>3444</v>
+      </c>
+      <c r="G151" t="s">
+        <v>3445</v>
+      </c>
+      <c r="H151" t="s">
+        <v>3446</v>
+      </c>
+      <c r="I151" t="s">
+        <v>3447</v>
+      </c>
+      <c r="J151" t="s">
+        <v>3448</v>
+      </c>
+      <c r="K151" t="s">
+        <v>3449</v>
+      </c>
+      <c r="L151" t="s">
+        <v>3450</v>
+      </c>
+      <c r="M151" t="s">
+        <v>3451</v>
+      </c>
+      <c r="N151" t="s">
+        <v>3452</v>
+      </c>
+      <c r="O151" t="s">
+        <v>3453</v>
+      </c>
+      <c r="P151" t="s">
+        <v>3454</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>3455</v>
+      </c>
+      <c r="R151" t="s">
+        <v>3456</v>
+      </c>
+      <c r="S151" t="s">
+        <v>3457</v>
+      </c>
+      <c r="T151" t="s">
+        <v>3458</v>
+      </c>
+      <c r="U151" t="s">
+        <v>3459</v>
+      </c>
+      <c r="V151" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E152" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F152" t="s">
+        <v>3466</v>
+      </c>
+      <c r="G152" t="s">
+        <v>3467</v>
+      </c>
+      <c r="H152" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I152" t="s">
+        <v>3469</v>
+      </c>
+      <c r="J152" t="s">
+        <v>3470</v>
+      </c>
+      <c r="K152" t="s">
+        <v>3471</v>
+      </c>
+      <c r="L152" t="s">
+        <v>3472</v>
+      </c>
+      <c r="M152" t="s">
+        <v>3473</v>
+      </c>
+      <c r="N152" t="s">
+        <v>3474</v>
+      </c>
+      <c r="O152" t="s">
+        <v>3475</v>
+      </c>
+      <c r="P152" t="s">
+        <v>3476</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>3477</v>
+      </c>
+      <c r="R152" t="s">
+        <v>3478</v>
+      </c>
+      <c r="S152" t="s">
+        <v>3479</v>
+      </c>
+      <c r="T152" t="s">
+        <v>3480</v>
+      </c>
+      <c r="U152" t="s">
+        <v>3481</v>
+      </c>
+      <c r="V152" t="s">
+        <v>3482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JCSC_SOURCE_MATRIX.xlsx
+++ b/JCSC_SOURCE_MATRIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\JCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9BC684-3F5E-42CD-BE1C-5D672C6BD847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D06BD92-D741-4397-BDA1-75D0FE1258C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIX DATA" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4308" uniqueCount="4231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="4515">
   <si>
     <t>Author</t>
   </si>
@@ -13483,6 +13483,858 @@
   </si>
   <si>
     <t>EDSTROM_2023</t>
+  </si>
+  <si>
+    <t>Richard K. Betts</t>
+  </si>
+  <si>
+    <t>Collective security’s logic and limits; arms control’s fit after the Cold War</t>
+  </si>
+  <si>
+    <t>Conceptual analysis with systems-theory framing; historical counter-examples; realist benchmarks (L11–L17, L43–L56)</t>
+  </si>
+  <si>
+    <t>Core claim: enthusiasm confuses cause and effect; collective security either fails when needed or, if honoured, can widen wars (L43–L69)</t>
+  </si>
+  <si>
+    <t>Key ideas: automaticity and universality define true collective security; legalism vs balance; flexibility–power trade-off; alliance “shells”; Concert de-collectivises; areas of “special interest” (L44–L51; L31–L43; L31–L40; L31–L43; L30–L36)</t>
+  </si>
+  <si>
+    <t>Strengths: sharp definitions; clear trade-offs; telling historical vignettes; testable cautions (L44–L51; L31–L40; L55–L67)</t>
+  </si>
+  <si>
+    <t>Weaknesses: realist tilt; thin empirical testing; analogy reliance; dated post–Cold War assumptions (general)</t>
+  </si>
+  <si>
+    <t>Similarities: converges with structural realist scepticism about legalist schemes (L3–L19)</t>
+  </si>
+  <si>
+    <t>Differences: diverges from liberal “limited collective security” proposals and post-national optimism (L69–L73; L12–L20)</t>
+  </si>
+  <si>
+    <t>Notes: “peace will cause peace rather than collective security will cause peace”; “if it works, we may wish it hadn’t” (L57–L63; L59–L69)</t>
+  </si>
+  <si>
+    <t>My conclusion: use Betts to interrogate advocacy texts; demand automaticity or call it balancing; test causal claims</t>
+  </si>
+  <si>
+    <t>Realist academic at Columbia; incentive to puncture idealist orthodoxy; audience is policy and scholarly (L68–L75)</t>
+  </si>
+  <si>
+    <t>Key limitations: no micro-data; Europe since 1992 changed; efficacy claims remain conditional (general)</t>
+  </si>
+  <si>
+    <t>D_Describe: Reframes collective security as an emergency system whose design rarely fits crises; warns of perverse effects (L11–L17; L59–L69).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters for thesis because it exposes rhetorical drift from law-like ideals to interest-based practice (L44–L51).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual critique with systems analogies and historical contrasts; moderate external validity (L11–L17; L59–L67).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Bite: automaticity–universality as falsifier of “collective” claims (L44–L51); Falsifier: show durable automatic, universal compliance without great-power tutelage.</t>
+  </si>
+  <si>
+    <t>D_Author: Realist lens; sceptical of legalism; Really saying: peace follows interests, not slogans (L19–L27; L31–L33).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Morgenthau/Kennan cautions; diverges from Ullman/Kupchan buffers and “areas of interest” (L30–L36; L15–L26).</t>
+  </si>
+  <si>
+    <t>D_Limit: Pre-1992 context; under-reads institutional learning.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF: prioritise flexible coalitions, legal-evidence skills and resilience over slogans.</t>
+  </si>
+  <si>
+    <t>BETTS_1992</t>
+  </si>
+  <si>
+    <t>Jean-Loup Samaan</t>
+  </si>
+  <si>
+    <t>Small-state strategic autonomy; UAE–Singapore comparison; self-reliance vs patronage</t>
+  </si>
+  <si>
+    <t>Comparative analysis of policy, force, and industry; balances “false uniqueness” and “false universalism” (pp.110–111)</t>
+  </si>
+  <si>
+    <t>Autonomy is a constant bargain; both depend on the US; industry can do niches not major platforms; policies diverge yet are fragile under US–China stress (pp.118–119)</t>
+  </si>
+  <si>
+    <t>Key ideas: autonomy defined as independent planning, operations, and capabilities; vulnerability–agency paradox; EDGE and ST Engineering as compromise models; national service trajectories differ (pp.110–114, 116–118)</t>
+  </si>
+  <si>
+    <t>Strengths: clear definition and scope; cross-regional comparison; granular industry examples; explicit boundary conditions (pp.110–114, 118)</t>
+  </si>
+  <si>
+    <t>Weaknesses: reliance on public sources; limited causal testing; uncertain UAE conscription effects (p.116)</t>
+  </si>
+  <si>
+    <t>Similarities: shared constraints; US as external balancer; niche industrial focus (pp.118–119)</t>
+  </si>
+  <si>
+    <t>Differences: Singapore embeds self-reliance early and stays cautious; UAE diversifies and tests limits (pp.118–119)</t>
+  </si>
+  <si>
+    <t>Notes: EDGE absorbs EDIC in 2019; AMMROC JV upgrades; ST Engineering scale and focus; Singapore upgrades over new buys (pp.113–114)</t>
+  </si>
+  <si>
+    <t>My conclusion: use as a small-state typology; test Irish exposure, human capital, industry, patron options before inferring autonomy</t>
+  </si>
+  <si>
+    <t>Academic at NUS; prior roles with NATO and UAE NDC; policy-analytic lens; likely incentive to discipline autonomy rhetoric (p.123)</t>
+  </si>
+  <si>
+    <t>Key Limitations: declaratory sources; industrial self-sufficiency bounded; UAE NS outcome data thin (pp.114, 116)</t>
+  </si>
+  <si>
+    <t>D_Describe: Compares UAE and Singapore; autonomy is a moving bargain, not a status (p.119).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Shows exposure and patron choices shape autonomy; Europe-centric debates under-specify this (pp.110–112).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Documented comparison with industry cases; balances uniqueness vs universalism; moderate validity (pp.110–111).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Bite: autonomy ceiling in industry and alliances; falsifier: sustained major-platform indigenisation without patrons (pp.114, 118–119).</t>
+  </si>
+  <si>
+    <t>D_Author: NUS scholar with Gulf focus; Really saying: tailor self-reliance to size, exposure, patron leeway (p.123).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with realist exposure logic; diverges from post-national optimism on European autonomy (pp.110–112).</t>
+  </si>
+  <si>
+    <t>D_Limit: Public-source bias; unclear UAE NS impact; causality tentative (p.116).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF balances expeditionary interoperability with resilience and evidence-ready logistics for shocks.</t>
+  </si>
+  <si>
+    <t>Rebecca L. Schiff</t>
+  </si>
+  <si>
+    <t>Civil–military relations; concordance theory vs separation</t>
+  </si>
+  <si>
+    <t>Conceptual theory with brief comparative cases (Israel, India); descriptive–prescriptive</t>
+  </si>
+  <si>
+    <t>Agreement among military, political elites and citizenry on four indicators lowers likelihood of domestic military intervention (pp.9–13)</t>
+  </si>
+  <si>
+    <t>Four indicators: officer corps composition; political decision-making; recruitment method; military style; culture central; multiple patterns incl. integration (p.13; pp.16–17)</t>
+  </si>
+  <si>
+    <t>Integrates culture with institutions; predictive frame; challenges US-centric assumptions; two clear cases</t>
+  </si>
+  <si>
+    <t>Light empirical testing; selection bias; limited operationalisation; dated cases</t>
+  </si>
+  <si>
+    <t>Converges with culturalist and sociological takes on civil–military relations</t>
+  </si>
+  <si>
+    <t>Differs from strict separation models; adds citizenry and style as core variables</t>
+  </si>
+  <si>
+    <t>Israel shows “uncivil” mix yet no coups; India’s weakening civil centre still no intervention; style and recruitment matter (pp.19–21)</t>
+  </si>
+  <si>
+    <t>Use concordance as a diagnostic for small states; map Ireland’s four indicators before reform</t>
+  </si>
+  <si>
+    <t>Author critiques dominant US model; early-career incentive to propose alternative; policy–academic audience</t>
+  </si>
+  <si>
+    <t>Two positive cases only; lacks disconfirming cases; measurement thin</t>
+  </si>
+  <si>
+    <t>D_Describe: Concordance on four indicators reduces intervention (pp.9–13).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Recasts control as cultural agreement; omits measurement detail.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis plus case sketches; moderate validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest bite is testable four-indicator claim (p.13); Falsifier: agreement yet coup occurs.</t>
+  </si>
+  <si>
+    <t>D_Author: Critical of separation; policy audience; Really saying: context first, form varies.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with culturalists; diverges from Huntington on strict separation.</t>
+  </si>
+  <si>
+    <t>D_Limit: Thin operationalisation and dated evidence.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should build cross-societal concordance on recruitment, style and decision paths.</t>
+  </si>
+  <si>
+    <t>SCHIFF_1995</t>
+  </si>
+  <si>
+    <t>SAMAAN_2025</t>
+  </si>
+  <si>
+    <t>Concordance theory and targeted partnership in civil–military relations</t>
+  </si>
+  <si>
+    <t>Commentary; retrospective synthesis with policy reflections</t>
+  </si>
+  <si>
+    <t>Concordance frames prevention of domestic military intervention via agreement among partners on four indicators; targeted partnership offers short-term civil–military collaboration (pp. 520–521)</t>
+  </si>
+  <si>
+    <t>Three partners and four indicators; Israeli case; NATO RTG-HFM-226 link; Petraeus JSAT and PRTs as examples; critique of Huntington’s separation model (pp. 520–522)</t>
+  </si>
+  <si>
+    <t>Conceptual clarity; policy traction via NATO and PRT examples; culturally sensitive framing (pp. 520–522)</t>
+  </si>
+  <si>
+    <t>Limited new evidence; polemical tone on academy politics; no systematic counter-testing; case selection risk (pp. 519–522)</t>
+  </si>
+  <si>
+    <t>Aligns with institutional-cultural CMR approaches</t>
+  </si>
+  <si>
+    <t>Diverts from Huntington’s objective control separation doctrine</t>
+  </si>
+  <si>
+    <t>Useful lens for small-state state-building tasks and DF civil–military liaison; treat anti-coup claims cautiously (pp. 520–522)</t>
+  </si>
+  <si>
+    <t>Adopt concordance as a diagnostic and targeted partnership as a pragmatic tool in UN-EU missions; measure agreement against indicators (pp. 520–521)</t>
+  </si>
+  <si>
+    <t>Advocates Israel as validating case; critiques US academic reception; policy-engaged stance (pp. 519–522)</t>
+  </si>
+  <si>
+    <t>Commentary genre; absence of measurable tests; generalisability unproven (pp. 520–522)</t>
+  </si>
+  <si>
+    <t>D_Describe: Concordance prevents domestic intervention if partners agree on four indicators (p. 520).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Relevance lies in culturally grounded anti-coup prediction; omits systematic falsification.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Retrospective commentary drawing on prior cases and NATO practice; moderate validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on four indicators synthesis (p. 520); Falsifier: if coups occur under full indicator concordance.</t>
+  </si>
+  <si>
+    <t>D_Author: Pro-concordance, pro-Israel, policy-practitioner lens; Really saying: culture plus institutions avert coups.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with institutionalists; diverges from Huntington’s strict separation due to Israeli case.</t>
+  </si>
+  <si>
+    <t>D_Limit: No fresh data or cross-case metrics.</t>
+  </si>
+  <si>
+    <t>D_Implication: DF should map partner agreement and build targeted partnerships in peace support.</t>
+  </si>
+  <si>
+    <t>SCHIFF_2025</t>
+  </si>
+  <si>
+    <t>Concordance theory rebuttal to Wells; four indicators and three partners prevent domestic military intervention</t>
+  </si>
+  <si>
+    <t>Conceptual rejoinder using deductive causation; illustrative cases Israel and India (pp. 277–282)</t>
+  </si>
+  <si>
+    <t>Agreement among political elites, military, and citizenry on social composition, decision-making, recruitment, and military style lowers coup risk (pp. 277–278)</t>
+  </si>
+  <si>
+    <t>Four indicators; three partners; culture counts; US can mix institutions without coups; concordance predicts conditions not one model (pp. 277–281)</t>
+  </si>
+  <si>
+    <t>Sharp causal claim; engages critics directly; culturally sensitive; applies to varied cases including US, Israel, India (pp. 277–282)</t>
+  </si>
+  <si>
+    <t>Thin empirical testing; operationalisation light; risks post-hoc reading; business analogies stretch scope (pp. 282–283)</t>
+  </si>
+  <si>
+    <t>Converges with Kohn on low US coup risk and with cultural approaches in civil–military studies (p. 280)</t>
+  </si>
+  <si>
+    <t>Differs from Huntington’s separation thesis; rejects presumption that militaries are innately coercive (pp. 278–281)</t>
+  </si>
+  <si>
+    <t>US overlap without intervention weakens separation theory; Israel’s fusion without coups; India’s professionalism despite weak civilians (pp. 279–282)</t>
+  </si>
+  <si>
+    <t>Use concordance as a flexible lens for small states; test indicators against Irish context before structural change (pp. 277–282)</t>
+  </si>
+  <si>
+    <t>Originator defending her theory; entrepreneurial application to business suggests advocacy stance (p. 277, p. 283)</t>
+  </si>
+  <si>
+    <t>Limited falsifiers stated; few cases; measurement of “agreement” unclear (pp. 277–283)</t>
+  </si>
+  <si>
+    <t>D_Describe: Reasserts four-indicator concordance prevents domestic intervention, countering Wells (pp. 277–278).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters as a culturally aware brake on importing US separation models; omits robust metrics.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Theoretical rejoinder with deductive causation and cases; validity moderate; bias likely.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest bite is US overlap without coups (p. 280); Falsifier: if sustained overlap correlates with coup attempts.</t>
+  </si>
+  <si>
+    <t>D_Author: Pro-concordance, academic-policy lens, advocacy to business; really saying: culture plus institutional agreement beats tidy separation.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with culturalists and Kohn on low coup risk; diverges from Huntington’s objective control.</t>
+  </si>
+  <si>
+    <t>D_Limit: Few cases and no clear thresholds to code concordance.</t>
+  </si>
+  <si>
+    <t>D_Implication: For DF, seek visible elite–military–society alignment on role, recruitment, and style before major reforms.</t>
+  </si>
+  <si>
+    <t>SCHIFF_1996</t>
+  </si>
+  <si>
+    <t>David Kuehn; Philip Lorenz</t>
+  </si>
+  <si>
+    <t>Explaining civil–military relations in new democracies; structure–agency and theory development</t>
+  </si>
+  <si>
+    <t>Meta-theoretical analysis; conceptual mapping; comparative critique of four integrative theories</t>
+  </si>
+  <si>
+    <t>Systematises actors–environment–linkage; finds no approach fully integrates structure and agency; urges explicit mechanisms for testable hypotheses (pp.243–245)</t>
+  </si>
+  <si>
+    <t>Structure–agency problem; entities–environment–relationship triad; feasible set and decision rule; constraints vs generative vs resource models; structured contingency; complexity trade-off</t>
+  </si>
+  <si>
+    <t>Theory map is clear; integrates literatures; offers criteria for completeness; practical checklist for hypothesis design</t>
+  </si>
+  <si>
+    <t>Abstract, no new data; four-theory selection; limited operationalisation; variable lists remain broad</t>
+  </si>
+  <si>
+    <t>Aligns with integrative CMR work seeking mechanisms and strategies</t>
+  </si>
+  <si>
+    <t>Differs from single-factor or separation-only models; treats structure and agency as co-constitutive</t>
+  </si>
+  <si>
+    <t>Use as slide-ready template: specify agents, environments, mechanism, strategy set, decision rule before claims</t>
+  </si>
+  <si>
+    <t>My conclusion: adopt structured contingency lens; design DSS claims with explicit mechanism and condition</t>
+  </si>
+  <si>
+    <t>Heidelberg PhD researchers; theory-building incentive; philosophy-of-science lens; academic audience. Really saying: specify actors and mechanisms or claims wobble</t>
+  </si>
+  <si>
+    <t>Lacks empirical testing; no full variable inventory; relies on selected cases; measures thin</t>
+  </si>
+  <si>
+    <t>D_Describe: Maps structure–agency and tests four theories’ completeness (pp.231–233).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Completeness matters for clear hypotheses; omission blurs predictions.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Meta-theory plus comparative critique; moderate validity; no new data.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Best bite is three-step template (p.245); Falsifier: a theory meets all steps yet fails.</t>
+  </si>
+  <si>
+    <t>D_Author: Theory-first stance; building-blocks incentive; Really saying: mechanisms before metrics.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Places Alagappa near structure and Trinkunas near agency with gaps.</t>
+  </si>
+  <si>
+    <t>D_Limit: Theorised, not tested.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF claims must state agents, environments, causal link before policy.</t>
+  </si>
+  <si>
+    <t>KUEHN_2011</t>
+  </si>
+  <si>
+    <t>Valery Gerasimov</t>
+  </si>
+  <si>
+    <t>The Value of Science Is in the Foresight; Russian general staff view of modern conflict</t>
+  </si>
+  <si>
+    <t>Conceptual essay; strategic reflection using recent conflicts and colour revolutions</t>
+  </si>
+  <si>
+    <t>War has blurred with politics; non-military means can outweigh force; integrated whole-of-government needed (pp.23–25)</t>
+  </si>
+  <si>
+    <t>Non-military means sometimes exceed weapons; information struggle central; preemption and constant pressure; unified command; rapid adaptation (pp.23–27)</t>
+  </si>
+  <si>
+    <t>Insider view; concise articulation of Russian military-scientific discourse; early synthesis of information-centric conflict</t>
+  </si>
+  <si>
+    <t>Normative, not empirical; ambiguous terms; translation artefacts; misread as doctrine; little falsifiable evidence</t>
+  </si>
+  <si>
+    <t>Converges with Chekinov–Bogdanov on information dominance and strategic shaping</t>
+  </si>
+  <si>
+    <t>Diverts from Western hybrid-warfare frames by centring state-led, preemptive political warfare</t>
+  </si>
+  <si>
+    <t>Use as window into Russian strategic thought, not as binding doctrine; quote selectively with context (pp.23–29)</t>
+  </si>
+  <si>
+    <t>Treat as agenda-setting signal of priorities and anxieties, not a plan of operations</t>
+  </si>
+  <si>
+    <t>Serving CGS; institutional defence lens; incentive to justify resources and counter Western influence</t>
+  </si>
+  <si>
+    <t>No data tests; scope limited to selective cases; relies on assertions and exemplars</t>
+  </si>
+  <si>
+    <t>D_Describe: Argues non-military means can surpass force in modern conflict (pp.23–24).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters for Russian intent signalling; omits rigorous causal tests.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Programmatic essay using exemplars; validity limited, bias high.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on information centrality (p.24); falsifier: if kinetic effects dominate across cases.</t>
+  </si>
+  <si>
+    <t>D_Author: State-security stance; CGS lens; incentive to expand remit. Really saying: integrate politics and war.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Russian military science on information primacy; diverges from Western doctrinal takes.</t>
+  </si>
+  <si>
+    <t>D_Limit: Assertions lack comparative measurement.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF must harden info resilience and interagency coordination.</t>
+  </si>
+  <si>
+    <t>GERASIMOV_2016</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>The Future of Hybrid Warfare</t>
+  </si>
+  <si>
+    <t>Policy-analytical essay; conceptual synthesis across recent conflicts and statecraft tools (pp.1–5)</t>
+  </si>
+  <si>
+    <t>Hybrid warfare likely to persist as blending of conventional force, cyber, lawfare, disinfo and coercive economics (pp.1–3)</t>
+  </si>
+  <si>
+    <t>Hybrid toolset, threshold management, ambiguity as strategy, societal resilience as defence centre of gravity, role of alliances and legal frameworks (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Clear high-level map of instruments; policy relevance; concise horizon scan (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Thin empirical testing; few operational metrics; author and cases not specified; pages lack data tables (pp.1–5)</t>
+  </si>
+  <si>
+    <t>Aligns with NATO-EU emphasis on whole-of-society resilience and deterrence by denial (pp.3–4)</t>
+  </si>
+  <si>
+    <t>Differs from techno-determinist takes that privilege cyber alone; insists on multi-vector coercion (pp.2–3)</t>
+  </si>
+  <si>
+    <t>Notes on Irish context: maritime energy, data centres, diaspora influence, legal levers, neutrality signalling (pp.3–4)</t>
+  </si>
+  <si>
+    <t>My conclusion: treat hybrid pressure as chronic competition problem; prioritise resilience, attribution pathways, cross-government playbooks (pp.3–5)</t>
+  </si>
+  <si>
+    <t>Implicit Western security lens; policy-audience incentive; risk of confirmation bias toward state-led threat models (pp.1–5)</t>
+  </si>
+  <si>
+    <t>Key limitation: no comparative outcome data or thresholds for success/failure of tools (pp.2–5)</t>
+  </si>
+  <si>
+    <t>D_Describe: scans hybrid instruments and future trajectories; core claim is persistence and diffusion (pp.1–3).</t>
+  </si>
+  <si>
+    <t>D_Interpret: matters for thesis LO on critical synthesis and applied policy; omits measurement and Irish-specific baselines.</t>
+  </si>
+  <si>
+    <t>D_Methodology: narrative synthesis of cases and instruments; evidence impressionistic; validity moderate for scoping.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: strongest on instrument mapping and resilience levers (p.3); Falsifier: if cross-case metrics show pure kinetic dominance restores primacy.</t>
+  </si>
+  <si>
+    <t>D_Author: policy lens; likely aimed at officials; Really saying: build resilience and legal options, not gadgets.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: converges with resilience scholarship; diverges from narrow cyber-threat framings due to emphasis on society.</t>
+  </si>
+  <si>
+    <t>D_Limit: lacks method to score hybrid campaigns.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF invests in STRATCOM, attribution, legal pre-emption, inter-agency drills.</t>
+  </si>
+  <si>
+    <t>HOFFMAN_2024</t>
+  </si>
+  <si>
+    <t>Azad; Haider; Sadiq</t>
+  </si>
+  <si>
+    <t>Understanding Gray Zone Warfare from Multiple Perspectives</t>
+  </si>
+  <si>
+    <t>Conceptual synthesis of definitions plus brief comparative case illustrations (pp.5–6, 16–21)</t>
+  </si>
+  <si>
+    <t>Gray zone is a distinct domain below conventional war; tactics change status quo without crossing red lines; illustrated via Russia, China, Iran, India–Pakistan; concludes need for tailored counters (pp.5–6, 16–21)</t>
+  </si>
+  <si>
+    <t>Distinctness from hybrid warfare; below-threshold coercion; strategies include proxy war, fait accompli, salami tactics, information ops, cyber; cases: Crimea 2014, South China Sea, Iranian proxies, India–Pakistan escalation risks; countering concepts incl. modelling and AI (pp.6, 16–21)</t>
+  </si>
+  <si>
+    <t>Clarity on distinctness claim; spans state and NSA tactics; concise tour of diverse theatres; links tactics to status quo alteration (pp.5–6, 21)</t>
+  </si>
+  <si>
+    <t>Limited empirical testing; brief cases lack metrics; Western policy lens; sparse operational thresholds; little small-state doctrine detail (pp.16–21)</t>
+  </si>
+  <si>
+    <t>Aligns with literature that frames gray zone as below-threshold coercion; overlaps with hybrid concepts on tools used (pp.6, 21)</t>
+  </si>
+  <si>
+    <t>Differs from views that call gray zone a muddled rebrand; asserts conceptual distinctness and practical utility (p.5)</t>
+  </si>
+  <si>
+    <t>Use the distinctness claim to structure coding of cases; treat thresholds as contingent; do not universalise Russia/China patterns to small states (pp.5–6, 16–19)</t>
+  </si>
+  <si>
+    <t>Gray zone is best treated as a distinct analytic lens for below-threshold coercion; DF planning should emphasise attribution, resilience, calibrated responses (pp.6, 21)</t>
+  </si>
+  <si>
+    <t>Authors in UK institutions; policy–academic audience; incentive to clarify concept and inform Western practice; no funding stated. Really saying: treat gray zone as distinct and plan to counter below-threshold coercion (p.15)</t>
+  </si>
+  <si>
+    <t>Short on measurement and falsifiable criteria; cases primarily major-power led; limited Irish or EU small-state application detail (pp.16–21)</t>
+  </si>
+  <si>
+    <t>D_Describe: Gray zone is distinct; below-threshold coercion alters status quo (pp.5–6).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Clarifies concept for strategy; omits rigorous metrics.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual synthesis plus illustrative cases; moderate validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest bite is distinctness claim (p.5); Falsifier: if case coding cannot separate from hybrid warfare.</t>
+  </si>
+  <si>
+    <t>D_Author: UK policy–academic lens; clarify for practitioners. Really saying: plan for sub-threshold coercion.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with Brands, Wirtz on coercive status-quo change.</t>
+  </si>
+  <si>
+    <t>D_Limit: Brief cases; few operational thresholds.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF needs attribution, resilience, calibrated escalation control.```</t>
+  </si>
+  <si>
+    <t>AZAD_2022</t>
+  </si>
+  <si>
+    <t>Libiseller</t>
+  </si>
+  <si>
+    <t>‘Hybrid warfare’ as an academic fashion</t>
+  </si>
+  <si>
+    <t>Conceptual critique with bibliometric cues; discourse analysis of strategic studies venues (n.p.)</t>
+  </si>
+  <si>
+    <t>Hybrid warfare functions as an academic fashion rather than a cumulative analytical concept; uptake is politicised and post-2014 surge reflects demand-pull from policy (n.p.)</t>
+  </si>
+  <si>
+    <t>Fashion cycles; concept stretching; policy–academia coupling; post-2014 popularity spike; limited operationalisation; caution for thesis framing (n.p.)</t>
+  </si>
+  <si>
+    <t>Coherent fashion lens; traces diffusion; links policy salience to academic uptake; sharp conceptual hygiene (n.p.)</t>
+  </si>
+  <si>
+    <t>Limited outcome measurement; probable English-language focus; selection risk; little predictive testing (n.p.)</t>
+  </si>
+  <si>
+    <t>Converges with sceptics who see continuity under new labels (n.p.)</t>
+  </si>
+  <si>
+    <t>Differs from novelty advocates who treat hybrid war as paradigmatic break (n.p.)</t>
+  </si>
+  <si>
+    <t>Use as a cautionary scaffold; define mechanisms precisely; avoid treating “hybrid” as an independent variable; ground claims in measurable effects (n.p.)</t>
+  </si>
+  <si>
+    <t>Treat hybrid warfare as a rhetorical umbrella; unpack concrete mechanisms and test them; privilege measurement over labels (n.p.)</t>
+  </si>
+  <si>
+    <t>Policy-sceptic academic stance; incentive to demystify buzzwords; audience is scholars and reflective practitioners (n.p.)</t>
+  </si>
+  <si>
+    <t>No cross-case metrics; narrow corpus; weak external validity (n.p.)</t>
+  </si>
+  <si>
+    <t>D_Describe: Shows hybrid warfare as academic fashion with politicised uptake after 2014 (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Warns against fad-driven research; omits strong tests of explanatory power.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual critique plus bibliometric scan; moderate validity; context is policy salience.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on fashion mechanism; falsifier: if precise hybrid measures predict outcomes better than rivals.</t>
+  </si>
+  <si>
+    <t>D_Author: Critical scholar; institutional lens wary of policy pull; Really saying: stop chasing buzzwords.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with continuity sceptics; diverges from transformation claims.</t>
+  </si>
+  <si>
+    <t>D_Limit: Lacks operational measures and cross-language coverage.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should privilege concrete capability analysis and measurable effects over labels.</t>
+  </si>
+  <si>
+    <t>LIBISELLER_2023</t>
+  </si>
+  <si>
+    <t>REGAN_2024</t>
+  </si>
+  <si>
+    <t>Aurel Sari; Mitt Regan</t>
+  </si>
+  <si>
+    <t>Introduction to hybrid threats and grey zone conflict; conceptual clarification and scope (pp.10–12)</t>
+  </si>
+  <si>
+    <t>Conceptual synthesis; definitional framing using NATO and literature; policy triangulation</t>
+  </si>
+  <si>
+    <t>Hybrid threats and grey zone are complementary; grey zone is a band between war and peace; working definition offered (pp.10–11)</t>
+  </si>
+  <si>
+    <t>Below-threshold competition; ambiguity as tactic; complementarity not synonymy; zone not line; pejorative drift of 'hybrid threats'; strategic integration across domains (pp.10–12)</t>
+  </si>
+  <si>
+    <t>Clear synthesis; crisp working definition; bridges policy and scholarship; directly usable for strategy (pp.10–12)</t>
+  </si>
+  <si>
+    <t>Case-light; West-centric lens; potential vagueness if not operationalised; relies on policy rhetoric</t>
+  </si>
+  <si>
+    <t>Aligns with Mattis and Hoffman on blended modalities (p.12) and NATO on ambiguity (p.10)</t>
+  </si>
+  <si>
+    <t>Diverges from totalising 'hybrid war' and from critics who call terms empty; reframes threshold to zone and complementarity (p.11)</t>
+  </si>
+  <si>
+    <t>Notes NATO definition; 'hybrid threats' used as pejorative label for autocracies; volume aims to stabilise terms (pp.10–12)</t>
+  </si>
+  <si>
+    <t>Use definitions as scaffolding; set empirical indicators for grey zone band; map Irish vulnerabilities and instruments</t>
+  </si>
+  <si>
+    <t>Editors with Western academic policy lens; likely incentive to legitimise volume and orient debate; no funding stated</t>
+  </si>
+  <si>
+    <t>No measurement protocol for when tactics move from competitive to hostile; few cases; definitional reification risk</t>
+  </si>
+  <si>
+    <t>D_Describe: defines complementary concepts and a grey zone band between war and peace; proposes a working definition (p.11)</t>
+  </si>
+  <si>
+    <t>D_Interpret: clarifies planning and legal posture in below-threshold contests; omits measurement strategy</t>
+  </si>
+  <si>
+    <t>D_Methodology: conceptual synthesis reading NATO and scholarship; policy-inflected; moderate validity</t>
+  </si>
+  <si>
+    <t>D_Evaluate: strongest bite is 'zone not line' plus complementarity (p.11); Falsifier: if cross-case metrics show bright-line threshold or no blending</t>
+  </si>
+  <si>
+    <t>D_Author: editorial stance; OUP volume; policy-legal lens; audience is practitioners and scholars; Really saying: stabilise terms to enable strategy</t>
+  </si>
+  <si>
+    <t>D_Synthesis: aligns with NATO ambiguity and Mattis-Hoffman blending; diverges from 'buzzword' critiques by offering a usable definition</t>
+  </si>
+  <si>
+    <t>D_Limit: lacks thresholds and metrics; West-centric scope</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should plan integrated statecraft and resilience below Article 5 triggers; set indicators for escalation control</t>
+  </si>
+  <si>
+    <t>Clementine G. Starling; Arun Iyer; Robert J. Giesler</t>
+  </si>
+  <si>
+    <t>Definition and practice of the 'gray zone'; autocracy advantage; democratic responses; US and allies</t>
+  </si>
+  <si>
+    <t>Expert Q&amp;A synthesis; policy commentary; practitioner perspectives (pp.1–4)</t>
+  </si>
+  <si>
+    <t>Gray-zone tactics proliferate; autocracies exploit asymmetry; democracies lag without whole-of-government strategy (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Definition spans non-military coercion, information ops, cyber, proxies; early action decisive; free press and alliances are assets (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Concise primer; multi-expert triangulation; concrete policy steps; links info, cyber, economic domains (pp.3–4)</t>
+  </si>
+  <si>
+    <t>Loose definition; scant evidence; US-centric lens; conflates hybrid war with broader influence (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Aligns with hybrid warfare literature on sub-threshold coercion; echoes deterrence by detection (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Downplays measurement and legal thresholds; privileges policy over empirics; treats autocracy advantage as given (pp.2–3)</t>
+  </si>
+  <si>
+    <t>Examples: Crimea, BRI leverage, Chinese islands, IRA disinfo; further reading links (pp.1,3–7)</t>
+  </si>
+  <si>
+    <t>Use as conceptual map only; build national playbook for detection, attribution, response; focus Irish DF on information and early action (pp.3–4)</t>
+  </si>
+  <si>
+    <t>Atlantic Council Forward Defense; pro-democracy, US policy audience; competition framing; normative emphasis on values (pp.1–4)</t>
+  </si>
+  <si>
+    <t>Pre-invasion timing; no metrics; ambiguous term; no EU small-state lens; not peer reviewed (pp.1–4)</t>
+  </si>
+  <si>
+    <t>Defines gray zone and argues democracies lag without strategy; early action matters (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Matters for small-state resilience; omits cost, legal risk, measurement of effectiveness</t>
+  </si>
+  <si>
+    <t>Q&amp;A expert synthesis with practitioner views; conceptual validity moderate; empirical base thin</t>
+  </si>
+  <si>
+    <t>Strongest bite: early response beats escalation (p.4); Falsifier: if delayed responses outperform early ones</t>
+  </si>
+  <si>
+    <t>Atlantic Council policy lens; Western values case; incentive to spur US action; Really saying: mobilise whole-of-government</t>
+  </si>
+  <si>
+    <t>Converges with hybrid warfare scholarship on sub-threshold coercion; diverges on definitional precision</t>
+  </si>
+  <si>
+    <t>No operational metrics; ambiguous scope; assumes autocracy advantage without counter-cases</t>
+  </si>
+  <si>
+    <t>Irish DF: invest in detection, attribution, allied messaging; codify rapid interagency playbooks; rehearse early moves</t>
+  </si>
+  <si>
+    <t>STARLING_2022</t>
+  </si>
+  <si>
+    <t>Chris Tuck</t>
+  </si>
+  <si>
+    <t>Hybrid War: The Perfect Enemy — critique of the hybrid warfare concept</t>
+  </si>
+  <si>
+    <t>Conceptual essay; critical synthesis of cases and commentary</t>
+  </si>
+  <si>
+    <t>Hybrid war label is over-broad, not distinct; reflects Western anxieties (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Definitional vagueness; generalising from specific; presentism; situational enablers; overestimating adversaries (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Clear critique; contrasts Crimea and Donbas; historical continuity; policy relevance (pp.2–4)</t>
+  </si>
+  <si>
+    <t>Blog-level rigour; sparse evidence; no operational definition; no metrics (pp.2–3)</t>
+  </si>
+  <si>
+    <t>Converges with Gray, Galeotti, van Puyvelde on continuity and caution (p.3)</t>
+  </si>
+  <si>
+    <t>Diverges from alarmist NATO discourse; challenges Hoffman and McCuen templates (p.2)</t>
+  </si>
+  <si>
+    <t>Crimea success relied on local factors; Donbas costly; “perfect enemy” line (pp.2,4)</t>
+  </si>
+  <si>
+    <t>Treat hybrid as lens not category; emphasise resilience and strategy; assess case by case (pp.2–4)</t>
+  </si>
+  <si>
+    <t>KCL Defence Studies context; incentive to puncture hype; policy-facing audience</t>
+  </si>
+  <si>
+    <t>No cross-case testing; limited sources; lacks falsifiable framework</t>
+  </si>
+  <si>
+    <t>Ill-defined hybrid war, context-bound, not a distinct form of war (pp.2–3)</t>
+  </si>
+  <si>
+    <t>Checks threat inflation; omits cases where hybrid produced durable strategic change</t>
+  </si>
+  <si>
+    <t>Blog essay; secondary synthesis; anecdotal examples; moderate validity</t>
+  </si>
+  <si>
+    <t>Strongest bite: presentism and Crimea–Donbas contrast (p.2); Falsifier: operational definition predicts cross-case success</t>
+  </si>
+  <si>
+    <t>Critical stance; KCL lens; policy audience. Really saying: fix strategy, not buzzwords</t>
+  </si>
+  <si>
+    <t>Aligns with Gray and van Puyvelde; diverges from Hoffman’s prescriptive model</t>
+  </si>
+  <si>
+    <t>No metrics or design tests; UK-centric lens</t>
+  </si>
+  <si>
+    <t>Irish DF prioritise deterrence by denial, cohesion, legal tools, tailored countermeasures</t>
+  </si>
+  <si>
+    <t>TUCK_2017</t>
   </si>
 </sst>
 </file>
@@ -13912,10 +14764,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0111F966-AC4E-4B87-8117-CC0F46545464}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y174"/>
+  <dimension ref="A1:Y187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26596,6 +27448,890 @@
         <v>4229</v>
       </c>
     </row>
+    <row r="175" spans="1:24">
+      <c r="A175" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4233</v>
+      </c>
+      <c r="E175" t="s">
+        <v>4234</v>
+      </c>
+      <c r="F175" t="s">
+        <v>4235</v>
+      </c>
+      <c r="G175" t="s">
+        <v>4236</v>
+      </c>
+      <c r="H175" t="s">
+        <v>4237</v>
+      </c>
+      <c r="I175" t="s">
+        <v>4238</v>
+      </c>
+      <c r="J175" t="s">
+        <v>4239</v>
+      </c>
+      <c r="K175" t="s">
+        <v>4240</v>
+      </c>
+      <c r="L175" t="s">
+        <v>4241</v>
+      </c>
+      <c r="M175" t="s">
+        <v>4242</v>
+      </c>
+      <c r="N175" t="s">
+        <v>4243</v>
+      </c>
+      <c r="O175" t="s">
+        <v>4244</v>
+      </c>
+      <c r="P175" t="s">
+        <v>4245</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>4246</v>
+      </c>
+      <c r="R175" t="s">
+        <v>4247</v>
+      </c>
+      <c r="S175" t="s">
+        <v>4248</v>
+      </c>
+      <c r="T175" t="s">
+        <v>4249</v>
+      </c>
+      <c r="U175" t="s">
+        <v>4250</v>
+      </c>
+      <c r="V175" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
+      <c r="A176" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4255</v>
+      </c>
+      <c r="E176" t="s">
+        <v>4256</v>
+      </c>
+      <c r="F176" t="s">
+        <v>4257</v>
+      </c>
+      <c r="G176" t="s">
+        <v>4258</v>
+      </c>
+      <c r="H176" t="s">
+        <v>4259</v>
+      </c>
+      <c r="I176" t="s">
+        <v>4260</v>
+      </c>
+      <c r="J176" t="s">
+        <v>4261</v>
+      </c>
+      <c r="K176" t="s">
+        <v>4262</v>
+      </c>
+      <c r="L176" t="s">
+        <v>4263</v>
+      </c>
+      <c r="M176" t="s">
+        <v>4264</v>
+      </c>
+      <c r="N176" t="s">
+        <v>4265</v>
+      </c>
+      <c r="O176" t="s">
+        <v>4266</v>
+      </c>
+      <c r="P176" t="s">
+        <v>4267</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>4268</v>
+      </c>
+      <c r="R176" t="s">
+        <v>4269</v>
+      </c>
+      <c r="S176" t="s">
+        <v>4270</v>
+      </c>
+      <c r="T176" t="s">
+        <v>4271</v>
+      </c>
+      <c r="U176" t="s">
+        <v>4272</v>
+      </c>
+      <c r="V176" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F177" t="s">
+        <v>4278</v>
+      </c>
+      <c r="G177" t="s">
+        <v>4279</v>
+      </c>
+      <c r="H177" t="s">
+        <v>4280</v>
+      </c>
+      <c r="I177" t="s">
+        <v>4281</v>
+      </c>
+      <c r="J177" t="s">
+        <v>4282</v>
+      </c>
+      <c r="K177" t="s">
+        <v>4283</v>
+      </c>
+      <c r="L177" t="s">
+        <v>4284</v>
+      </c>
+      <c r="M177" t="s">
+        <v>4285</v>
+      </c>
+      <c r="N177" t="s">
+        <v>4286</v>
+      </c>
+      <c r="O177" t="s">
+        <v>4287</v>
+      </c>
+      <c r="P177" t="s">
+        <v>4288</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>4289</v>
+      </c>
+      <c r="R177" t="s">
+        <v>4290</v>
+      </c>
+      <c r="S177" t="s">
+        <v>4291</v>
+      </c>
+      <c r="T177" t="s">
+        <v>4292</v>
+      </c>
+      <c r="U177" t="s">
+        <v>4293</v>
+      </c>
+      <c r="V177" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4298</v>
+      </c>
+      <c r="E178" t="s">
+        <v>4299</v>
+      </c>
+      <c r="F178" t="s">
+        <v>4300</v>
+      </c>
+      <c r="G178" t="s">
+        <v>4301</v>
+      </c>
+      <c r="H178" t="s">
+        <v>4302</v>
+      </c>
+      <c r="I178" t="s">
+        <v>4303</v>
+      </c>
+      <c r="J178" t="s">
+        <v>4304</v>
+      </c>
+      <c r="K178" t="s">
+        <v>4305</v>
+      </c>
+      <c r="L178" t="s">
+        <v>4306</v>
+      </c>
+      <c r="M178" t="s">
+        <v>4307</v>
+      </c>
+      <c r="N178" t="s">
+        <v>4308</v>
+      </c>
+      <c r="O178" t="s">
+        <v>4309</v>
+      </c>
+      <c r="P178" t="s">
+        <v>4310</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>4311</v>
+      </c>
+      <c r="R178" t="s">
+        <v>4312</v>
+      </c>
+      <c r="S178" t="s">
+        <v>4313</v>
+      </c>
+      <c r="T178" t="s">
+        <v>4314</v>
+      </c>
+      <c r="U178" t="s">
+        <v>4315</v>
+      </c>
+      <c r="V178" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4319</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4320</v>
+      </c>
+      <c r="F179" t="s">
+        <v>4321</v>
+      </c>
+      <c r="G179" t="s">
+        <v>4322</v>
+      </c>
+      <c r="H179" t="s">
+        <v>4323</v>
+      </c>
+      <c r="I179" t="s">
+        <v>4324</v>
+      </c>
+      <c r="J179" t="s">
+        <v>4325</v>
+      </c>
+      <c r="K179" t="s">
+        <v>4326</v>
+      </c>
+      <c r="L179" t="s">
+        <v>4327</v>
+      </c>
+      <c r="M179" t="s">
+        <v>4328</v>
+      </c>
+      <c r="N179" t="s">
+        <v>4329</v>
+      </c>
+      <c r="O179" t="s">
+        <v>4330</v>
+      </c>
+      <c r="P179" t="s">
+        <v>4331</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>4332</v>
+      </c>
+      <c r="R179" t="s">
+        <v>4333</v>
+      </c>
+      <c r="S179" t="s">
+        <v>4334</v>
+      </c>
+      <c r="T179" t="s">
+        <v>4335</v>
+      </c>
+      <c r="U179" t="s">
+        <v>4336</v>
+      </c>
+      <c r="V179" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E180" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F180" t="s">
+        <v>4343</v>
+      </c>
+      <c r="G180" t="s">
+        <v>4344</v>
+      </c>
+      <c r="H180" t="s">
+        <v>4345</v>
+      </c>
+      <c r="I180" t="s">
+        <v>4346</v>
+      </c>
+      <c r="J180" t="s">
+        <v>4347</v>
+      </c>
+      <c r="K180" t="s">
+        <v>4348</v>
+      </c>
+      <c r="L180" t="s">
+        <v>4349</v>
+      </c>
+      <c r="M180" t="s">
+        <v>4350</v>
+      </c>
+      <c r="N180" t="s">
+        <v>4351</v>
+      </c>
+      <c r="O180" t="s">
+        <v>4352</v>
+      </c>
+      <c r="P180" t="s">
+        <v>4353</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>4354</v>
+      </c>
+      <c r="R180" t="s">
+        <v>4355</v>
+      </c>
+      <c r="S180" t="s">
+        <v>4356</v>
+      </c>
+      <c r="T180" t="s">
+        <v>4357</v>
+      </c>
+      <c r="U180" t="s">
+        <v>4358</v>
+      </c>
+      <c r="V180" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4496</v>
+      </c>
+      <c r="F181" t="s">
+        <v>4497</v>
+      </c>
+      <c r="G181" t="s">
+        <v>4498</v>
+      </c>
+      <c r="H181" t="s">
+        <v>4499</v>
+      </c>
+      <c r="I181" t="s">
+        <v>4500</v>
+      </c>
+      <c r="J181" t="s">
+        <v>4501</v>
+      </c>
+      <c r="K181" t="s">
+        <v>4502</v>
+      </c>
+      <c r="L181" t="s">
+        <v>4503</v>
+      </c>
+      <c r="M181" t="s">
+        <v>4504</v>
+      </c>
+      <c r="N181" t="s">
+        <v>4505</v>
+      </c>
+      <c r="O181" t="s">
+        <v>4506</v>
+      </c>
+      <c r="P181" t="s">
+        <v>4507</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>4508</v>
+      </c>
+      <c r="R181" t="s">
+        <v>4509</v>
+      </c>
+      <c r="S181" t="s">
+        <v>4510</v>
+      </c>
+      <c r="T181" t="s">
+        <v>4511</v>
+      </c>
+      <c r="U181" t="s">
+        <v>4512</v>
+      </c>
+      <c r="V181" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4429</v>
+      </c>
+      <c r="E182" t="s">
+        <v>4430</v>
+      </c>
+      <c r="F182" t="s">
+        <v>4431</v>
+      </c>
+      <c r="G182" t="s">
+        <v>4432</v>
+      </c>
+      <c r="H182" t="s">
+        <v>4433</v>
+      </c>
+      <c r="I182" t="s">
+        <v>4434</v>
+      </c>
+      <c r="J182" t="s">
+        <v>4435</v>
+      </c>
+      <c r="K182" t="s">
+        <v>4436</v>
+      </c>
+      <c r="L182" t="s">
+        <v>4437</v>
+      </c>
+      <c r="M182" t="s">
+        <v>4438</v>
+      </c>
+      <c r="N182" t="s">
+        <v>4439</v>
+      </c>
+      <c r="O182" t="s">
+        <v>4440</v>
+      </c>
+      <c r="P182" t="s">
+        <v>4441</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>4442</v>
+      </c>
+      <c r="R182" t="s">
+        <v>4443</v>
+      </c>
+      <c r="S182" t="s">
+        <v>4444</v>
+      </c>
+      <c r="T182" t="s">
+        <v>4445</v>
+      </c>
+      <c r="U182" t="s">
+        <v>4446</v>
+      </c>
+      <c r="V182" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="A183" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4362</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4363</v>
+      </c>
+      <c r="E183" t="s">
+        <v>4364</v>
+      </c>
+      <c r="F183" t="s">
+        <v>4365</v>
+      </c>
+      <c r="G183" t="s">
+        <v>4366</v>
+      </c>
+      <c r="H183" t="s">
+        <v>4367</v>
+      </c>
+      <c r="I183" t="s">
+        <v>4368</v>
+      </c>
+      <c r="J183" t="s">
+        <v>4369</v>
+      </c>
+      <c r="K183" t="s">
+        <v>4370</v>
+      </c>
+      <c r="L183" t="s">
+        <v>4371</v>
+      </c>
+      <c r="M183" t="s">
+        <v>4372</v>
+      </c>
+      <c r="N183" t="s">
+        <v>4373</v>
+      </c>
+      <c r="O183" t="s">
+        <v>4374</v>
+      </c>
+      <c r="P183" t="s">
+        <v>4375</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>4376</v>
+      </c>
+      <c r="R183" t="s">
+        <v>4377</v>
+      </c>
+      <c r="S183" t="s">
+        <v>4378</v>
+      </c>
+      <c r="T183" t="s">
+        <v>4379</v>
+      </c>
+      <c r="U183" t="s">
+        <v>4380</v>
+      </c>
+      <c r="V183" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4386</v>
+      </c>
+      <c r="F184" t="s">
+        <v>4387</v>
+      </c>
+      <c r="G184" t="s">
+        <v>4388</v>
+      </c>
+      <c r="H184" t="s">
+        <v>4389</v>
+      </c>
+      <c r="I184" t="s">
+        <v>4390</v>
+      </c>
+      <c r="J184" t="s">
+        <v>4391</v>
+      </c>
+      <c r="K184" t="s">
+        <v>4392</v>
+      </c>
+      <c r="L184" t="s">
+        <v>4393</v>
+      </c>
+      <c r="M184" t="s">
+        <v>4394</v>
+      </c>
+      <c r="N184" t="s">
+        <v>4395</v>
+      </c>
+      <c r="O184" t="s">
+        <v>4396</v>
+      </c>
+      <c r="P184" t="s">
+        <v>4397</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>4398</v>
+      </c>
+      <c r="R184" t="s">
+        <v>4399</v>
+      </c>
+      <c r="S184" t="s">
+        <v>4400</v>
+      </c>
+      <c r="T184" t="s">
+        <v>4401</v>
+      </c>
+      <c r="U184" t="s">
+        <v>4402</v>
+      </c>
+      <c r="V184" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="A185" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4406</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4408</v>
+      </c>
+      <c r="F185" t="s">
+        <v>4409</v>
+      </c>
+      <c r="G185" t="s">
+        <v>4410</v>
+      </c>
+      <c r="H185" t="s">
+        <v>4411</v>
+      </c>
+      <c r="I185" t="s">
+        <v>4412</v>
+      </c>
+      <c r="J185" t="s">
+        <v>4413</v>
+      </c>
+      <c r="K185" t="s">
+        <v>4414</v>
+      </c>
+      <c r="L185" t="s">
+        <v>4415</v>
+      </c>
+      <c r="M185" t="s">
+        <v>4416</v>
+      </c>
+      <c r="N185" t="s">
+        <v>4417</v>
+      </c>
+      <c r="O185" t="s">
+        <v>4418</v>
+      </c>
+      <c r="P185" t="s">
+        <v>4419</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>4420</v>
+      </c>
+      <c r="R185" t="s">
+        <v>4421</v>
+      </c>
+      <c r="S185" t="s">
+        <v>4422</v>
+      </c>
+      <c r="T185" t="s">
+        <v>4423</v>
+      </c>
+      <c r="U185" t="s">
+        <v>4424</v>
+      </c>
+      <c r="V185" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4451</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4452</v>
+      </c>
+      <c r="E186" t="s">
+        <v>4453</v>
+      </c>
+      <c r="F186" t="s">
+        <v>4454</v>
+      </c>
+      <c r="G186" t="s">
+        <v>4455</v>
+      </c>
+      <c r="H186" t="s">
+        <v>4456</v>
+      </c>
+      <c r="I186" t="s">
+        <v>4457</v>
+      </c>
+      <c r="J186" t="s">
+        <v>4458</v>
+      </c>
+      <c r="K186" t="s">
+        <v>4459</v>
+      </c>
+      <c r="L186" t="s">
+        <v>4460</v>
+      </c>
+      <c r="M186" t="s">
+        <v>4461</v>
+      </c>
+      <c r="N186" t="s">
+        <v>4462</v>
+      </c>
+      <c r="O186" t="s">
+        <v>4463</v>
+      </c>
+      <c r="P186" t="s">
+        <v>4464</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>4465</v>
+      </c>
+      <c r="R186" t="s">
+        <v>4466</v>
+      </c>
+      <c r="S186" t="s">
+        <v>4467</v>
+      </c>
+      <c r="T186" t="s">
+        <v>4468</v>
+      </c>
+      <c r="U186" t="s">
+        <v>4469</v>
+      </c>
+      <c r="V186" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="A187" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E187" t="s">
+        <v>4474</v>
+      </c>
+      <c r="F187" t="s">
+        <v>4475</v>
+      </c>
+      <c r="G187" t="s">
+        <v>4476</v>
+      </c>
+      <c r="H187" t="s">
+        <v>4477</v>
+      </c>
+      <c r="I187" t="s">
+        <v>4478</v>
+      </c>
+      <c r="J187" t="s">
+        <v>4479</v>
+      </c>
+      <c r="K187" t="s">
+        <v>4480</v>
+      </c>
+      <c r="L187" t="s">
+        <v>4481</v>
+      </c>
+      <c r="M187" t="s">
+        <v>4482</v>
+      </c>
+      <c r="N187" t="s">
+        <v>4483</v>
+      </c>
+      <c r="O187" t="s">
+        <v>4484</v>
+      </c>
+      <c r="P187" t="s">
+        <v>4485</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>4486</v>
+      </c>
+      <c r="R187" t="s">
+        <v>4487</v>
+      </c>
+      <c r="S187" t="s">
+        <v>4488</v>
+      </c>
+      <c r="T187" t="s">
+        <v>4489</v>
+      </c>
+      <c r="U187" t="s">
+        <v>4490</v>
+      </c>
+      <c r="V187" t="s">
+        <v>4491</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y171">
     <sortCondition ref="A2:A171"/>

--- a/JCSC_SOURCE_MATRIX.xlsx
+++ b/JCSC_SOURCE_MATRIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\JCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF29973-8350-4060-A16A-81FB15761772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2FCA59-B371-493A-9802-700C05D82F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="4777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4901" uniqueCount="4821">
   <si>
     <t>Author</t>
   </si>
@@ -15121,6 +15121,138 @@
   </si>
   <si>
     <t>SNIDER_2000</t>
+  </si>
+  <si>
+    <t>Patricia M. Shields</t>
+  </si>
+  <si>
+    <t>Afghanistan’s imprint on AF&amp;S content; postmodern military lens</t>
+  </si>
+  <si>
+    <t>Editor’s reflection; narrative content analysis over 2001–2021</t>
+  </si>
+  <si>
+    <t>Afghanistan shifted AF&amp;S toward reserves, contractors, ISAF management, health and family stress; civil–military effects were indirect (pp. 893–902)</t>
+  </si>
+  <si>
+    <t>Postmodern force, multinational ISAF, rise in veterans’ health, reserve reliance, contracting, small wars, public opinion; stewardship metaphor (pp. 893–901)</t>
+  </si>
+  <si>
+    <t>Editor vantage over full war; coherent mapping of themes; international breadth; links to Moskos–Williams–Segal (pp. 893–896; 900–901)</t>
+  </si>
+  <si>
+    <t>Not a formal scoping review; limited metrics; conflates Iraq with Afghanistan at points; selection effects (pp. 893–894; 902)</t>
+  </si>
+  <si>
+    <t>Converges with postmodern military theses and family/health literatures</t>
+  </si>
+  <si>
+    <t>Diverts from tech-centric RMA narratives by privileging social-institutional shifts</t>
+  </si>
+  <si>
+    <t>Use Afghan-era patterns to weight DSS topics: mental health, reserves, contractors, intercultural competence, public legitimacy (pp. 896–901)</t>
+  </si>
+  <si>
+    <t>Irish DF PME and research should treat LOAC-health-family-reserves as core, and plan for coalition complexity (pp. 896–901)</t>
+  </si>
+  <si>
+    <t>Editor–in–chief lens; stewardship incentives; US-led coalition context; Really saying: the war re-grew the field’s forest</t>
+  </si>
+  <si>
+    <t>Commentary, not causal identification; no bibliometrics or counterfactual tests (pp. 893–894)</t>
+  </si>
+  <si>
+    <t>D_Describe: Twenty-year Afghan war reoriented AF&amp;S toward reserves, contractors, ISAF, health, families; CMR shifts were indirect (pp. 893–901).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Matters to DSS because it reprioritises what militaries actually grappled with; omits quantified effect sizes.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Editorial narrative over the journal’s corpus; validity thematic, not statistical; Iraq folded in.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest bite is the concrete catalogue of shifts and their timing; Falsifier: if bibliometrics show no post-2015 health/family surge.</t>
+  </si>
+  <si>
+    <t>D_Author: Long-tenure editor, pragmatic–postmodern lens; Really saying: Afghanistan changed the journal’s climate.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Moskos et al. on postmodern militaries and with Forster on politicisation.</t>
+  </si>
+  <si>
+    <t>D_Limit: Commentary genre and US–NATO tilt.</t>
+  </si>
+  <si>
+    <t>D_Implication: DF should weight PME toward health, families, reserves, contractors, and coalition skills, not just kinetic.</t>
+  </si>
+  <si>
+    <t>SHIELDS_2002</t>
+  </si>
+  <si>
+    <t>Bradford Booth; Meyer Kestnbaum; David R. Segal</t>
+  </si>
+  <si>
+    <t>Are Post-Cold War Militaries Postmodern?</t>
+  </si>
+  <si>
+    <t>Conceptual critique and theoretical synthesis; engages postindustrialism, post-Fordism, globalisation; Baudrillard illustration</t>
+  </si>
+  <si>
+    <t>Civil–military change reflects postmodern conditions but militaries respond with modern, rational adaptation; “postmodern military” overstates novelty (pp.320–333; 337–338)</t>
+  </si>
+  <si>
+    <t>Postindustrialism–post-Fordism–globalisation map to Moskos’ dimensions; mission shift has no postmodern strand; geopolitics central; bureaucracy and citizenship persist; simulation and hyperreality shape perception (pp.324–329; 330–336)</t>
+  </si>
+  <si>
+    <t>Clear terms; bridges theory to observed traits; highlights continuity with Weberian bureaucracy; offers alternative criteria via media, simulacra; policy-relevant caution (pp.324–336)</t>
+  </si>
+  <si>
+    <t>No systematic tests; US-centric touchstones; secondary sources; thin operationalisation; “postmodern” contested (pp.321–323; 330–333)</t>
+  </si>
+  <si>
+    <t>Converges with Dandeker on adaptive restructuring; aligns with Burk on transnational frames; complements Betts on spectacle and escalation optics</t>
+  </si>
+  <si>
+    <t>Differs from Moskos’ postmodern typology; stresses geopolitics and gradualism over rupture (pp.321–323; 328–330)</t>
+  </si>
+  <si>
+    <t>Distinguishes postmodernity (epoch) from postmodernism (discourse); outlines decline of mass army; marginalisation trend; media feedback loops in operations (pp.324–338)</t>
+  </si>
+  <si>
+    <t>Use late-modern lens for Irish DF; adapt to postmodern conditions; add media-simulation governance and coalition design checks (pp.330–338)</t>
+  </si>
+  <si>
+    <t>Academic sociological lens; ARI-supported work; incentive to discipline fashionable labels and recentre evidence</t>
+  </si>
+  <si>
+    <t>Conceptual essay; scarce cross-national data; no measurement recipe; examples impressionistic</t>
+  </si>
+  <si>
+    <t>D_Describe: Postmodern conditions spur modern organisational adaptation; the “postmodern military” label is premature (pp.320–333).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Labels drive policy and metrics; mislabelling risks shallow reforms; measurement guidance is absent.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Theory mapping to three macro-processes; critique of mission shift; Baudrillard as lens; moderate validity.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest bite is the modernity-through-adaptation claim with geopolitics as driver (pp.328–333); Falsifier: cross-cases where postmodern mechanisms, not geopolitics, predict structure.</t>
+  </si>
+  <si>
+    <t>D_Author: University of Maryland CRMO; contract support; Really saying: environment may be postmodern, militaries remain modern.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Kuehn–Lorenz on specifying actors and linkage; tempers Moskos; complements Betts on spectacle risk.</t>
+  </si>
+  <si>
+    <t>D_Limit: Illustrative not systematic; concept borders blur.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should keep late-modern design, add media–simulation controls and coalition layers; align with DSS LO on theory critique and testable claims.</t>
+  </si>
+  <si>
+    <t>BOOTH_2001</t>
   </si>
 </sst>
 </file>
@@ -15550,10 +15682,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0111F966-AC4E-4B87-8117-CC0F46545464}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29931,6 +30063,142 @@
         <v>4775</v>
       </c>
     </row>
+    <row r="200" spans="1:23">
+      <c r="A200" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4777</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4778</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4779</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4780</v>
+      </c>
+      <c r="F200" t="s">
+        <v>4781</v>
+      </c>
+      <c r="G200" t="s">
+        <v>4782</v>
+      </c>
+      <c r="H200" t="s">
+        <v>4783</v>
+      </c>
+      <c r="I200" t="s">
+        <v>4784</v>
+      </c>
+      <c r="J200" t="s">
+        <v>4785</v>
+      </c>
+      <c r="K200" t="s">
+        <v>4786</v>
+      </c>
+      <c r="L200" t="s">
+        <v>4787</v>
+      </c>
+      <c r="M200" t="s">
+        <v>4788</v>
+      </c>
+      <c r="N200" t="s">
+        <v>4789</v>
+      </c>
+      <c r="O200" t="s">
+        <v>4790</v>
+      </c>
+      <c r="P200" t="s">
+        <v>4791</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>4792</v>
+      </c>
+      <c r="R200" t="s">
+        <v>4793</v>
+      </c>
+      <c r="S200" t="s">
+        <v>4794</v>
+      </c>
+      <c r="T200" t="s">
+        <v>4795</v>
+      </c>
+      <c r="U200" t="s">
+        <v>4796</v>
+      </c>
+      <c r="V200" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23">
+      <c r="A201" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4799</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4800</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4801</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4802</v>
+      </c>
+      <c r="F201" t="s">
+        <v>4803</v>
+      </c>
+      <c r="G201" t="s">
+        <v>4804</v>
+      </c>
+      <c r="H201" t="s">
+        <v>4805</v>
+      </c>
+      <c r="I201" t="s">
+        <v>4806</v>
+      </c>
+      <c r="J201" t="s">
+        <v>4807</v>
+      </c>
+      <c r="K201" t="s">
+        <v>4808</v>
+      </c>
+      <c r="L201" t="s">
+        <v>4809</v>
+      </c>
+      <c r="M201" t="s">
+        <v>4810</v>
+      </c>
+      <c r="N201" t="s">
+        <v>4811</v>
+      </c>
+      <c r="O201" t="s">
+        <v>4812</v>
+      </c>
+      <c r="P201" t="s">
+        <v>4813</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>4814</v>
+      </c>
+      <c r="R201" t="s">
+        <v>4815</v>
+      </c>
+      <c r="S201" t="s">
+        <v>4816</v>
+      </c>
+      <c r="T201" t="s">
+        <v>4817</v>
+      </c>
+      <c r="U201" t="s">
+        <v>4818</v>
+      </c>
+      <c r="V201" t="s">
+        <v>4819</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y170">
     <sortCondition ref="A2:A170"/>

--- a/JCSC_SOURCE_MATRIX.xlsx
+++ b/JCSC_SOURCE_MATRIX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\JCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2FCA59-B371-493A-9802-700C05D82F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91C6834-77AD-46EA-8F6D-33960C846C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4901" uniqueCount="4821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5094" uniqueCount="5013">
   <si>
     <t>Author</t>
   </si>
@@ -15253,6 +15254,582 @@
   </si>
   <si>
     <t>BOOTH_2001</t>
+  </si>
+  <si>
+    <t>Gregory D. Foster</t>
+  </si>
+  <si>
+    <t>Strategic effectiveness vs military effectiveness; transform US military toward peace operations</t>
+  </si>
+  <si>
+    <t>Normative strategic essay; conceptual critique; prescriptive institutional reform (n.p.)</t>
+  </si>
+  <si>
+    <t>RMA is myth; true strengthening demands demilitarisation trajectory and peace-centred, anticipatory, integrated forces (n.p.)</t>
+  </si>
+  <si>
+    <t>Myth of RMA; strategic effectiveness; perception management and unity; crisis prevention; anticipatory response; tailored forces; integration; transformed human-centred military; reform JCS into commanders’ council; regional super-ambassadors; permanent collective-security regimes (n.p.)</t>
+  </si>
+  <si>
+    <t>Bold reframing; clear strategic aims; concrete levers; links force design to civil society; provocative policy agenda (n.p.)</t>
+  </si>
+  <si>
+    <t>Utopian feasibility; light evidence; ignores adversary adaptation; risks undermining deterrence; sequencing and costs vague (n.p.)</t>
+  </si>
+  <si>
+    <t>Aligns with Cottey on governance breadth and with Moskos on nonmilitary tasks and civil effects (n.p.)</t>
+  </si>
+  <si>
+    <t>Contradicts RMA evangelists and Cold War realists; deprioritises lethality; reverses service priorities and culture (n.p.)</t>
+  </si>
+  <si>
+    <t>Four imperatives: treat causes, institutionalise anticipatory response, tailor forces, integrate the security establishment; proposals for lighter, human-centred force and deep organisational reforms (n.p.)</t>
+  </si>
+  <si>
+    <t>Use as radical counterpoint; for small states emphasise prevention, legitimacy and integration while preserving warfighting credibility (n.p.)</t>
+  </si>
+  <si>
+    <t>Reformist scholar at NDU; critical of military–industrial complex; cosmopolitan normative tilt (n.p.)</t>
+  </si>
+  <si>
+    <t>No thresholds, feasibility tests, comparative cases or costings; pagination absent (n.p.)</t>
+  </si>
+  <si>
+    <t>D_Describe: Strength comes from peace-centred, anticipatory, integrated forces, not RMA hype (n.p.).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Moves DSS focus to strategy, perception and civil society over raw lethality.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Normative strategic essay with prescriptive reforms; conceptual not empirical; validity moderate.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest bite: anticipatory, tailored prevention; Falsifier: preventive use systematically backfires.</t>
+  </si>
+  <si>
+    <t>D_Author: NDU reformist; policy audience; really saying: redefine strength as peace capacity.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with governance turn; diverges from RMA evangelists and traditionalists.</t>
+  </si>
+  <si>
+    <t>D_Limit: Feasibility low, adaptation ignored, thresholds and costs unclear.</t>
+  </si>
+  <si>
+    <t>D_Implication: For DF emphasise prevention, legitimacy and joint integration while retaining deterrent cores.</t>
+  </si>
+  <si>
+    <t>FOSTER_2001</t>
+  </si>
+  <si>
+    <t>America’s Postmodern Military</t>
+  </si>
+  <si>
+    <t>Policy essay; civil–military synthesis using survey findings and gap literature (pp.1–2, 5–6)</t>
+  </si>
+  <si>
+    <t>Postmodern era accentuates social over functional imperative; widening civil–military gap; officer politicisation risk; professionalism decline; casualty-aversion myth challenged (pp.1–2, 5–7)</t>
+  </si>
+  <si>
+    <t>Social vs functional imperatives; respect–service paradox in recruiting; officer partisanship; public not inherently casualty-averse; fewer veterans alters use-of-force patterns; estrangement risks (pp.1–2, 5–7)</t>
+  </si>
+  <si>
+    <t>Clear frame linking culture, recruiting and legitimacy; synthesises “gap” findings; policy salience on apolitical ethos and PME (pp.4–6)</t>
+  </si>
+  <si>
+    <t>US-centric; normative tone; relies on secondary surveys; pre-9/11 horizon; limited small-state transfer (pp.1–2, 7–8)</t>
+  </si>
+  <si>
+    <t>Converges with civil–military gap literature on politicisation and culture; aligns with professional-ethic lenses (pp.4–6)</t>
+  </si>
+  <si>
+    <t>Differs by challenging casualty-aversion assumptions and rejecting normalised partisanship in the officer corps (pp.5–6)</t>
+  </si>
+  <si>
+    <t>Warns social imperative drives integration debates; estrangement harms recruiting and alliance cohesion; officers more casualty-averse than civilians on peace ops (pp.4–6)</t>
+  </si>
+  <si>
+    <t>Non-partisanship and PME on ethics are force protection; build indicators of civil–military understanding; correct casualty myths (pp.5–7)</t>
+  </si>
+  <si>
+    <t>Retired US officer; West Point professor; professional-ethic lens; audience policy and civil–military readers (p.1)</t>
+  </si>
+  <si>
+    <t>Pre-9/11; extrapolates from surveys; no small-state cases (pp.7–8)</t>
+  </si>
+  <si>
+    <t>D_Describe: Postmodern era produces civil–military estrangement, politicisation risks and a professionalism decline (pp.1, 5–7).</t>
+  </si>
+  <si>
+    <t>D_Interpret: DSS needs apolitical ethos and legitimacy management; recruitment hinges on culture; omits cross-national tests (pp.5–7).</t>
+  </si>
+  <si>
+    <t>D_Methodology: Essayistic synthesis of surveys and literature; high face validity; low measurement depth (pp.1–2, 5–6).</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Bite is myth-busting casualty aversion and warning on officer partisanship (pp.1, 5–6); Falsifier: if longitudinal data show rising public casualty aversion and a durably nonpartisan officer corps.</t>
+  </si>
+  <si>
+    <t>D_Author: Retired officer and USMA professor; institutional–professional lens. Really saying: restore an apolitical professional ethic to bridge the gap (p.1).</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Tracks gap studies; diverges from steady-professionalism narratives by flagging decline risks (pp.5–7).</t>
+  </si>
+  <si>
+    <t>D_Limit: US-only, pre-9/11, sparse metrics (pp.7–8).</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should codify non-partisanship, track attitudes, and invest PME in ethics and civil–military literacy (pp.5–7).</t>
+  </si>
+  <si>
+    <t>SNIDER_2000A</t>
+  </si>
+  <si>
+    <t>Kenneth McDonagh</t>
+  </si>
+  <si>
+    <t>Ireland’s foreign relations in 2020: Covid shock, coalition, EU–UK–US, UNSC, Asia-Pacific (pp.311–315, 330–331)</t>
+  </si>
+  <si>
+    <t>Annual review of policy events; document synthesis; secondary sources</t>
+  </si>
+  <si>
+    <t>States triadic triangulation shaped choices; EU coordination on vaccines and recovery; tensions over Apple tax and Golfgate; Biden’s GFA stance; UNSC seat; Asia-Pacific strategy (pp.312, 319–321, 321–324, 330–331)</t>
+  </si>
+  <si>
+    <t>Triangulation London–Brussels–Washington; emergency governance; EU common procurement and bond financing; Apple tax appeal; Hogan resignation; bipartisan US support for GFA; UNSC win; Asia-Pacific turn (pp.312, 319–321, 321–324, 330–331)</t>
+  </si>
+  <si>
+    <t>Synoptic, well structured; connects domestic politics to external levers; precise on EU instruments and US signals</t>
+  </si>
+  <si>
+    <t>Largely descriptive; sparse outcome metrics; little engagement with defence capability detail; pre-2022 horizon</t>
+  </si>
+  <si>
+    <t>Converges with Cottey on anchoring small states in institutions; aligns with DF multilateral posture</t>
+  </si>
+  <si>
+    <t>Differs from purely realist takes that downplay EU solidarity or US bipartisanship on Ireland</t>
+  </si>
+  <si>
+    <t>Useful 2020 scaffold for DSS: shows how institutions buffered shocks and created options; watch domestic accountability costs and tax politics (pp.319–324)</t>
+  </si>
+  <si>
+    <t>Ireland leveraged institutions to manage shocks; DF planning should assume political economy constraints and institutional pathways matter (pp.319–321, 330–331)</t>
+  </si>
+  <si>
+    <t>Multilateralist Irish academic, policy-oriented; likely audience is officials and scholars; positive to EU coordination</t>
+  </si>
+  <si>
+    <t>One-year scope; descriptive bias; does not quantify policy effectiveness</t>
+  </si>
+  <si>
+    <t>D_Describe: 2020 triangulation under Covid, coalition and UNSC win; EU–UK–US core (pp.311–315, 330–331).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Frames DSS levers; omits post-2021 outcomes.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Annual review using secondary documents; mapping valid; measures thin.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest on triangulation and EU instruments (p.312, 319–321); Falsifier: if unilateralism outperformed.</t>
+  </si>
+  <si>
+    <t>D_Author: Irish, multilateral lens, policy audience. Really saying: anchor small states in institutions.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Aligns with Cottey on institutional anchors; complements Feaver on incentives.</t>
+  </si>
+  <si>
+    <t>D_Limit: Descriptive sweep, few metrics.</t>
+  </si>
+  <si>
+    <t>D_Implication: DF prioritises governance, interoperability, bipartisan US ties, Asia-Pacific reach.</t>
+  </si>
+  <si>
+    <t>MCDONAGH_2001</t>
+  </si>
+  <si>
+    <t>Boswinkel et al.</t>
+  </si>
+  <si>
+    <t>The concept of Information Manoeuvre: Winning the Battle of Perceptions</t>
+  </si>
+  <si>
+    <t>Conceptual synthesis with practitioner interviews; doctrine scan</t>
+  </si>
+  <si>
+    <t>Four elements (purpose, actions, character, contribution) and three dilemmas framed for operations (:contentReference[oaicite:0]{index=0}; :contentReference[oaicite:1]{index=1})</t>
+  </si>
+  <si>
+    <t>Influence behaviour; generate effects shaping attitudes and perceptions; tempo and OODA alignment; multi-capability integration (:contentReference[oaicite:2]{index=2}; :contentReference[oaicite:3]{index=3})</t>
+  </si>
+  <si>
+    <t>Bridges theory to practice; shows tempo as decisive; uses Ukraine vignettes to illustrate tactics (:contentReference[oaicite:4]{index=4})</t>
+  </si>
+  <si>
+    <t>Definition unsettled; legal aspects excluded; metrics for advantage unclear (:contentReference[oaicite:5]{index=5}; :contentReference[oaicite:6]{index=6})</t>
+  </si>
+  <si>
+    <t>Converges with USMC MCDP 8 on information advantage and cross-domain use (:contentReference[oaicite:7]{index=7})</t>
+  </si>
+  <si>
+    <t>Focuses on Dutch operationalisation vs USMC’s service-wide warfighting function (:contentReference[oaicite:8]{index=8})</t>
+  </si>
+  <si>
+    <t>Debate on physicality of IM signals scope tensions; culture shapes definitions (:contentReference[oaicite:9]{index=9}; :contentReference[oaicite:10]{index=10})</t>
+  </si>
+  <si>
+    <t>Use IM as manoeuvre, not bolt-on IO; invest in decision speed and trust (:contentReference[oaicite:11]{index=11})</t>
+  </si>
+  <si>
+    <t>Policy-advice lens for RNLA; incentive to justify IM adoption</t>
+  </si>
+  <si>
+    <t>Conceptual, early maturity; lacks outcome measures and NATO consensus</t>
+  </si>
+  <si>
+    <t>IM’s aim and elements clarified for planners (:contentReference[oaicite:12]{index=12}).</t>
+  </si>
+  <si>
+    <t>Reframes influence as manoeuvre; omits success metrics.</t>
+  </si>
+  <si>
+    <t>Interviews plus doctrine scan; moderate validity, practitioner-anchored.</t>
+  </si>
+  <si>
+    <t>Strongest bite: tempo joins IM to OODA (:contentReference[oaicite:13]{index=13}); Falsifier: if faster decisions do not shift outcomes.</t>
+  </si>
+  <si>
+    <t>HCSS for RNLA; pragmatic reform stance; Really saying: centre operations on IM.</t>
+  </si>
+  <si>
+    <t>Aligns with MCDP 8 on information advantages and daily competition (:contentReference[oaicite:14]{index=14}).</t>
+  </si>
+  <si>
+    <t>Unsettled definition across NATO limits common practice (:contentReference[oaicite:15]{index=15}).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF: build IM cells, speed decisions, blend cyber, EW, PSYOPS, fires. </t>
+  </si>
+  <si>
+    <t>NATO</t>
+  </si>
+  <si>
+    <t>Strategic Concept 2022</t>
+  </si>
+  <si>
+    <t>Allied strategy text; political-military doctrine</t>
+  </si>
+  <si>
+    <t>Defines core tasks; highlights hybrid tactics, disinformation, malicious cyber, resilience imperative (:contentReference[oaicite:16]{index=16}; :contentReference[oaicite:17]{index=17})</t>
+  </si>
+  <si>
+    <t>Hybrid pressure exploits openness and digitalisation; attacks include proxies, disinformation, economic coercion (:contentReference[oaicite:18]{index=18})</t>
+  </si>
+  <si>
+    <t>Authoritative framing; 360-degree threat view; resilience mainstreamed with tech edge (:contentReference[oaicite:19]{index=19})</t>
+  </si>
+  <si>
+    <t>High-level; assigns no concrete force design or metrics</t>
+  </si>
+  <si>
+    <t>Converges with social-media doctrine on cognitive contestation (:contentReference[oaicite:20]{index=20})</t>
+  </si>
+  <si>
+    <t>Differs from service doctrine by remaining political and capability-agnostic</t>
+  </si>
+  <si>
+    <t>Useful for justifying Irish investments in resilience, ISR, info-ops with partners</t>
+  </si>
+  <si>
+    <t>Alliance consensus lens; risk of least-common-denominator language</t>
+  </si>
+  <si>
+    <t>Non-binding detail; implementation varies by state</t>
+  </si>
+  <si>
+    <t>Threats name hybrid, disinformation, coercion (:contentReference[oaicite:21]{index=21}).</t>
+  </si>
+  <si>
+    <t>Signals political will; omits campaign-level practice.</t>
+  </si>
+  <si>
+    <t>Consensus text; valid as frame, not as TTPs.</t>
+  </si>
+  <si>
+    <t>Strongest bite: hybrid threat catalogue (:contentReference[oaicite:22]{index=22}); Falsifier: if hybrid effects measurably fall absent new measures.</t>
+  </si>
+  <si>
+    <t>NATO Secretariat voice; Really saying: harden societies and forces.</t>
+  </si>
+  <si>
+    <t>Aligns with López Garay on cognitive and platform vectors (:contentReference[oaicite:23]{index=23}).</t>
+  </si>
+  <si>
+    <t>Abstraction level limits direct tasking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF: prioritise resilience, SIGINT, counter-disinfo, EU-NATO interoperability. </t>
+  </si>
+  <si>
+    <t>McDonagh, K.</t>
+  </si>
+  <si>
+    <t>Europe First: A new division of labour in European Security</t>
+  </si>
+  <si>
+    <t>Policy analysis essay</t>
+  </si>
+  <si>
+    <t>Argues Europe must replace US enablers; leverage EDIRPA, ASAP, SAFE; plan deployments (:contentReference[oaicite:24]{index=24}; :contentReference[oaicite:25]{index=25})</t>
+  </si>
+  <si>
+    <t>Over-reliance on US ISR and AAR; Ukraine supply replacement; €150bn SAFE; up to €800bn ReArm (:contentReference[oaicite:26]{index=26})</t>
+  </si>
+  <si>
+    <t>Concrete instruments and figures; candid about ISR and refuelling gaps (:contentReference[oaicite:27]{index=27})</t>
+  </si>
+  <si>
+    <t>Assumes sustained political will; neutral members complicate integration (:contentReference[oaicite:28]{index=28})</t>
+  </si>
+  <si>
+    <t>Converges with NATO SC on resilience and autonomy signals (:contentReference[oaicite:29]{index=29})</t>
+  </si>
+  <si>
+    <t>Differs by foregrounding EU fiscal tools and troop contingencies</t>
+  </si>
+  <si>
+    <t>For Irish policy, maps EU levers and niches for small states</t>
+  </si>
+  <si>
+    <t>Academic EU-CSDP lens; integration-friendly inclination</t>
+  </si>
+  <si>
+    <t>Opinion-format; lacks costing and force design detail</t>
+  </si>
+  <si>
+    <t>Europe must fund and field enablers now (:contentReference[oaicite:30]{index=30}).</t>
+  </si>
+  <si>
+    <t>Why it matters: a US gap is plausible; omits industrial timelines.</t>
+  </si>
+  <si>
+    <t>Essay-style synthesis; solid references, limited empirical testing.</t>
+  </si>
+  <si>
+    <t>Strongest bite: ISR and AAR urgency (:contentReference[oaicite:31]{index=31}); Falsifier: if EU achieves redundancy without US exits.</t>
+  </si>
+  <si>
+    <t>Associate professor voice; Really saying: Europe must carry weight.</t>
+  </si>
+  <si>
+    <t>Aligns with NATO SC threat picture; diverges by EU-first instruments.</t>
+  </si>
+  <si>
+    <t>Consensus may stall; neutrality blocks deeper defence steps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF: aim ISR contributions, refuelling links, EU funding taps. </t>
+  </si>
+  <si>
+    <t>MCDONAGH</t>
+  </si>
+  <si>
+    <t>López Garay, M.</t>
+  </si>
+  <si>
+    <t>Social Media as Weapons of Mass Influence and the Need for a Doctrine of Information</t>
+  </si>
+  <si>
+    <t>Opinion paper; doctrinal synthesis</t>
+  </si>
+  <si>
+    <t>Social platforms function as weapons of mass manipulation in the cognitive domain; doctrine needed (:contentReference[oaicite:32]{index=32}; :contentReference[oaicite:33]{index=33})</t>
+  </si>
+  <si>
+    <t>TikTok as primary news for youth; WhatsApp/Telegram one-way encrypted channels enable propaganda (:contentReference[oaicite:34]{index=34}; :contentReference[oaicite:35]{index=35})</t>
+  </si>
+  <si>
+    <t>Ties platform mechanics to cognitive effects; links to NATO SC and national doctrine (:contentReference[oaicite:36]{index=36})</t>
+  </si>
+  <si>
+    <t>Normative tone; sparse causal measurement; Spain-centric doctrine references (:contentReference[oaicite:37]{index=37})</t>
+  </si>
+  <si>
+    <t>Converges with NATO SC on hybrid and disinformation threats (:contentReference[oaicite:38]{index=38})</t>
+  </si>
+  <si>
+    <t>Differs by deep platform focus and messaging-channel dynamics</t>
+  </si>
+  <si>
+    <t>Actionable for DF comms governance and youth-focused counter-narratives</t>
+  </si>
+  <si>
+    <t>IEEE opinion disclaimer; national doctrinal lens</t>
+  </si>
+  <si>
+    <t>Opinion format; lacks campaign-level data</t>
+  </si>
+  <si>
+    <t>SM are cognitive weapons needing doctrine (:contentReference[oaicite:39]{index=39}).</t>
+  </si>
+  <si>
+    <t>Highlights urgency; omits effect-size thresholds.</t>
+  </si>
+  <si>
+    <t>Concept review; curated sources; acceptable validity for framing.</t>
+  </si>
+  <si>
+    <t>Strongest bite: encrypted channels’ propaganda utility (:contentReference[oaicite:40]{index=40}); Falsifier: if engagement data show two-way deliberation dominates.</t>
+  </si>
+  <si>
+    <t>Spanish MoD community context; Really saying: build Informational Manoeuvre now.</t>
+  </si>
+  <si>
+    <t>Aligns with MCDP 8 and IM on cognition and tempo.</t>
+  </si>
+  <si>
+    <t>Generalises from Spain and NATO; portability to Ireland needs care.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF: resource monitoring, counter-disinfo cells, rapid myth-busting SOPs. </t>
+  </si>
+  <si>
+    <t>GARAY_2025</t>
+  </si>
+  <si>
+    <t>Office of Net Assessment study team</t>
+  </si>
+  <si>
+    <t>China: The Three Warfares</t>
+  </si>
+  <si>
+    <t>Commissioned multi-paper study; doctrine and cases</t>
+  </si>
+  <si>
+    <t>Defines psychological, media, legal warfare; shapes environment to deter or pre-empt kinetic (:contentReference[oaicite:41]{index=41}; :contentReference[oaicite:42]{index=42})</t>
+  </si>
+  <si>
+    <t>Targets US access and alliances; lawfare central; countermeasures proposed; scenarios across SCS and Senkaku (:contentReference[oaicite:43]{index=43}; :contentReference[oaicite:44]{index=44})</t>
+  </si>
+  <si>
+    <t>Authoritative definitions; anticipates lawfare instruments and public-opinion warfare (:contentReference[oaicite:45]{index=45})</t>
+  </si>
+  <si>
+    <t>US-centric lens; dated pre-Ukraine info environment; redactions limit granularity</t>
+  </si>
+  <si>
+    <t>Converges with IM on shaping perceptions and decision-making windows</t>
+  </si>
+  <si>
+    <t>Differs by elevating lawfare as equal pillar to media and psychological</t>
+  </si>
+  <si>
+    <t>Useful to stress legal preparedness and public diplomacy for small states</t>
+  </si>
+  <si>
+    <t>US DoD perspective; competitive framing</t>
+  </si>
+  <si>
+    <t>Temporal scope and geography narrow</t>
+  </si>
+  <si>
+    <t>Three Warfares = political warfare triad (:contentReference[oaicite:46]{index=46}).</t>
+  </si>
+  <si>
+    <t>Why it matters: lawfare corrodes access; omits small-state playbooks.</t>
+  </si>
+  <si>
+    <t>Structured literature plus cases; credible, but era-bound.</t>
+  </si>
+  <si>
+    <t>Strongest bite: formal triad definitions (:contentReference[oaicite:47]{index=47}); Falsifier: if PRC campaigns lack measurable legal or media components.</t>
+  </si>
+  <si>
+    <t>Policy-analytic stance; Really saying: win without fighting by law and narrative.</t>
+  </si>
+  <si>
+    <t>Aligns with NATO SC on hybrid pressure; diverges in theatre focus.</t>
+  </si>
+  <si>
+    <t>Older evidence risks misfit to 2025 tactics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF: stock counter-lawfare, legal comms, allied messaging drills. </t>
+  </si>
+  <si>
+    <t>ONA_2013</t>
+  </si>
+  <si>
+    <t>U.S. Marine Corps</t>
+  </si>
+  <si>
+    <t>MCDP 8: Information</t>
+  </si>
+  <si>
+    <t>Doctrinal publication</t>
+  </si>
+  <si>
+    <t>Information designated a warfighting function with principles and pursuit of information advantage (:contentReference[oaicite:48]{index=48}; :contentReference[oaicite:49]{index=49})</t>
+  </si>
+  <si>
+    <t>Information environment is global and enduring; all domains apply; cross-domain advantages possible (:contentReference[oaicite:50]{index=50}; :contentReference[oaicite:51]{index=51})</t>
+  </si>
+  <si>
+    <t>Clarity, portability across echelons; principles aid planning and daily competition (:contentReference[oaicite:52]{index=52})</t>
+  </si>
+  <si>
+    <t>US-centric examples; not tailored to EU small-state neutrality</t>
+  </si>
+  <si>
+    <t>Converges with IM’s manoeuvre mindset and tempo emphasis (:contentReference[oaicite:53]{index=53})</t>
+  </si>
+  <si>
+    <t>Differs by service doctrine depth vs European policy framing</t>
+  </si>
+  <si>
+    <t>Foundational for DF doctrine adaptation and training refresh</t>
+  </si>
+  <si>
+    <t>USMC advocacy lens; professional education incentive</t>
+  </si>
+  <si>
+    <t>Abstract principles may need Irish contextualisation</t>
+  </si>
+  <si>
+    <t>Info as powerful as any weapon; principles to gain advantages (:contentReference[oaicite:54]{index=54}; :contentReference[oaicite:55]{index=55}).</t>
+  </si>
+  <si>
+    <t>Important, but omits national caveats.</t>
+  </si>
+  <si>
+    <t>Doctrinal synthesis; high validity for conceptual use.</t>
+  </si>
+  <si>
+    <t>Strongest bite: global, enduring IE principle (:contentReference[oaicite:56]{index=56}); Falsifier: if localised IE isolation measurably holds.</t>
+  </si>
+  <si>
+    <t>USMC institutional lens; Really saying: everyone fights with information.</t>
+  </si>
+  <si>
+    <t>Aligns with IM and NATO frames; diverges in prescriptive detail.</t>
+  </si>
+  <si>
+    <t>Principles lack metrics for success.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF: embed info function, train non-specialists, exercise cross-domain messaging. </t>
+  </si>
+  <si>
+    <t>USMC_2022</t>
+  </si>
+  <si>
+    <t>HCSS_2023</t>
+  </si>
+  <si>
+    <t>NATO_2022</t>
   </si>
 </sst>
 </file>
@@ -15682,39 +16259,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0111F966-AC4E-4B87-8117-CC0F46545464}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Y210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" customWidth="1"/>
-    <col min="3" max="3" width="101.81640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" customWidth="1"/>
-    <col min="11" max="11" width="27.453125" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" customWidth="1"/>
-    <col min="13" max="13" width="26.08984375" customWidth="1"/>
-    <col min="14" max="14" width="24.453125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="20.453125" customWidth="1"/>
-    <col min="17" max="17" width="20.08984375" customWidth="1"/>
-    <col min="18" max="18" width="16.36328125" customWidth="1"/>
-    <col min="19" max="19" width="17.6328125" customWidth="1"/>
-    <col min="20" max="20" width="17.1796875" customWidth="1"/>
-    <col min="21" max="21" width="16.81640625" customWidth="1"/>
-    <col min="22" max="22" width="13.26953125" customWidth="1"/>
-    <col min="23" max="23" width="23.26953125" customWidth="1"/>
-    <col min="24" max="24" width="48.54296875" customWidth="1"/>
-    <col min="25" max="25" width="8.7265625" style="7"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" customWidth="1"/>
+    <col min="24" max="24" width="48.5703125" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1">
@@ -30197,6 +30774,603 @@
       </c>
       <c r="V201" t="s">
         <v>4819</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23">
+      <c r="A202" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4821</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4822</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4823</v>
+      </c>
+      <c r="E202" t="s">
+        <v>4824</v>
+      </c>
+      <c r="F202" t="s">
+        <v>4825</v>
+      </c>
+      <c r="G202" t="s">
+        <v>4826</v>
+      </c>
+      <c r="H202" t="s">
+        <v>4827</v>
+      </c>
+      <c r="I202" t="s">
+        <v>4828</v>
+      </c>
+      <c r="J202" t="s">
+        <v>4829</v>
+      </c>
+      <c r="K202" t="s">
+        <v>4830</v>
+      </c>
+      <c r="L202" t="s">
+        <v>4831</v>
+      </c>
+      <c r="M202" t="s">
+        <v>4832</v>
+      </c>
+      <c r="N202" t="s">
+        <v>4833</v>
+      </c>
+      <c r="O202" t="s">
+        <v>4834</v>
+      </c>
+      <c r="P202" t="s">
+        <v>4835</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>4836</v>
+      </c>
+      <c r="R202" t="s">
+        <v>4837</v>
+      </c>
+      <c r="S202" t="s">
+        <v>4838</v>
+      </c>
+      <c r="T202" t="s">
+        <v>4839</v>
+      </c>
+      <c r="U202" t="s">
+        <v>4840</v>
+      </c>
+      <c r="V202" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23">
+      <c r="A203" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4755</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4843</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4844</v>
+      </c>
+      <c r="E203" t="s">
+        <v>4845</v>
+      </c>
+      <c r="F203" t="s">
+        <v>4846</v>
+      </c>
+      <c r="G203" t="s">
+        <v>4847</v>
+      </c>
+      <c r="H203" t="s">
+        <v>4848</v>
+      </c>
+      <c r="I203" t="s">
+        <v>4849</v>
+      </c>
+      <c r="J203" t="s">
+        <v>4850</v>
+      </c>
+      <c r="K203" t="s">
+        <v>4851</v>
+      </c>
+      <c r="L203" t="s">
+        <v>4852</v>
+      </c>
+      <c r="M203" t="s">
+        <v>4853</v>
+      </c>
+      <c r="N203" t="s">
+        <v>4854</v>
+      </c>
+      <c r="O203" t="s">
+        <v>4855</v>
+      </c>
+      <c r="P203" t="s">
+        <v>4856</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>4857</v>
+      </c>
+      <c r="R203" t="s">
+        <v>4858</v>
+      </c>
+      <c r="S203" t="s">
+        <v>4859</v>
+      </c>
+      <c r="T203" t="s">
+        <v>4860</v>
+      </c>
+      <c r="U203" t="s">
+        <v>4861</v>
+      </c>
+      <c r="V203" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23">
+      <c r="A204" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4865</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4866</v>
+      </c>
+      <c r="E204" t="s">
+        <v>4867</v>
+      </c>
+      <c r="F204" t="s">
+        <v>4868</v>
+      </c>
+      <c r="G204" t="s">
+        <v>4869</v>
+      </c>
+      <c r="H204" t="s">
+        <v>4870</v>
+      </c>
+      <c r="I204" t="s">
+        <v>4871</v>
+      </c>
+      <c r="J204" t="s">
+        <v>4872</v>
+      </c>
+      <c r="K204" t="s">
+        <v>4873</v>
+      </c>
+      <c r="L204" t="s">
+        <v>4874</v>
+      </c>
+      <c r="M204" t="s">
+        <v>4875</v>
+      </c>
+      <c r="N204" t="s">
+        <v>4876</v>
+      </c>
+      <c r="P204" t="s">
+        <v>4877</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>4878</v>
+      </c>
+      <c r="R204" t="s">
+        <v>4879</v>
+      </c>
+      <c r="S204" t="s">
+        <v>4880</v>
+      </c>
+      <c r="T204" t="s">
+        <v>4881</v>
+      </c>
+      <c r="U204" t="s">
+        <v>4882</v>
+      </c>
+      <c r="V204" t="s">
+        <v>4883</v>
+      </c>
+      <c r="W204" t="s">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23">
+      <c r="A205" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4887</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4888</v>
+      </c>
+      <c r="E205" t="s">
+        <v>4889</v>
+      </c>
+      <c r="F205" t="s">
+        <v>4890</v>
+      </c>
+      <c r="G205" t="s">
+        <v>4891</v>
+      </c>
+      <c r="H205" t="s">
+        <v>4892</v>
+      </c>
+      <c r="I205" t="s">
+        <v>4893</v>
+      </c>
+      <c r="J205" t="s">
+        <v>4894</v>
+      </c>
+      <c r="K205" t="s">
+        <v>4895</v>
+      </c>
+      <c r="L205" t="s">
+        <v>4896</v>
+      </c>
+      <c r="M205" t="s">
+        <v>4897</v>
+      </c>
+      <c r="N205" t="s">
+        <v>4898</v>
+      </c>
+      <c r="O205" t="s">
+        <v>4899</v>
+      </c>
+      <c r="P205" t="s">
+        <v>4900</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>4901</v>
+      </c>
+      <c r="R205" t="s">
+        <v>4902</v>
+      </c>
+      <c r="S205" t="s">
+        <v>4903</v>
+      </c>
+      <c r="T205" t="s">
+        <v>4904</v>
+      </c>
+      <c r="U205" t="s">
+        <v>4905</v>
+      </c>
+      <c r="V205" t="s">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23">
+      <c r="A206" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4907</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4908</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4909</v>
+      </c>
+      <c r="E206" t="s">
+        <v>4910</v>
+      </c>
+      <c r="F206" t="s">
+        <v>4911</v>
+      </c>
+      <c r="G206" t="s">
+        <v>4912</v>
+      </c>
+      <c r="H206" t="s">
+        <v>4913</v>
+      </c>
+      <c r="I206" t="s">
+        <v>4914</v>
+      </c>
+      <c r="J206" t="s">
+        <v>4915</v>
+      </c>
+      <c r="K206" t="s">
+        <v>4916</v>
+      </c>
+      <c r="L206" t="s">
+        <v>4917</v>
+      </c>
+      <c r="M206" t="s">
+        <v>4918</v>
+      </c>
+      <c r="N206" t="s">
+        <v>4919</v>
+      </c>
+      <c r="O206" t="s">
+        <v>4920</v>
+      </c>
+      <c r="P206" t="s">
+        <v>4921</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>4922</v>
+      </c>
+      <c r="R206" t="s">
+        <v>4923</v>
+      </c>
+      <c r="S206" t="s">
+        <v>4924</v>
+      </c>
+      <c r="T206" t="s">
+        <v>4925</v>
+      </c>
+      <c r="U206" t="s">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23">
+      <c r="A207" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4927</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4928</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4929</v>
+      </c>
+      <c r="E207" t="s">
+        <v>4930</v>
+      </c>
+      <c r="F207" t="s">
+        <v>4931</v>
+      </c>
+      <c r="G207" t="s">
+        <v>4932</v>
+      </c>
+      <c r="H207" t="s">
+        <v>4933</v>
+      </c>
+      <c r="I207" t="s">
+        <v>4934</v>
+      </c>
+      <c r="J207" t="s">
+        <v>4935</v>
+      </c>
+      <c r="K207" t="s">
+        <v>4936</v>
+      </c>
+      <c r="L207" t="s">
+        <v>4937</v>
+      </c>
+      <c r="M207" t="s">
+        <v>4938</v>
+      </c>
+      <c r="N207" t="s">
+        <v>4939</v>
+      </c>
+      <c r="O207" t="s">
+        <v>4940</v>
+      </c>
+      <c r="P207" t="s">
+        <v>4941</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>4942</v>
+      </c>
+      <c r="R207" t="s">
+        <v>4943</v>
+      </c>
+      <c r="S207" t="s">
+        <v>4944</v>
+      </c>
+      <c r="T207" t="s">
+        <v>4945</v>
+      </c>
+      <c r="U207" t="s">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23">
+      <c r="A208" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4949</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4950</v>
+      </c>
+      <c r="E208" t="s">
+        <v>4951</v>
+      </c>
+      <c r="F208" t="s">
+        <v>4952</v>
+      </c>
+      <c r="G208" t="s">
+        <v>4953</v>
+      </c>
+      <c r="H208" t="s">
+        <v>4954</v>
+      </c>
+      <c r="I208" t="s">
+        <v>4955</v>
+      </c>
+      <c r="J208" t="s">
+        <v>4956</v>
+      </c>
+      <c r="K208" t="s">
+        <v>4957</v>
+      </c>
+      <c r="L208" t="s">
+        <v>4958</v>
+      </c>
+      <c r="M208" t="s">
+        <v>4959</v>
+      </c>
+      <c r="N208" t="s">
+        <v>4960</v>
+      </c>
+      <c r="O208" t="s">
+        <v>4961</v>
+      </c>
+      <c r="P208" t="s">
+        <v>4962</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>4963</v>
+      </c>
+      <c r="R208" t="s">
+        <v>4964</v>
+      </c>
+      <c r="S208" t="s">
+        <v>4965</v>
+      </c>
+      <c r="T208" t="s">
+        <v>4966</v>
+      </c>
+      <c r="U208" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4970</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4971</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4972</v>
+      </c>
+      <c r="F209" t="s">
+        <v>4973</v>
+      </c>
+      <c r="G209" t="s">
+        <v>4974</v>
+      </c>
+      <c r="H209" t="s">
+        <v>4975</v>
+      </c>
+      <c r="I209" t="s">
+        <v>4976</v>
+      </c>
+      <c r="J209" t="s">
+        <v>4977</v>
+      </c>
+      <c r="K209" t="s">
+        <v>4978</v>
+      </c>
+      <c r="L209" t="s">
+        <v>4979</v>
+      </c>
+      <c r="M209" t="s">
+        <v>4980</v>
+      </c>
+      <c r="N209" t="s">
+        <v>4981</v>
+      </c>
+      <c r="O209" t="s">
+        <v>4982</v>
+      </c>
+      <c r="P209" t="s">
+        <v>4983</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>4984</v>
+      </c>
+      <c r="R209" t="s">
+        <v>4985</v>
+      </c>
+      <c r="S209" t="s">
+        <v>4986</v>
+      </c>
+      <c r="T209" t="s">
+        <v>4987</v>
+      </c>
+      <c r="U209" t="s">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4990</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4991</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4992</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4993</v>
+      </c>
+      <c r="F210" t="s">
+        <v>4994</v>
+      </c>
+      <c r="G210" t="s">
+        <v>4995</v>
+      </c>
+      <c r="H210" t="s">
+        <v>4996</v>
+      </c>
+      <c r="I210" t="s">
+        <v>4997</v>
+      </c>
+      <c r="J210" t="s">
+        <v>4998</v>
+      </c>
+      <c r="K210" t="s">
+        <v>4999</v>
+      </c>
+      <c r="L210" t="s">
+        <v>5000</v>
+      </c>
+      <c r="M210" t="s">
+        <v>5001</v>
+      </c>
+      <c r="N210" t="s">
+        <v>5002</v>
+      </c>
+      <c r="O210" t="s">
+        <v>5003</v>
+      </c>
+      <c r="P210" t="s">
+        <v>5004</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>5005</v>
+      </c>
+      <c r="R210" t="s">
+        <v>5006</v>
+      </c>
+      <c r="S210" t="s">
+        <v>5007</v>
+      </c>
+      <c r="T210" t="s">
+        <v>5008</v>
+      </c>
+      <c r="U210" t="s">
+        <v>5009</v>
       </c>
     </row>
   </sheetData>
@@ -30215,7 +31389,7 @@
       <selection sqref="A1:A217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -31212,9 +32386,9 @@
       <selection activeCell="A147" sqref="A1:A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.5">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="4" t="s">
         <v>810</v>
       </c>
@@ -31251,7 +32425,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.5">
+    <row r="13" spans="1:1" ht="18">
       <c r="A13" s="4" t="s">
         <v>815</v>
       </c>
@@ -31280,7 +32454,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.5">
+    <row r="23" spans="1:1" ht="18">
       <c r="A23" s="4" t="s">
         <v>819</v>
       </c>
@@ -31317,7 +32491,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.5">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="4" t="s">
         <v>824</v>
       </c>
@@ -31362,7 +32536,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.5">
+    <row r="49" spans="1:1" ht="18">
       <c r="A49" s="4" t="s">
         <v>830</v>
       </c>
@@ -31465,7 +32639,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="17.5">
+    <row r="79" spans="1:1" ht="18">
       <c r="A79" s="4" t="s">
         <v>844</v>
       </c>
@@ -31502,7 +32676,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="17.5">
+    <row r="91" spans="1:1" ht="18">
       <c r="A91" s="4" t="s">
         <v>849</v>
       </c>
@@ -31539,7 +32713,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="17.5">
+    <row r="103" spans="1:1" ht="18">
       <c r="A103" s="4" t="s">
         <v>854</v>
       </c>
@@ -31576,7 +32750,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="17.5">
+    <row r="115" spans="1:1" ht="18">
       <c r="A115" s="4" t="s">
         <v>859</v>
       </c>
@@ -31613,7 +32787,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17.5">
+    <row r="127" spans="1:1" ht="18">
       <c r="A127" s="4" t="s">
         <v>864</v>
       </c>
@@ -31650,7 +32824,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="17.5">
+    <row r="139" spans="1:1" ht="18">
       <c r="A139" s="4" t="s">
         <v>869</v>
       </c>

--- a/JCSC_SOURCE_MATRIX.xlsx
+++ b/JCSC_SOURCE_MATRIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\JCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91C6834-77AD-46EA-8F6D-33960C846C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D7A5AC-6E2B-4D99-8095-F77B15CFD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A08C367-70A1-4CB7-9B0B-0DF2B9CEDD0C}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIX DATA" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5094" uniqueCount="5013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="5056">
   <si>
     <t>Author</t>
   </si>
@@ -15830,6 +15830,135 @@
   </si>
   <si>
     <t>NATO_2022</t>
+  </si>
+  <si>
+    <t>Feaver, Peter D.</t>
+  </si>
+  <si>
+    <t>Civil–military relations; control, delegation, monitoring</t>
+  </si>
+  <si>
+    <t>Theoretical review and taxonomy; principal–agent framing</t>
+  </si>
+  <si>
+    <t>Clarifies the civil–military problematique; expands DVs to compliance and delegation; highlights monitoring’s centrality and a US renaissance (pp.214–221, 229–230)</t>
+  </si>
+  <si>
+    <t>Problematique; DVs beyond coups; internal vs external IVs; mechanisms to curb capacity and disposition; monitoring in mature democracies (pp.214–226, 220–221)</t>
+  </si>
+  <si>
+    <t>Clear taxonomy; bridges subfields; strong policy relevance; sharp DV/IV mapping (pp.217–223)</t>
+  </si>
+  <si>
+    <t>US-centric tilt; limited comparative data; hidden influence hard to measure; monitoring efficacy uncertain (pp.219–221, 229–230)</t>
+  </si>
+  <si>
+    <t>Aligns with Huntington on civilian supremacy and with Desch on conditional effects (pp.222–223)</t>
+  </si>
+  <si>
+    <t>Differs from coup-centrism by privileging compliance and monitoring; applies agency theory (pp.220–221)</t>
+  </si>
+  <si>
+    <t>Control mechanisms span legal-constitutional, organisational splits, counterweights; trade-offs with effectiveness (pp.224–226). Monitoring becomes routine focal point in entrenched democracies (p.229)</t>
+  </si>
+  <si>
+    <t>Use compliance and monitoring lenses to assess DSS cases; build oversight that shapes incentives, not just structures (pp.220–221, 229–230)</t>
+  </si>
+  <si>
+    <t>Policy-engaged US political science; principal–agent lens; audience includes scholars and defence policymakers</t>
+  </si>
+  <si>
+    <t>Measurement limits; generality over cases; difficulties attributing outcomes to specific mechanisms (pp.219–221, 229–230)</t>
+  </si>
+  <si>
+    <t>D_Describe: Defines problematique; expands DVs to compliance and monitoring (pp.214–221).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Reframes control as delegation dynamics; suits mature democracies; omits granular cases.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Conceptual survey; taxonomy; theory-led synthesis; validity moderate; bias toward US debates.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest: compliance DV and monitoring turn (pp.220–221, 229–230); Falsifier: coups predict better.</t>
+  </si>
+  <si>
+    <t>D_Author: Policy-engaged political scientist; US academy; principal–agent lens. Really saying: monitor relentlessly.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Converges with Desch on conditions; extends Huntington via agency theory; diverges from coup-centrism.</t>
+  </si>
+  <si>
+    <t>D_Limit: Measurement of influence and monitoring efficacy remains weak and contested.</t>
+  </si>
+  <si>
+    <t>D_Implication: For Irish DF: prioritise oversight architecture, clear risk thresholds and compliance audits.</t>
+  </si>
+  <si>
+    <t>FEAVER_1999</t>
+  </si>
+  <si>
+    <t>FEAVER_1998</t>
+  </si>
+  <si>
+    <t>Crisis as shirking; principal–agent control; monitoring and incentives</t>
+  </si>
+  <si>
+    <t>Formal principal–agent framing with qualitative US cases; theory-led typology of shirking vs working</t>
+  </si>
+  <si>
+    <t>Shirking rises with preference divergence and weak monitoring; credible sanctions and information reduce noncompliance (pp.3–7, 15–18)</t>
+  </si>
+  <si>
+    <t>Working vs shirking; monitoring intensity; sanction credibility; information asymmetry; signalling via leaks and foot-dragging (pp.5–6, 12–16)</t>
+  </si>
+  <si>
+    <t>Microfoundations for compliance; policy-relevant levers; testable predictions beyond coups (pp.4–7)</t>
+  </si>
+  <si>
+    <t>Limited cross-national testing; US-centric lens; equifinality and measurement of covert shirking (pp.17–20)</t>
+  </si>
+  <si>
+    <t>Aligns with Huntington on civilian supremacy; connects to rational-choice oversight logics (pp.6–7)</t>
+  </si>
+  <si>
+    <t>Differs from coup-centrism by focusing on routine noncompliance and incentive design (pp.5–6, 12–13)</t>
+  </si>
+  <si>
+    <t>Typology of shirking: budget maximising, policy advocacy, delay, leaks; counters with audits, split commands, promotion rules (pp.12–16, 18–19)</t>
+  </si>
+  <si>
+    <t>For DSS: measure compliance, raise monitoring salience, couple audits with career incentives to deter foot-dragging (pp.15–19)</t>
+  </si>
+  <si>
+    <t>Policy-engaged US academic; agency-theory lens; audience is scholars and defence officials</t>
+  </si>
+  <si>
+    <t>Measurement of hidden influence; causal attribution under multiple principals; sparse comparative baselines (pp.17–20)</t>
+  </si>
+  <si>
+    <t>D_Describe: Explains routine military noncompliance through incentives and monitoring; sanctions curb shirking (pp.3–7, 15–18).</t>
+  </si>
+  <si>
+    <t>D_Interpret: Centres everyday control problems in mature democracies; omits systematic cross-national tests.</t>
+  </si>
+  <si>
+    <t>D_Methodology: Theory-led model with illustrative cases; moderate validity; bias toward US policy debates.</t>
+  </si>
+  <si>
+    <t>D_Evaluate: Strongest bite is incentive–monitoring mechanism for compliance (pp.15–18); Falsifier: if strong monitoring fails to raise working.</t>
+  </si>
+  <si>
+    <t>D_Author: Rational-choice strategist; US academy; policy-facing. Really saying: design incentives then watch relentlessly.</t>
+  </si>
+  <si>
+    <t>D_Synthesis: Extends Huntington via agency theory; converges with accountability scholarship; challenges coup-focused literatures.</t>
+  </si>
+  <si>
+    <t>D_Limit: Hard to observe covert shirking and separate it from dissent.</t>
+  </si>
+  <si>
+    <t>D_Implication: Irish DF should privilege transparent audits, promotion-linked compliance, mixed oversight to dampen routine shirking.</t>
   </si>
 </sst>
 </file>
@@ -16259,10 +16388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0111F966-AC4E-4B87-8117-CC0F46545464}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y210"/>
+  <dimension ref="A1:Y212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31243,7 +31372,7 @@
         <v>4967</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:22">
       <c r="A209" t="s">
         <v>4989</v>
       </c>
@@ -31308,7 +31437,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:22">
       <c r="A210" t="s">
         <v>5010</v>
       </c>
@@ -31371,6 +31500,142 @@
       </c>
       <c r="U210" t="s">
         <v>5009</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
+      <c r="A211" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5013</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5014</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5015</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5016</v>
+      </c>
+      <c r="F211" t="s">
+        <v>5017</v>
+      </c>
+      <c r="G211" t="s">
+        <v>5018</v>
+      </c>
+      <c r="H211" t="s">
+        <v>5019</v>
+      </c>
+      <c r="I211" t="s">
+        <v>5020</v>
+      </c>
+      <c r="J211" t="s">
+        <v>5021</v>
+      </c>
+      <c r="K211" t="s">
+        <v>5022</v>
+      </c>
+      <c r="L211" t="s">
+        <v>5023</v>
+      </c>
+      <c r="M211" t="s">
+        <v>5024</v>
+      </c>
+      <c r="N211" t="s">
+        <v>5025</v>
+      </c>
+      <c r="O211" t="s">
+        <v>5026</v>
+      </c>
+      <c r="P211" t="s">
+        <v>5027</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>5028</v>
+      </c>
+      <c r="R211" t="s">
+        <v>5029</v>
+      </c>
+      <c r="S211" t="s">
+        <v>5030</v>
+      </c>
+      <c r="T211" t="s">
+        <v>5031</v>
+      </c>
+      <c r="U211" t="s">
+        <v>5032</v>
+      </c>
+      <c r="V211" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
+      <c r="A212" t="s">
+        <v>5035</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5013</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5036</v>
+      </c>
+      <c r="D212" t="s">
+        <v>5037</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5038</v>
+      </c>
+      <c r="F212" t="s">
+        <v>5039</v>
+      </c>
+      <c r="G212" t="s">
+        <v>5040</v>
+      </c>
+      <c r="H212" t="s">
+        <v>5041</v>
+      </c>
+      <c r="I212" t="s">
+        <v>5042</v>
+      </c>
+      <c r="J212" t="s">
+        <v>5043</v>
+      </c>
+      <c r="K212" t="s">
+        <v>5044</v>
+      </c>
+      <c r="L212" t="s">
+        <v>5045</v>
+      </c>
+      <c r="M212" t="s">
+        <v>5046</v>
+      </c>
+      <c r="N212" t="s">
+        <v>5047</v>
+      </c>
+      <c r="O212" t="s">
+        <v>5048</v>
+      </c>
+      <c r="P212" t="s">
+        <v>5049</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>5050</v>
+      </c>
+      <c r="R212" t="s">
+        <v>5051</v>
+      </c>
+      <c r="S212" t="s">
+        <v>5052</v>
+      </c>
+      <c r="T212" t="s">
+        <v>5053</v>
+      </c>
+      <c r="U212" t="s">
+        <v>5054</v>
+      </c>
+      <c r="V212" t="s">
+        <v>5055</v>
       </c>
     </row>
   </sheetData>
